--- a/template/rififi_bracket_solo_48.xlsx
+++ b/template/rififi_bracket_solo_48.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugor\GitHub\MarioKartTopGenerator\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugor\GitHub\MarioKartTopGenerator\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A829E0E-4B56-4605-8F78-CA8E3E67C22F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87D17A1-3E28-4BAC-A068-A638AB04F461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{2F0D60C5-63AA-4767-A59B-0FBF4FA7B0CE}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{2F0D60C5-63AA-4767-A59B-0FBF4FA7B0CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Solo 48" sheetId="1" r:id="rId1"/>
@@ -1534,6 +1534,225 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1543,229 +1762,10 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3072,7 +3072,7 @@
   <dimension ref="A1:XFC150"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:H7"/>
+      <selection activeCell="AD44" sqref="AD44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.8" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -3131,82 +3131,82 @@
       <c r="A1" s="83" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
-      <c r="J1" s="135"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="135"/>
-      <c r="M1" s="135"/>
-      <c r="N1" s="135"/>
-      <c r="O1" s="135"/>
-      <c r="P1" s="135"/>
-      <c r="Q1" s="135"/>
-      <c r="R1" s="135"/>
-      <c r="S1" s="135"/>
-      <c r="T1" s="135"/>
-      <c r="U1" s="135"/>
-      <c r="V1" s="135"/>
-      <c r="W1" s="135"/>
-      <c r="X1" s="135"/>
-      <c r="Y1" s="135"/>
-      <c r="Z1" s="135"/>
-      <c r="AA1" s="135"/>
-      <c r="AB1" s="135"/>
-      <c r="AC1" s="135"/>
-      <c r="AD1" s="135"/>
-      <c r="AE1" s="135"/>
-      <c r="AF1" s="135"/>
-      <c r="AG1" s="135"/>
-      <c r="AH1" s="135"/>
-      <c r="AI1" s="135"/>
-      <c r="AJ1" s="135"/>
-      <c r="AK1" s="135"/>
-      <c r="AL1" s="135"/>
-      <c r="AM1" s="135"/>
-      <c r="AN1" s="135"/>
-      <c r="AO1" s="135"/>
-      <c r="AP1" s="135"/>
-      <c r="AQ1" s="135"/>
-      <c r="AR1" s="135"/>
-      <c r="AS1" s="135"/>
-      <c r="AT1" s="135"/>
-      <c r="AU1" s="135"/>
-      <c r="AV1" s="135"/>
-      <c r="AW1" s="135"/>
-      <c r="AX1" s="135"/>
-      <c r="AY1" s="135"/>
-      <c r="AZ1" s="135"/>
-      <c r="BA1" s="135"/>
-      <c r="BB1" s="135"/>
-      <c r="BC1" s="135"/>
-      <c r="BD1" s="135"/>
-      <c r="BE1" s="135"/>
-      <c r="BF1" s="135"/>
-      <c r="BG1" s="136"/>
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="158"/>
+      <c r="J1" s="158"/>
+      <c r="K1" s="158"/>
+      <c r="L1" s="158"/>
+      <c r="M1" s="158"/>
+      <c r="N1" s="158"/>
+      <c r="O1" s="158"/>
+      <c r="P1" s="158"/>
+      <c r="Q1" s="158"/>
+      <c r="R1" s="158"/>
+      <c r="S1" s="158"/>
+      <c r="T1" s="158"/>
+      <c r="U1" s="158"/>
+      <c r="V1" s="158"/>
+      <c r="W1" s="158"/>
+      <c r="X1" s="158"/>
+      <c r="Y1" s="158"/>
+      <c r="Z1" s="158"/>
+      <c r="AA1" s="158"/>
+      <c r="AB1" s="158"/>
+      <c r="AC1" s="158"/>
+      <c r="AD1" s="158"/>
+      <c r="AE1" s="158"/>
+      <c r="AF1" s="158"/>
+      <c r="AG1" s="158"/>
+      <c r="AH1" s="158"/>
+      <c r="AI1" s="158"/>
+      <c r="AJ1" s="158"/>
+      <c r="AK1" s="158"/>
+      <c r="AL1" s="158"/>
+      <c r="AM1" s="158"/>
+      <c r="AN1" s="158"/>
+      <c r="AO1" s="158"/>
+      <c r="AP1" s="158"/>
+      <c r="AQ1" s="158"/>
+      <c r="AR1" s="158"/>
+      <c r="AS1" s="158"/>
+      <c r="AT1" s="158"/>
+      <c r="AU1" s="158"/>
+      <c r="AV1" s="158"/>
+      <c r="AW1" s="158"/>
+      <c r="AX1" s="158"/>
+      <c r="AY1" s="158"/>
+      <c r="AZ1" s="158"/>
+      <c r="BA1" s="158"/>
+      <c r="BB1" s="158"/>
+      <c r="BC1" s="158"/>
+      <c r="BD1" s="158"/>
+      <c r="BE1" s="158"/>
+      <c r="BF1" s="158"/>
+      <c r="BG1" s="159"/>
     </row>
     <row r="2" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="143" t="s">
+      <c r="B2" s="176"/>
+      <c r="C2" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="144"/>
-      <c r="J2" s="144"/>
-      <c r="K2" s="144"/>
-      <c r="L2" s="102"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="167"/>
+      <c r="L2" s="99"/>
       <c r="M2" s="26"/>
       <c r="N2" s="26"/>
       <c r="O2" s="26"/>
@@ -3244,7 +3244,7 @@
       <c r="AU2" s="27"/>
       <c r="AV2" s="27"/>
       <c r="AW2" s="27"/>
-      <c r="AX2" s="102"/>
+      <c r="AX2" s="99"/>
       <c r="AY2" s="27"/>
       <c r="AZ2" s="27"/>
       <c r="BA2" s="27"/>
@@ -3253,23 +3253,23 @@
       <c r="BD2" s="27"/>
       <c r="BE2" s="27"/>
       <c r="BF2" s="28"/>
-      <c r="BG2" s="105"/>
+      <c r="BG2" s="175"/>
     </row>
     <row r="3" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="106"/>
-      <c r="C3" s="145"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="146"/>
-      <c r="I3" s="146"/>
-      <c r="J3" s="146"/>
-      <c r="K3" s="146"/>
-      <c r="L3" s="103"/>
+      <c r="B3" s="176"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="169"/>
+      <c r="G3" s="169"/>
+      <c r="H3" s="169"/>
+      <c r="I3" s="169"/>
+      <c r="J3" s="169"/>
+      <c r="K3" s="169"/>
+      <c r="L3" s="100"/>
       <c r="M3" s="78"/>
       <c r="N3" s="78"/>
       <c r="O3" s="78"/>
@@ -3307,7 +3307,7 @@
       <c r="AU3" s="72"/>
       <c r="AV3" s="72"/>
       <c r="AW3" s="72"/>
-      <c r="AX3" s="103"/>
+      <c r="AX3" s="100"/>
       <c r="AY3" s="72"/>
       <c r="AZ3" s="72"/>
       <c r="BA3" s="72"/>
@@ -3316,23 +3316,23 @@
       <c r="BD3" s="72"/>
       <c r="BE3" s="72"/>
       <c r="BF3" s="29"/>
-      <c r="BG3" s="105"/>
+      <c r="BG3" s="175"/>
     </row>
     <row r="4" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="106"/>
-      <c r="C4" s="145"/>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146"/>
-      <c r="J4" s="146"/>
-      <c r="K4" s="146"/>
-      <c r="L4" s="103"/>
+      <c r="B4" s="176"/>
+      <c r="C4" s="168"/>
+      <c r="D4" s="169"/>
+      <c r="E4" s="169"/>
+      <c r="F4" s="169"/>
+      <c r="G4" s="169"/>
+      <c r="H4" s="169"/>
+      <c r="I4" s="169"/>
+      <c r="J4" s="169"/>
+      <c r="K4" s="169"/>
+      <c r="L4" s="100"/>
       <c r="M4" s="72"/>
       <c r="N4" s="72"/>
       <c r="O4" s="72"/>
@@ -3370,7 +3370,7 @@
       <c r="AU4" s="72"/>
       <c r="AV4" s="72"/>
       <c r="AW4" s="72"/>
-      <c r="AX4" s="103"/>
+      <c r="AX4" s="100"/>
       <c r="AY4" s="72"/>
       <c r="AZ4" s="72"/>
       <c r="BA4" s="72"/>
@@ -3379,143 +3379,143 @@
       <c r="BD4" s="72"/>
       <c r="BE4" s="72"/>
       <c r="BF4" s="29"/>
-      <c r="BG4" s="105"/>
+      <c r="BG4" s="175"/>
     </row>
     <row r="5" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="106"/>
-      <c r="C5" s="145"/>
-      <c r="D5" s="146"/>
-      <c r="E5" s="146"/>
-      <c r="F5" s="146"/>
-      <c r="G5" s="146"/>
-      <c r="H5" s="146"/>
-      <c r="I5" s="146"/>
-      <c r="J5" s="146"/>
-      <c r="K5" s="146"/>
-      <c r="L5" s="103"/>
-      <c r="M5" s="167" t="s">
+      <c r="B5" s="176"/>
+      <c r="C5" s="168"/>
+      <c r="D5" s="169"/>
+      <c r="E5" s="169"/>
+      <c r="F5" s="169"/>
+      <c r="G5" s="169"/>
+      <c r="H5" s="169"/>
+      <c r="I5" s="169"/>
+      <c r="J5" s="169"/>
+      <c r="K5" s="169"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="N5" s="167"/>
-      <c r="O5" s="167"/>
-      <c r="P5" s="167"/>
-      <c r="Q5" s="167"/>
-      <c r="R5" s="167"/>
-      <c r="S5" s="167"/>
-      <c r="T5" s="167"/>
-      <c r="U5" s="167"/>
-      <c r="V5" s="167"/>
-      <c r="W5" s="167"/>
-      <c r="X5" s="167"/>
-      <c r="Y5" s="167"/>
-      <c r="Z5" s="167"/>
-      <c r="AA5" s="167"/>
-      <c r="AB5" s="167"/>
-      <c r="AC5" s="167"/>
-      <c r="AD5" s="167"/>
-      <c r="AE5" s="167"/>
-      <c r="AF5" s="167"/>
-      <c r="AG5" s="167"/>
-      <c r="AH5" s="167"/>
-      <c r="AI5" s="167"/>
-      <c r="AJ5" s="167"/>
-      <c r="AK5" s="167"/>
-      <c r="AL5" s="167"/>
-      <c r="AM5" s="167"/>
-      <c r="AN5" s="167"/>
-      <c r="AO5" s="167"/>
-      <c r="AP5" s="167"/>
-      <c r="AQ5" s="167"/>
-      <c r="AR5" s="167"/>
-      <c r="AS5" s="167"/>
-      <c r="AT5" s="167"/>
-      <c r="AU5" s="167"/>
-      <c r="AV5" s="167"/>
-      <c r="AW5" s="168"/>
-      <c r="AX5" s="103"/>
-      <c r="AY5" s="137" t="s">
+      <c r="N5" s="102"/>
+      <c r="O5" s="102"/>
+      <c r="P5" s="102"/>
+      <c r="Q5" s="102"/>
+      <c r="R5" s="102"/>
+      <c r="S5" s="102"/>
+      <c r="T5" s="102"/>
+      <c r="U5" s="102"/>
+      <c r="V5" s="102"/>
+      <c r="W5" s="102"/>
+      <c r="X5" s="102"/>
+      <c r="Y5" s="102"/>
+      <c r="Z5" s="102"/>
+      <c r="AA5" s="102"/>
+      <c r="AB5" s="102"/>
+      <c r="AC5" s="102"/>
+      <c r="AD5" s="102"/>
+      <c r="AE5" s="102"/>
+      <c r="AF5" s="102"/>
+      <c r="AG5" s="102"/>
+      <c r="AH5" s="102"/>
+      <c r="AI5" s="102"/>
+      <c r="AJ5" s="102"/>
+      <c r="AK5" s="102"/>
+      <c r="AL5" s="102"/>
+      <c r="AM5" s="102"/>
+      <c r="AN5" s="102"/>
+      <c r="AO5" s="102"/>
+      <c r="AP5" s="102"/>
+      <c r="AQ5" s="102"/>
+      <c r="AR5" s="102"/>
+      <c r="AS5" s="102"/>
+      <c r="AT5" s="102"/>
+      <c r="AU5" s="102"/>
+      <c r="AV5" s="102"/>
+      <c r="AW5" s="103"/>
+      <c r="AX5" s="100"/>
+      <c r="AY5" s="160" t="s">
         <v>167</v>
       </c>
-      <c r="AZ5" s="137"/>
-      <c r="BA5" s="137"/>
-      <c r="BB5" s="137"/>
-      <c r="BC5" s="137"/>
-      <c r="BD5" s="137"/>
-      <c r="BE5" s="137"/>
-      <c r="BF5" s="138"/>
-      <c r="BG5" s="105"/>
+      <c r="AZ5" s="160"/>
+      <c r="BA5" s="160"/>
+      <c r="BB5" s="160"/>
+      <c r="BC5" s="160"/>
+      <c r="BD5" s="160"/>
+      <c r="BE5" s="160"/>
+      <c r="BF5" s="161"/>
+      <c r="BG5" s="175"/>
     </row>
     <row r="6" spans="1:59" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="106"/>
-      <c r="C6" s="147"/>
-      <c r="D6" s="148"/>
-      <c r="E6" s="148"/>
-      <c r="F6" s="148"/>
-      <c r="G6" s="148"/>
-      <c r="H6" s="148"/>
-      <c r="I6" s="148"/>
-      <c r="J6" s="148"/>
-      <c r="K6" s="148"/>
-      <c r="L6" s="103"/>
-      <c r="M6" s="169"/>
-      <c r="N6" s="169"/>
-      <c r="O6" s="169"/>
-      <c r="P6" s="169"/>
-      <c r="Q6" s="169"/>
-      <c r="R6" s="169"/>
-      <c r="S6" s="169"/>
-      <c r="T6" s="169"/>
-      <c r="U6" s="169"/>
-      <c r="V6" s="169"/>
-      <c r="W6" s="169"/>
-      <c r="X6" s="169"/>
-      <c r="Y6" s="169"/>
-      <c r="Z6" s="169"/>
-      <c r="AA6" s="169"/>
-      <c r="AB6" s="169"/>
-      <c r="AC6" s="169"/>
-      <c r="AD6" s="169"/>
-      <c r="AE6" s="169"/>
-      <c r="AF6" s="169"/>
-      <c r="AG6" s="169"/>
-      <c r="AH6" s="169"/>
-      <c r="AI6" s="169"/>
-      <c r="AJ6" s="169"/>
-      <c r="AK6" s="169"/>
-      <c r="AL6" s="169"/>
-      <c r="AM6" s="169"/>
-      <c r="AN6" s="169"/>
-      <c r="AO6" s="169"/>
-      <c r="AP6" s="169"/>
-      <c r="AQ6" s="169"/>
-      <c r="AR6" s="169"/>
-      <c r="AS6" s="169"/>
-      <c r="AT6" s="169"/>
-      <c r="AU6" s="169"/>
-      <c r="AV6" s="169"/>
-      <c r="AW6" s="170"/>
-      <c r="AX6" s="103"/>
-      <c r="AY6" s="139"/>
-      <c r="AZ6" s="139"/>
-      <c r="BA6" s="139"/>
-      <c r="BB6" s="139"/>
-      <c r="BC6" s="139"/>
-      <c r="BD6" s="139"/>
-      <c r="BE6" s="139"/>
-      <c r="BF6" s="140"/>
-      <c r="BG6" s="105"/>
+      <c r="B6" s="176"/>
+      <c r="C6" s="170"/>
+      <c r="D6" s="171"/>
+      <c r="E6" s="171"/>
+      <c r="F6" s="171"/>
+      <c r="G6" s="171"/>
+      <c r="H6" s="171"/>
+      <c r="I6" s="171"/>
+      <c r="J6" s="171"/>
+      <c r="K6" s="171"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="104"/>
+      <c r="N6" s="104"/>
+      <c r="O6" s="104"/>
+      <c r="P6" s="104"/>
+      <c r="Q6" s="104"/>
+      <c r="R6" s="104"/>
+      <c r="S6" s="104"/>
+      <c r="T6" s="104"/>
+      <c r="U6" s="104"/>
+      <c r="V6" s="104"/>
+      <c r="W6" s="104"/>
+      <c r="X6" s="104"/>
+      <c r="Y6" s="104"/>
+      <c r="Z6" s="104"/>
+      <c r="AA6" s="104"/>
+      <c r="AB6" s="104"/>
+      <c r="AC6" s="104"/>
+      <c r="AD6" s="104"/>
+      <c r="AE6" s="104"/>
+      <c r="AF6" s="104"/>
+      <c r="AG6" s="104"/>
+      <c r="AH6" s="104"/>
+      <c r="AI6" s="104"/>
+      <c r="AJ6" s="104"/>
+      <c r="AK6" s="104"/>
+      <c r="AL6" s="104"/>
+      <c r="AM6" s="104"/>
+      <c r="AN6" s="104"/>
+      <c r="AO6" s="104"/>
+      <c r="AP6" s="104"/>
+      <c r="AQ6" s="104"/>
+      <c r="AR6" s="104"/>
+      <c r="AS6" s="104"/>
+      <c r="AT6" s="104"/>
+      <c r="AU6" s="104"/>
+      <c r="AV6" s="104"/>
+      <c r="AW6" s="105"/>
+      <c r="AX6" s="100"/>
+      <c r="AY6" s="162"/>
+      <c r="AZ6" s="162"/>
+      <c r="BA6" s="162"/>
+      <c r="BB6" s="162"/>
+      <c r="BC6" s="162"/>
+      <c r="BD6" s="162"/>
+      <c r="BE6" s="162"/>
+      <c r="BF6" s="163"/>
+      <c r="BG6" s="175"/>
     </row>
     <row r="7" spans="1:59" ht="39.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="84" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="106"/>
+      <c r="B7" s="176"/>
       <c r="C7" s="96"/>
       <c r="D7" s="98" t="s">
         <v>217</v>
@@ -3524,76 +3524,76 @@
       <c r="F7" s="98"/>
       <c r="G7" s="98"/>
       <c r="H7" s="98"/>
-      <c r="I7" s="173" t="str">
+      <c r="I7" s="112" t="str">
         <f>"01/01/2025"</f>
         <v>01/01/2025</v>
       </c>
-      <c r="J7" s="174"/>
+      <c r="J7" s="113"/>
       <c r="K7" s="97"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="171"/>
-      <c r="N7" s="171"/>
-      <c r="O7" s="171"/>
-      <c r="P7" s="171"/>
-      <c r="Q7" s="171"/>
-      <c r="R7" s="171"/>
-      <c r="S7" s="171"/>
-      <c r="T7" s="171"/>
-      <c r="U7" s="171"/>
-      <c r="V7" s="171"/>
-      <c r="W7" s="171"/>
-      <c r="X7" s="171"/>
-      <c r="Y7" s="171"/>
-      <c r="Z7" s="171"/>
-      <c r="AA7" s="171"/>
-      <c r="AB7" s="171"/>
-      <c r="AC7" s="171"/>
-      <c r="AD7" s="171"/>
-      <c r="AE7" s="171"/>
-      <c r="AF7" s="171"/>
-      <c r="AG7" s="171"/>
-      <c r="AH7" s="171"/>
-      <c r="AI7" s="171"/>
-      <c r="AJ7" s="171"/>
-      <c r="AK7" s="171"/>
-      <c r="AL7" s="171"/>
-      <c r="AM7" s="171"/>
-      <c r="AN7" s="171"/>
-      <c r="AO7" s="171"/>
-      <c r="AP7" s="171"/>
-      <c r="AQ7" s="171"/>
-      <c r="AR7" s="171"/>
-      <c r="AS7" s="171"/>
-      <c r="AT7" s="171"/>
-      <c r="AU7" s="171"/>
-      <c r="AV7" s="171"/>
-      <c r="AW7" s="172"/>
-      <c r="AX7" s="103"/>
-      <c r="AY7" s="141"/>
-      <c r="AZ7" s="141"/>
-      <c r="BA7" s="141"/>
-      <c r="BB7" s="141"/>
-      <c r="BC7" s="141"/>
-      <c r="BD7" s="141"/>
-      <c r="BE7" s="141"/>
-      <c r="BF7" s="142"/>
-      <c r="BG7" s="105"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="106"/>
+      <c r="N7" s="106"/>
+      <c r="O7" s="106"/>
+      <c r="P7" s="106"/>
+      <c r="Q7" s="106"/>
+      <c r="R7" s="106"/>
+      <c r="S7" s="106"/>
+      <c r="T7" s="106"/>
+      <c r="U7" s="106"/>
+      <c r="V7" s="106"/>
+      <c r="W7" s="106"/>
+      <c r="X7" s="106"/>
+      <c r="Y7" s="106"/>
+      <c r="Z7" s="106"/>
+      <c r="AA7" s="106"/>
+      <c r="AB7" s="106"/>
+      <c r="AC7" s="106"/>
+      <c r="AD7" s="106"/>
+      <c r="AE7" s="106"/>
+      <c r="AF7" s="106"/>
+      <c r="AG7" s="106"/>
+      <c r="AH7" s="106"/>
+      <c r="AI7" s="106"/>
+      <c r="AJ7" s="106"/>
+      <c r="AK7" s="106"/>
+      <c r="AL7" s="106"/>
+      <c r="AM7" s="106"/>
+      <c r="AN7" s="106"/>
+      <c r="AO7" s="106"/>
+      <c r="AP7" s="106"/>
+      <c r="AQ7" s="106"/>
+      <c r="AR7" s="106"/>
+      <c r="AS7" s="106"/>
+      <c r="AT7" s="106"/>
+      <c r="AU7" s="106"/>
+      <c r="AV7" s="106"/>
+      <c r="AW7" s="107"/>
+      <c r="AX7" s="100"/>
+      <c r="AY7" s="164"/>
+      <c r="AZ7" s="164"/>
+      <c r="BA7" s="164"/>
+      <c r="BB7" s="164"/>
+      <c r="BC7" s="164"/>
+      <c r="BD7" s="164"/>
+      <c r="BE7" s="164"/>
+      <c r="BF7" s="165"/>
+      <c r="BG7" s="175"/>
     </row>
     <row r="8" spans="1:59" ht="51.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="106"/>
-      <c r="C8" s="175"/>
-      <c r="D8" s="176"/>
-      <c r="E8" s="176"/>
-      <c r="F8" s="176"/>
-      <c r="G8" s="176"/>
-      <c r="H8" s="176"/>
-      <c r="I8" s="176"/>
-      <c r="J8" s="176"/>
-      <c r="K8" s="176"/>
-      <c r="L8" s="103"/>
+      <c r="B8" s="176"/>
+      <c r="C8" s="114"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="115"/>
+      <c r="K8" s="115"/>
+      <c r="L8" s="100"/>
       <c r="M8" s="72"/>
       <c r="N8" s="72"/>
       <c r="O8" s="72"/>
@@ -3623,7 +3623,7 @@
       <c r="AO8" s="72"/>
       <c r="AP8" s="72"/>
       <c r="AQ8" s="72"/>
-      <c r="AX8" s="103"/>
+      <c r="AX8" s="100"/>
       <c r="AY8" s="72"/>
       <c r="AZ8" s="72"/>
       <c r="BA8" s="72"/>
@@ -3632,23 +3632,23 @@
       <c r="BD8" s="72"/>
       <c r="BE8" s="72"/>
       <c r="BF8" s="29"/>
-      <c r="BG8" s="105"/>
+      <c r="BG8" s="175"/>
     </row>
     <row r="9" spans="1:59" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A9" s="84" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="106"/>
+      <c r="B9" s="176"/>
       <c r="C9" s="30"/>
-      <c r="D9" s="156"/>
-      <c r="E9" s="156"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="152"/>
       <c r="F9" s="82"/>
       <c r="G9" s="81"/>
-      <c r="H9" s="156"/>
-      <c r="I9" s="156"/>
-      <c r="J9" s="156"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="152"/>
+      <c r="J9" s="152"/>
       <c r="K9" s="72"/>
-      <c r="L9" s="103"/>
+      <c r="L9" s="100"/>
       <c r="M9" s="72"/>
       <c r="N9" s="72"/>
       <c r="O9" s="72"/>
@@ -3686,7 +3686,7 @@
       <c r="AU9" s="72"/>
       <c r="AV9" s="72"/>
       <c r="AW9" s="72"/>
-      <c r="AX9" s="103"/>
+      <c r="AX9" s="100"/>
       <c r="AY9" s="72"/>
       <c r="AZ9" s="72"/>
       <c r="BA9" s="72"/>
@@ -3695,13 +3695,13 @@
       <c r="BD9" s="72"/>
       <c r="BE9" s="72"/>
       <c r="BF9" s="29"/>
-      <c r="BG9" s="105"/>
+      <c r="BG9" s="175"/>
     </row>
     <row r="10" spans="1:59" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="106"/>
+      <c r="B10" s="176"/>
       <c r="C10" s="30"/>
       <c r="D10" s="72"/>
       <c r="E10" s="81"/>
@@ -3711,7 +3711,7 @@
       <c r="I10" s="72"/>
       <c r="J10" s="72"/>
       <c r="K10" s="72"/>
-      <c r="L10" s="103"/>
+      <c r="L10" s="100"/>
       <c r="M10" s="72"/>
       <c r="N10" s="72"/>
       <c r="O10" s="72"/>
@@ -3749,7 +3749,7 @@
       <c r="AU10" s="72"/>
       <c r="AV10" s="72"/>
       <c r="AW10" s="72"/>
-      <c r="AX10" s="103"/>
+      <c r="AX10" s="100"/>
       <c r="AY10" s="72"/>
       <c r="AZ10" s="72"/>
       <c r="BA10" s="72"/>
@@ -3758,13 +3758,13 @@
       <c r="BD10" s="72"/>
       <c r="BE10" s="72"/>
       <c r="BF10" s="29"/>
-      <c r="BG10" s="105"/>
+      <c r="BG10" s="175"/>
     </row>
     <row r="11" spans="1:59" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="106"/>
+      <c r="B11" s="176"/>
       <c r="C11" s="30"/>
       <c r="D11" s="72"/>
       <c r="E11" s="81"/>
@@ -3774,72 +3774,72 @@
       <c r="I11" s="72"/>
       <c r="J11" s="72"/>
       <c r="K11" s="72"/>
-      <c r="L11" s="103"/>
-      <c r="M11" s="121" t="s">
+      <c r="L11" s="100"/>
+      <c r="M11" s="137" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="121"/>
-      <c r="O11" s="121"/>
-      <c r="P11" s="121"/>
-      <c r="Q11" s="121"/>
-      <c r="R11" s="121"/>
-      <c r="S11" s="122"/>
+      <c r="N11" s="137"/>
+      <c r="O11" s="137"/>
+      <c r="P11" s="137"/>
+      <c r="Q11" s="137"/>
+      <c r="R11" s="137"/>
+      <c r="S11" s="138"/>
       <c r="T11" s="72"/>
-      <c r="U11" s="120" t="s">
+      <c r="U11" s="136" t="s">
         <v>43</v>
       </c>
-      <c r="V11" s="121"/>
-      <c r="W11" s="121"/>
-      <c r="X11" s="121"/>
-      <c r="Y11" s="122"/>
+      <c r="V11" s="137"/>
+      <c r="W11" s="137"/>
+      <c r="X11" s="137"/>
+      <c r="Y11" s="138"/>
       <c r="Z11" s="72"/>
-      <c r="AA11" s="120" t="s">
+      <c r="AA11" s="136" t="s">
         <v>155</v>
       </c>
-      <c r="AB11" s="121"/>
-      <c r="AC11" s="121"/>
-      <c r="AD11" s="121"/>
-      <c r="AE11" s="122"/>
+      <c r="AB11" s="137"/>
+      <c r="AC11" s="137"/>
+      <c r="AD11" s="137"/>
+      <c r="AE11" s="138"/>
       <c r="AF11" s="72"/>
-      <c r="AG11" s="120" t="s">
+      <c r="AG11" s="136" t="s">
         <v>199</v>
       </c>
-      <c r="AH11" s="121"/>
-      <c r="AI11" s="121"/>
-      <c r="AJ11" s="121"/>
-      <c r="AK11" s="122"/>
+      <c r="AH11" s="137"/>
+      <c r="AI11" s="137"/>
+      <c r="AJ11" s="137"/>
+      <c r="AK11" s="138"/>
       <c r="AL11" s="72"/>
-      <c r="AM11" s="120" t="s">
+      <c r="AM11" s="136" t="s">
         <v>39</v>
       </c>
-      <c r="AN11" s="121"/>
-      <c r="AO11" s="121"/>
-      <c r="AP11" s="121"/>
-      <c r="AQ11" s="122"/>
+      <c r="AN11" s="137"/>
+      <c r="AO11" s="137"/>
+      <c r="AP11" s="137"/>
+      <c r="AQ11" s="138"/>
       <c r="AR11" s="72"/>
       <c r="AS11" s="72"/>
       <c r="AT11" s="72"/>
       <c r="AU11" s="72"/>
       <c r="AV11" s="72"/>
       <c r="AW11" s="72"/>
-      <c r="AX11" s="103"/>
+      <c r="AX11" s="100"/>
       <c r="AY11" s="72"/>
-      <c r="AZ11" s="120" t="s">
+      <c r="AZ11" s="136" t="s">
         <v>52</v>
       </c>
-      <c r="BA11" s="121"/>
-      <c r="BB11" s="121"/>
-      <c r="BC11" s="121"/>
-      <c r="BD11" s="121"/>
-      <c r="BE11" s="122"/>
+      <c r="BA11" s="137"/>
+      <c r="BB11" s="137"/>
+      <c r="BC11" s="137"/>
+      <c r="BD11" s="137"/>
+      <c r="BE11" s="138"/>
       <c r="BF11" s="29"/>
-      <c r="BG11" s="105"/>
+      <c r="BG11" s="175"/>
     </row>
     <row r="12" spans="1:59" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="84" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="106"/>
+      <c r="B12" s="176"/>
       <c r="C12" s="30"/>
       <c r="D12" s="72"/>
       <c r="E12" s="81"/>
@@ -3849,190 +3849,190 @@
       <c r="I12" s="72"/>
       <c r="J12" s="72"/>
       <c r="K12" s="72"/>
-      <c r="L12" s="103"/>
-      <c r="M12" s="124"/>
-      <c r="N12" s="124"/>
-      <c r="O12" s="124"/>
-      <c r="P12" s="124"/>
-      <c r="Q12" s="124"/>
-      <c r="R12" s="124"/>
-      <c r="S12" s="125"/>
+      <c r="L12" s="100"/>
+      <c r="M12" s="140"/>
+      <c r="N12" s="140"/>
+      <c r="O12" s="140"/>
+      <c r="P12" s="140"/>
+      <c r="Q12" s="140"/>
+      <c r="R12" s="140"/>
+      <c r="S12" s="141"/>
       <c r="T12" s="72"/>
-      <c r="U12" s="123"/>
-      <c r="V12" s="124"/>
-      <c r="W12" s="124"/>
-      <c r="X12" s="124"/>
-      <c r="Y12" s="125"/>
+      <c r="U12" s="139"/>
+      <c r="V12" s="140"/>
+      <c r="W12" s="140"/>
+      <c r="X12" s="140"/>
+      <c r="Y12" s="141"/>
       <c r="Z12" s="72"/>
-      <c r="AA12" s="123"/>
-      <c r="AB12" s="124"/>
-      <c r="AC12" s="124"/>
-      <c r="AD12" s="124"/>
-      <c r="AE12" s="125"/>
+      <c r="AA12" s="139"/>
+      <c r="AB12" s="140"/>
+      <c r="AC12" s="140"/>
+      <c r="AD12" s="140"/>
+      <c r="AE12" s="141"/>
       <c r="AF12" s="72"/>
-      <c r="AG12" s="123"/>
-      <c r="AH12" s="124"/>
-      <c r="AI12" s="124"/>
-      <c r="AJ12" s="124"/>
-      <c r="AK12" s="125"/>
+      <c r="AG12" s="139"/>
+      <c r="AH12" s="140"/>
+      <c r="AI12" s="140"/>
+      <c r="AJ12" s="140"/>
+      <c r="AK12" s="141"/>
       <c r="AL12" s="72"/>
-      <c r="AM12" s="123"/>
-      <c r="AN12" s="124"/>
-      <c r="AO12" s="124"/>
-      <c r="AP12" s="124"/>
-      <c r="AQ12" s="125"/>
+      <c r="AM12" s="139"/>
+      <c r="AN12" s="140"/>
+      <c r="AO12" s="140"/>
+      <c r="AP12" s="140"/>
+      <c r="AQ12" s="141"/>
       <c r="AR12" s="72"/>
       <c r="AS12" s="72"/>
       <c r="AT12" s="72"/>
       <c r="AU12" s="72"/>
       <c r="AV12" s="72"/>
       <c r="AW12" s="72"/>
-      <c r="AX12" s="103"/>
+      <c r="AX12" s="100"/>
       <c r="AY12" s="72"/>
-      <c r="AZ12" s="123"/>
-      <c r="BA12" s="124"/>
-      <c r="BB12" s="124"/>
-      <c r="BC12" s="124"/>
-      <c r="BD12" s="124"/>
-      <c r="BE12" s="125"/>
+      <c r="AZ12" s="139"/>
+      <c r="BA12" s="140"/>
+      <c r="BB12" s="140"/>
+      <c r="BC12" s="140"/>
+      <c r="BD12" s="140"/>
+      <c r="BE12" s="141"/>
       <c r="BF12" s="29"/>
-      <c r="BG12" s="105"/>
+      <c r="BG12" s="175"/>
     </row>
     <row r="13" spans="1:59" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="84" t="s">
         <v>70</v>
       </c>
-      <c r="B13" s="106"/>
+      <c r="B13" s="176"/>
       <c r="C13" s="30"/>
-      <c r="D13" s="149" t="s">
+      <c r="D13" s="145" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="151"/>
+      <c r="E13" s="147"/>
       <c r="F13" s="82"/>
       <c r="G13" s="81"/>
-      <c r="H13" s="149" t="s">
+      <c r="H13" s="145" t="s">
         <v>138</v>
       </c>
-      <c r="I13" s="150"/>
-      <c r="J13" s="151"/>
+      <c r="I13" s="146"/>
+      <c r="J13" s="147"/>
       <c r="K13" s="72"/>
-      <c r="L13" s="103"/>
-      <c r="M13" s="127"/>
-      <c r="N13" s="127"/>
-      <c r="O13" s="127"/>
-      <c r="P13" s="127"/>
-      <c r="Q13" s="127"/>
-      <c r="R13" s="127"/>
-      <c r="S13" s="128"/>
+      <c r="L13" s="100"/>
+      <c r="M13" s="143"/>
+      <c r="N13" s="143"/>
+      <c r="O13" s="143"/>
+      <c r="P13" s="143"/>
+      <c r="Q13" s="143"/>
+      <c r="R13" s="143"/>
+      <c r="S13" s="144"/>
       <c r="T13" s="72"/>
-      <c r="U13" s="126"/>
-      <c r="V13" s="127"/>
-      <c r="W13" s="127"/>
-      <c r="X13" s="127"/>
-      <c r="Y13" s="128"/>
+      <c r="U13" s="142"/>
+      <c r="V13" s="143"/>
+      <c r="W13" s="143"/>
+      <c r="X13" s="143"/>
+      <c r="Y13" s="144"/>
       <c r="Z13" s="72"/>
-      <c r="AA13" s="126"/>
-      <c r="AB13" s="127"/>
-      <c r="AC13" s="127"/>
-      <c r="AD13" s="127"/>
-      <c r="AE13" s="128"/>
+      <c r="AA13" s="142"/>
+      <c r="AB13" s="143"/>
+      <c r="AC13" s="143"/>
+      <c r="AD13" s="143"/>
+      <c r="AE13" s="144"/>
       <c r="AF13" s="72"/>
-      <c r="AG13" s="126"/>
-      <c r="AH13" s="127"/>
-      <c r="AI13" s="127"/>
-      <c r="AJ13" s="127"/>
-      <c r="AK13" s="128"/>
+      <c r="AG13" s="142"/>
+      <c r="AH13" s="143"/>
+      <c r="AI13" s="143"/>
+      <c r="AJ13" s="143"/>
+      <c r="AK13" s="144"/>
       <c r="AL13" s="72"/>
-      <c r="AM13" s="126"/>
-      <c r="AN13" s="127"/>
-      <c r="AO13" s="127"/>
-      <c r="AP13" s="127"/>
-      <c r="AQ13" s="128"/>
+      <c r="AM13" s="142"/>
+      <c r="AN13" s="143"/>
+      <c r="AO13" s="143"/>
+      <c r="AP13" s="143"/>
+      <c r="AQ13" s="144"/>
       <c r="AR13" s="72"/>
       <c r="AS13" s="72"/>
       <c r="AT13" s="72"/>
       <c r="AU13" s="72"/>
       <c r="AV13" s="72"/>
       <c r="AW13" s="72"/>
-      <c r="AX13" s="103"/>
+      <c r="AX13" s="100"/>
       <c r="AY13" s="72"/>
-      <c r="AZ13" s="126"/>
-      <c r="BA13" s="127"/>
-      <c r="BB13" s="127"/>
-      <c r="BC13" s="127"/>
-      <c r="BD13" s="127"/>
-      <c r="BE13" s="128"/>
+      <c r="AZ13" s="142"/>
+      <c r="BA13" s="143"/>
+      <c r="BB13" s="143"/>
+      <c r="BC13" s="143"/>
+      <c r="BD13" s="143"/>
+      <c r="BE13" s="144"/>
       <c r="BF13" s="29"/>
-      <c r="BG13" s="105"/>
+      <c r="BG13" s="175"/>
     </row>
     <row r="14" spans="1:59" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="84" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="106"/>
+      <c r="B14" s="176"/>
       <c r="C14" s="30"/>
-      <c r="D14" s="155"/>
-      <c r="E14" s="154"/>
+      <c r="D14" s="151"/>
+      <c r="E14" s="150"/>
       <c r="F14" s="82"/>
       <c r="G14" s="81"/>
-      <c r="H14" s="152"/>
-      <c r="I14" s="153"/>
-      <c r="J14" s="154"/>
+      <c r="H14" s="148"/>
+      <c r="I14" s="149"/>
+      <c r="J14" s="150"/>
       <c r="K14" s="72"/>
-      <c r="L14" s="103"/>
-      <c r="M14" s="107"/>
-      <c r="N14" s="107"/>
-      <c r="O14" s="107"/>
-      <c r="P14" s="107"/>
-      <c r="Q14" s="107"/>
-      <c r="R14" s="107"/>
-      <c r="S14" s="108"/>
+      <c r="L14" s="100"/>
+      <c r="M14" s="110"/>
+      <c r="N14" s="110"/>
+      <c r="O14" s="110"/>
+      <c r="P14" s="110"/>
+      <c r="Q14" s="110"/>
+      <c r="R14" s="110"/>
+      <c r="S14" s="111"/>
       <c r="T14" s="72"/>
       <c r="U14" s="109"/>
-      <c r="V14" s="107"/>
-      <c r="W14" s="107"/>
-      <c r="X14" s="107"/>
-      <c r="Y14" s="108"/>
+      <c r="V14" s="110"/>
+      <c r="W14" s="110"/>
+      <c r="X14" s="110"/>
+      <c r="Y14" s="111"/>
       <c r="Z14" s="72"/>
       <c r="AA14" s="109"/>
-      <c r="AB14" s="107"/>
-      <c r="AC14" s="107"/>
-      <c r="AD14" s="107"/>
-      <c r="AE14" s="108"/>
+      <c r="AB14" s="110"/>
+      <c r="AC14" s="110"/>
+      <c r="AD14" s="110"/>
+      <c r="AE14" s="111"/>
       <c r="AF14" s="72"/>
       <c r="AG14" s="109"/>
-      <c r="AH14" s="107"/>
-      <c r="AI14" s="107"/>
-      <c r="AJ14" s="107"/>
-      <c r="AK14" s="108"/>
+      <c r="AH14" s="110"/>
+      <c r="AI14" s="110"/>
+      <c r="AJ14" s="110"/>
+      <c r="AK14" s="111"/>
       <c r="AL14" s="72"/>
       <c r="AM14" s="109"/>
-      <c r="AN14" s="107"/>
-      <c r="AO14" s="107"/>
-      <c r="AP14" s="107"/>
-      <c r="AQ14" s="108"/>
+      <c r="AN14" s="110"/>
+      <c r="AO14" s="110"/>
+      <c r="AP14" s="110"/>
+      <c r="AQ14" s="111"/>
       <c r="AR14" s="72"/>
       <c r="AS14" s="72"/>
       <c r="AT14" s="72"/>
       <c r="AU14" s="72"/>
       <c r="AV14" s="72"/>
       <c r="AW14" s="72"/>
-      <c r="AX14" s="103"/>
+      <c r="AX14" s="100"/>
       <c r="AY14" s="72"/>
       <c r="AZ14" s="109"/>
-      <c r="BA14" s="107"/>
-      <c r="BB14" s="107"/>
-      <c r="BC14" s="107"/>
-      <c r="BD14" s="107"/>
-      <c r="BE14" s="108"/>
+      <c r="BA14" s="110"/>
+      <c r="BB14" s="110"/>
+      <c r="BC14" s="110"/>
+      <c r="BD14" s="110"/>
+      <c r="BE14" s="111"/>
       <c r="BF14" s="29"/>
-      <c r="BG14" s="105"/>
+      <c r="BG14" s="175"/>
     </row>
     <row r="15" spans="1:59" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="106"/>
+      <c r="B15" s="176"/>
       <c r="C15" s="30"/>
       <c r="D15" s="70" t="s">
         <v>3</v>
@@ -4053,69 +4053,67 @@
         <v>19</v>
       </c>
       <c r="K15" s="72"/>
-      <c r="L15" s="103"/>
-      <c r="M15" s="157"/>
+      <c r="L15" s="100"/>
+      <c r="M15" s="154"/>
       <c r="N15" s="63"/>
       <c r="O15" s="63"/>
       <c r="P15" s="13">
         <v>4</v>
       </c>
-      <c r="Q15" s="129" t="s">
+      <c r="Q15" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="R15" s="130"/>
-      <c r="S15" s="110"/>
+      <c r="R15" s="129"/>
+      <c r="S15" s="122"/>
       <c r="T15" s="72"/>
-      <c r="U15" s="110">
-        <v>0</v>
-      </c>
+      <c r="U15" s="122"/>
       <c r="V15" s="44">
         <v>4</v>
       </c>
-      <c r="W15" s="129" t="s">
+      <c r="W15" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="X15" s="130"/>
-      <c r="Y15" s="110"/>
+      <c r="X15" s="129"/>
+      <c r="Y15" s="122"/>
       <c r="Z15" s="72"/>
-      <c r="AA15" s="110"/>
+      <c r="AA15" s="122"/>
       <c r="AB15" s="44">
         <v>4</v>
       </c>
-      <c r="AC15" s="129" t="s">
+      <c r="AC15" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="AD15" s="130"/>
-      <c r="AE15" s="110"/>
+      <c r="AD15" s="129"/>
+      <c r="AE15" s="122"/>
       <c r="AF15" s="72"/>
-      <c r="AG15" s="110"/>
+      <c r="AG15" s="122"/>
       <c r="AH15" s="2">
         <v>4</v>
       </c>
-      <c r="AI15" s="129" t="s">
+      <c r="AI15" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="AJ15" s="130"/>
-      <c r="AK15" s="110"/>
+      <c r="AJ15" s="129"/>
+      <c r="AK15" s="122"/>
       <c r="AL15" s="72"/>
-      <c r="AM15" s="110"/>
+      <c r="AM15" s="122"/>
       <c r="AN15" s="2">
         <v>4</v>
       </c>
-      <c r="AO15" s="129" t="s">
+      <c r="AO15" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="AP15" s="130"/>
-      <c r="AQ15" s="110"/>
+      <c r="AP15" s="129"/>
+      <c r="AQ15" s="122"/>
       <c r="AR15" s="72"/>
       <c r="AS15" s="72"/>
       <c r="AT15" s="72"/>
       <c r="AU15" s="72"/>
       <c r="AV15" s="72"/>
       <c r="AW15" s="72"/>
-      <c r="AX15" s="103"/>
+      <c r="AX15" s="100"/>
       <c r="AY15" s="72"/>
-      <c r="AZ15" s="110"/>
+      <c r="AZ15" s="122"/>
       <c r="BA15" s="2">
         <v>6</v>
       </c>
@@ -4124,15 +4122,15 @@
       </c>
       <c r="BC15" s="51"/>
       <c r="BD15" s="52"/>
-      <c r="BE15" s="110"/>
+      <c r="BE15" s="122"/>
       <c r="BF15" s="29"/>
-      <c r="BG15" s="105"/>
+      <c r="BG15" s="175"/>
     </row>
     <row r="16" spans="1:59" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="106"/>
+      <c r="B16" s="176"/>
       <c r="C16" s="30"/>
       <c r="D16" s="21" t="s">
         <v>4</v>
@@ -4153,8 +4151,8 @@
         <v>20</v>
       </c>
       <c r="K16" s="72"/>
-      <c r="L16" s="103"/>
-      <c r="M16" s="112"/>
+      <c r="L16" s="100"/>
+      <c r="M16" s="155"/>
       <c r="N16" s="63"/>
       <c r="O16" s="63">
         <f>ROW()</f>
@@ -4169,9 +4167,9 @@
       <c r="R16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="S16" s="111"/>
+      <c r="S16" s="123"/>
       <c r="T16" s="72"/>
-      <c r="U16" s="111"/>
+      <c r="U16" s="123"/>
       <c r="V16" s="45" t="s">
         <v>30</v>
       </c>
@@ -4181,9 +4179,9 @@
       <c r="X16" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="Y16" s="111"/>
+      <c r="Y16" s="123"/>
       <c r="Z16" s="72"/>
-      <c r="AA16" s="111"/>
+      <c r="AA16" s="123"/>
       <c r="AB16" s="45" t="s">
         <v>30</v>
       </c>
@@ -4193,9 +4191,9 @@
       <c r="AD16" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="AE16" s="111"/>
+      <c r="AE16" s="123"/>
       <c r="AF16" s="72"/>
-      <c r="AG16" s="111"/>
+      <c r="AG16" s="123"/>
       <c r="AH16" s="1" t="s">
         <v>30</v>
       </c>
@@ -4205,9 +4203,9 @@
       <c r="AJ16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AK16" s="111"/>
+      <c r="AK16" s="123"/>
       <c r="AL16" s="72"/>
-      <c r="AM16" s="111"/>
+      <c r="AM16" s="123"/>
       <c r="AN16" s="1" t="s">
         <v>30</v>
       </c>
@@ -4217,16 +4215,16 @@
       <c r="AP16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AQ16" s="111"/>
+      <c r="AQ16" s="123"/>
       <c r="AR16" s="72"/>
       <c r="AS16" s="72"/>
       <c r="AT16" s="72"/>
       <c r="AU16" s="72"/>
       <c r="AV16" s="72"/>
       <c r="AW16" s="72"/>
-      <c r="AX16" s="103"/>
+      <c r="AX16" s="100"/>
       <c r="AY16" s="72"/>
-      <c r="AZ16" s="111"/>
+      <c r="AZ16" s="123"/>
       <c r="BA16" s="1" t="s">
         <v>30</v>
       </c>
@@ -4239,15 +4237,15 @@
       <c r="BD16" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BE16" s="111"/>
+      <c r="BE16" s="123"/>
       <c r="BF16" s="29"/>
-      <c r="BG16" s="105"/>
+      <c r="BG16" s="175"/>
     </row>
     <row r="17" spans="1:59" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="84" t="s">
         <v>74</v>
       </c>
-      <c r="B17" s="106"/>
+      <c r="B17" s="176"/>
       <c r="C17" s="30"/>
       <c r="D17" s="21" t="s">
         <v>5</v>
@@ -4268,8 +4266,8 @@
         <v>21</v>
       </c>
       <c r="K17" s="72"/>
-      <c r="L17" s="103"/>
-      <c r="M17" s="112"/>
+      <c r="L17" s="100"/>
+      <c r="M17" s="155"/>
       <c r="N17" s="63" t="str">
         <f t="shared" ref="N17:N64" si="0">IF(E15=2,D15 &amp; "  [DQ]",D15)</f>
         <v>Participant #01</v>
@@ -4278,7 +4276,7 @@
         <f t="shared" ref="O17:O64" si="1">IF(E15&gt;=1,ROW()-$O$16,"")</f>
         <v/>
       </c>
-      <c r="P17" s="159" t="s">
+      <c r="P17" s="125" t="s">
         <v>32</v>
       </c>
       <c r="Q17" s="7" t="str" cm="1">
@@ -4286,10 +4284,10 @@
         <v>-</v>
       </c>
       <c r="R17" s="3"/>
-      <c r="S17" s="111"/>
+      <c r="S17" s="123"/>
       <c r="T17" s="72"/>
-      <c r="U17" s="111"/>
-      <c r="V17" s="116" t="s">
+      <c r="U17" s="123"/>
+      <c r="V17" s="119" t="s">
         <v>148</v>
       </c>
       <c r="W17" s="7" t="str">
@@ -4297,10 +4295,10 @@
         <v>A1</v>
       </c>
       <c r="X17" s="41"/>
-      <c r="Y17" s="111"/>
+      <c r="Y17" s="123"/>
       <c r="Z17" s="72"/>
-      <c r="AA17" s="111"/>
-      <c r="AB17" s="116" t="s">
+      <c r="AA17" s="123"/>
+      <c r="AB17" s="119" t="s">
         <v>154</v>
       </c>
       <c r="AC17" s="7" t="str">
@@ -4308,10 +4306,10 @@
         <v>M1</v>
       </c>
       <c r="AD17" s="41"/>
-      <c r="AE17" s="111"/>
+      <c r="AE17" s="123"/>
       <c r="AF17" s="72"/>
-      <c r="AG17" s="111"/>
-      <c r="AH17" s="116" t="s">
+      <c r="AG17" s="123"/>
+      <c r="AH17" s="119" t="s">
         <v>170</v>
       </c>
       <c r="AI17" s="7" t="str">
@@ -4319,10 +4317,10 @@
         <v>S1</v>
       </c>
       <c r="AJ17" s="3"/>
-      <c r="AK17" s="111"/>
+      <c r="AK17" s="123"/>
       <c r="AL17" s="72"/>
-      <c r="AM17" s="111"/>
-      <c r="AN17" s="116" t="s">
+      <c r="AM17" s="123"/>
+      <c r="AN17" s="119" t="s">
         <v>50</v>
       </c>
       <c r="AO17" s="7" t="str">
@@ -4330,17 +4328,17 @@
         <v>V1</v>
       </c>
       <c r="AP17" s="3"/>
-      <c r="AQ17" s="111"/>
+      <c r="AQ17" s="123"/>
       <c r="AR17" s="72"/>
       <c r="AS17" s="72"/>
       <c r="AT17" s="72"/>
       <c r="AU17" s="72"/>
       <c r="AV17" s="72"/>
       <c r="AW17" s="72"/>
-      <c r="AX17" s="103"/>
+      <c r="AX17" s="100"/>
       <c r="AY17" s="72"/>
-      <c r="AZ17" s="111"/>
-      <c r="BA17" s="116" t="s">
+      <c r="AZ17" s="123"/>
+      <c r="BA17" s="119" t="s">
         <v>53</v>
       </c>
       <c r="BB17" s="15" t="str">
@@ -4351,15 +4349,15 @@
       <c r="BD17" s="32">
         <v>0</v>
       </c>
-      <c r="BE17" s="111"/>
+      <c r="BE17" s="123"/>
       <c r="BF17" s="29"/>
-      <c r="BG17" s="105"/>
+      <c r="BG17" s="175"/>
     </row>
     <row r="18" spans="1:59" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="84" t="s">
         <v>75</v>
       </c>
-      <c r="B18" s="106"/>
+      <c r="B18" s="176"/>
       <c r="C18" s="31"/>
       <c r="D18" s="21" t="s">
         <v>6</v>
@@ -4380,8 +4378,8 @@
         <v>22</v>
       </c>
       <c r="K18" s="72"/>
-      <c r="L18" s="103"/>
-      <c r="M18" s="112"/>
+      <c r="L18" s="100"/>
+      <c r="M18" s="155"/>
       <c r="N18" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Participant #02</v>
@@ -4390,59 +4388,59 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="P18" s="114"/>
+      <c r="P18" s="126"/>
       <c r="Q18" s="8" t="str" cm="1">
         <f t="array" ref="Q18">IFERROR(INDEX($N$17:$N$64,SMALL($O$17:$O$64,ROW(B13))),"-")</f>
         <v>-</v>
       </c>
       <c r="R18" s="10"/>
-      <c r="S18" s="111"/>
+      <c r="S18" s="123"/>
       <c r="T18" s="72"/>
-      <c r="U18" s="111"/>
-      <c r="V18" s="117"/>
+      <c r="U18" s="123"/>
+      <c r="V18" s="120"/>
       <c r="W18" s="8" t="str">
         <f>IF(ISBLANK($R$21),"B1",$R$21)</f>
         <v>B1</v>
       </c>
       <c r="X18" s="42"/>
-      <c r="Y18" s="111"/>
+      <c r="Y18" s="123"/>
       <c r="Z18" s="72"/>
-      <c r="AA18" s="111"/>
-      <c r="AB18" s="117"/>
+      <c r="AA18" s="123"/>
+      <c r="AB18" s="120"/>
       <c r="AC18" s="8" t="str">
         <f>IF(ISBLANK($X$21),"N1",$X$21)</f>
         <v>N1</v>
       </c>
       <c r="AD18" s="42"/>
-      <c r="AE18" s="111"/>
+      <c r="AE18" s="123"/>
       <c r="AF18" s="72"/>
-      <c r="AG18" s="111"/>
-      <c r="AH18" s="117"/>
+      <c r="AG18" s="123"/>
+      <c r="AH18" s="120"/>
       <c r="AI18" s="8" t="str">
         <f>IF(ISBLANK($AD$21),"T1",$AD$21)</f>
         <v>T1</v>
       </c>
       <c r="AJ18" s="10"/>
-      <c r="AK18" s="111"/>
+      <c r="AK18" s="123"/>
       <c r="AL18" s="72"/>
-      <c r="AM18" s="111"/>
-      <c r="AN18" s="117"/>
+      <c r="AM18" s="123"/>
+      <c r="AN18" s="120"/>
       <c r="AO18" s="8" t="str">
         <f>IF(ISBLANK($AJ$20),"W1",$AJ$20)</f>
         <v>W1</v>
       </c>
       <c r="AP18" s="10"/>
-      <c r="AQ18" s="111"/>
+      <c r="AQ18" s="123"/>
       <c r="AR18" s="72"/>
       <c r="AS18" s="72"/>
       <c r="AT18" s="72"/>
       <c r="AU18" s="72"/>
       <c r="AV18" s="72"/>
       <c r="AW18" s="72"/>
-      <c r="AX18" s="103"/>
+      <c r="AX18" s="100"/>
       <c r="AY18" s="72"/>
-      <c r="AZ18" s="111"/>
-      <c r="BA18" s="117"/>
+      <c r="AZ18" s="123"/>
+      <c r="BA18" s="120"/>
       <c r="BB18" s="16" t="str">
         <f>IF(ISBLANK($AP$18),"WF2",$AP$18)</f>
         <v>WF2</v>
@@ -4451,15 +4449,15 @@
       <c r="BD18" s="33">
         <v>0</v>
       </c>
-      <c r="BE18" s="111"/>
+      <c r="BE18" s="123"/>
       <c r="BF18" s="29"/>
-      <c r="BG18" s="105"/>
+      <c r="BG18" s="175"/>
     </row>
     <row r="19" spans="1:59" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="84" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="106"/>
+      <c r="B19" s="176"/>
       <c r="C19" s="31"/>
       <c r="D19" s="21" t="s">
         <v>7</v>
@@ -4480,8 +4478,8 @@
         <v>23</v>
       </c>
       <c r="K19" s="72"/>
-      <c r="L19" s="103"/>
-      <c r="M19" s="112"/>
+      <c r="L19" s="100"/>
+      <c r="M19" s="155"/>
       <c r="N19" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Participant #03</v>
@@ -4490,59 +4488,59 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="P19" s="114"/>
+      <c r="P19" s="126"/>
       <c r="Q19" s="8" t="str" cm="1">
         <f t="array" ref="Q19">IFERROR(INDEX($N$17:$N$64,SMALL($O$17:$O$64,ROW(B25))),"-")</f>
         <v>-</v>
       </c>
       <c r="R19" s="4"/>
-      <c r="S19" s="111"/>
+      <c r="S19" s="123"/>
       <c r="T19" s="72"/>
-      <c r="U19" s="111"/>
-      <c r="V19" s="117"/>
+      <c r="U19" s="123"/>
+      <c r="V19" s="120"/>
       <c r="W19" s="8" t="str">
         <f>IF(ISBLANK($R$58),"K2",$R$58)</f>
         <v>K2</v>
       </c>
       <c r="X19" s="74"/>
-      <c r="Y19" s="111"/>
+      <c r="Y19" s="123"/>
       <c r="Z19" s="72"/>
-      <c r="AA19" s="111"/>
-      <c r="AB19" s="117"/>
+      <c r="AA19" s="123"/>
+      <c r="AB19" s="120"/>
       <c r="AC19" s="8" t="str">
         <f>IF(ISBLANK($X$26),"O2",$X$26)</f>
         <v>O2</v>
       </c>
       <c r="AD19" s="74"/>
-      <c r="AE19" s="111"/>
+      <c r="AE19" s="123"/>
       <c r="AF19" s="72"/>
-      <c r="AG19" s="111"/>
-      <c r="AH19" s="118"/>
+      <c r="AG19" s="123"/>
+      <c r="AH19" s="121"/>
       <c r="AI19" s="8" t="str">
         <f>IF(ISBLANK($AD$18),"U2",$AD$26)</f>
         <v>U2</v>
       </c>
       <c r="AJ19" s="4"/>
-      <c r="AK19" s="111"/>
+      <c r="AK19" s="123"/>
       <c r="AL19" s="72"/>
-      <c r="AM19" s="111"/>
-      <c r="AN19" s="117"/>
+      <c r="AM19" s="123"/>
+      <c r="AN19" s="120"/>
       <c r="AO19" s="8" t="str">
         <f>IF(ISBLANK($AJ$18),"V2",$AJ$18)</f>
         <v>V2</v>
       </c>
       <c r="AP19" s="4"/>
-      <c r="AQ19" s="111"/>
+      <c r="AQ19" s="123"/>
       <c r="AR19" s="72"/>
       <c r="AS19" s="72"/>
       <c r="AT19" s="72"/>
       <c r="AU19" s="72"/>
       <c r="AV19" s="72"/>
       <c r="AW19" s="72"/>
-      <c r="AX19" s="103"/>
+      <c r="AX19" s="100"/>
       <c r="AY19" s="72"/>
-      <c r="AZ19" s="111"/>
-      <c r="BA19" s="117"/>
+      <c r="AZ19" s="123"/>
+      <c r="BA19" s="120"/>
       <c r="BB19" s="16" t="str">
         <f>IF(ISBLANK($AV$79),"LF1",$AV$79)</f>
         <v>LF1</v>
@@ -4551,15 +4549,15 @@
       <c r="BD19" s="34">
         <v>0</v>
       </c>
-      <c r="BE19" s="111"/>
+      <c r="BE19" s="123"/>
       <c r="BF19" s="29"/>
-      <c r="BG19" s="105"/>
+      <c r="BG19" s="175"/>
     </row>
     <row r="20" spans="1:59" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="84" t="s">
         <v>77</v>
       </c>
-      <c r="B20" s="106"/>
+      <c r="B20" s="176"/>
       <c r="C20" s="31"/>
       <c r="D20" s="21" t="s">
         <v>8</v>
@@ -4580,8 +4578,8 @@
         <v>24</v>
       </c>
       <c r="K20" s="72"/>
-      <c r="L20" s="103"/>
-      <c r="M20" s="112"/>
+      <c r="L20" s="100"/>
+      <c r="M20" s="155"/>
       <c r="N20" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Participant #04</v>
@@ -4590,34 +4588,34 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="P20" s="115"/>
+      <c r="P20" s="127"/>
       <c r="Q20" s="9" t="str" cm="1">
         <f t="array" ref="Q20">IFERROR(INDEX($N$17:$N$64,SMALL($O$17:$O$64,ROW(B37))),"-")</f>
         <v>-</v>
       </c>
       <c r="R20" s="5"/>
-      <c r="S20" s="111"/>
+      <c r="S20" s="123"/>
       <c r="T20" s="72"/>
-      <c r="U20" s="111"/>
-      <c r="V20" s="118"/>
+      <c r="U20" s="123"/>
+      <c r="V20" s="121"/>
       <c r="W20" s="9" t="str">
         <f>IF(ISBLANK($R$62),"L2",$R$62)</f>
         <v>L2</v>
       </c>
       <c r="X20" s="43"/>
-      <c r="Y20" s="111"/>
+      <c r="Y20" s="123"/>
       <c r="Z20" s="72"/>
-      <c r="AA20" s="111"/>
-      <c r="AB20" s="118"/>
+      <c r="AA20" s="123"/>
+      <c r="AB20" s="121"/>
       <c r="AC20" s="9" t="str">
         <f>IF(ISBLANK($X$30),"P2",$X$30)</f>
         <v>P2</v>
       </c>
       <c r="AD20" s="43"/>
-      <c r="AE20" s="111"/>
+      <c r="AE20" s="123"/>
       <c r="AF20" s="72"/>
-      <c r="AG20" s="111"/>
-      <c r="AH20" s="114" t="s">
+      <c r="AG20" s="123"/>
+      <c r="AH20" s="126" t="s">
         <v>171</v>
       </c>
       <c r="AI20" s="15" t="str">
@@ -4625,26 +4623,26 @@
         <v>U1</v>
       </c>
       <c r="AJ20" s="90"/>
-      <c r="AK20" s="112"/>
+      <c r="AK20" s="155"/>
       <c r="AL20" s="72"/>
-      <c r="AM20" s="119"/>
-      <c r="AN20" s="118"/>
+      <c r="AM20" s="124"/>
+      <c r="AN20" s="121"/>
       <c r="AO20" s="9" t="str">
         <f>IF(ISBLANK($AJ$21),"W2",$AJ$21)</f>
         <v>W2</v>
       </c>
       <c r="AP20" s="5"/>
-      <c r="AQ20" s="119"/>
+      <c r="AQ20" s="124"/>
       <c r="AR20" s="72"/>
       <c r="AS20" s="72"/>
       <c r="AT20" s="72"/>
       <c r="AU20" s="72"/>
       <c r="AV20" s="72"/>
       <c r="AW20" s="72"/>
-      <c r="AX20" s="103"/>
+      <c r="AX20" s="100"/>
       <c r="AY20" s="72"/>
-      <c r="AZ20" s="119"/>
-      <c r="BA20" s="118"/>
+      <c r="AZ20" s="124"/>
+      <c r="BA20" s="121"/>
       <c r="BB20" s="17" t="str">
         <f>IF(ISBLANK($AV$80),"LF2",$AV$80)</f>
         <v>LF2</v>
@@ -4653,15 +4651,15 @@
       <c r="BD20" s="10">
         <v>0</v>
       </c>
-      <c r="BE20" s="119"/>
+      <c r="BE20" s="124"/>
       <c r="BF20" s="29"/>
-      <c r="BG20" s="105"/>
+      <c r="BG20" s="175"/>
     </row>
     <row r="21" spans="1:59" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="106"/>
+      <c r="B21" s="176"/>
       <c r="C21" s="31"/>
       <c r="D21" s="21" t="s">
         <v>9</v>
@@ -4682,8 +4680,8 @@
         <v>25</v>
       </c>
       <c r="K21" s="72"/>
-      <c r="L21" s="103"/>
-      <c r="M21" s="112"/>
+      <c r="L21" s="100"/>
+      <c r="M21" s="155"/>
       <c r="N21" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Participant #05</v>
@@ -4692,7 +4690,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="P21" s="159" t="s">
+      <c r="P21" s="125" t="s">
         <v>33</v>
       </c>
       <c r="Q21" s="7" t="str" cm="1">
@@ -4700,10 +4698,10 @@
         <v>-</v>
       </c>
       <c r="R21" s="3"/>
-      <c r="S21" s="111"/>
+      <c r="S21" s="123"/>
       <c r="T21" s="72"/>
-      <c r="U21" s="111"/>
-      <c r="V21" s="116" t="s">
+      <c r="U21" s="123"/>
+      <c r="V21" s="119" t="s">
         <v>149</v>
       </c>
       <c r="W21" s="8" t="str">
@@ -4711,10 +4709,10 @@
         <v>C1</v>
       </c>
       <c r="X21" s="41"/>
-      <c r="Y21" s="111"/>
+      <c r="Y21" s="123"/>
       <c r="Z21" s="72"/>
-      <c r="AA21" s="111"/>
-      <c r="AB21" s="116" t="s">
+      <c r="AA21" s="123"/>
+      <c r="AB21" s="119" t="s">
         <v>168</v>
       </c>
       <c r="AC21" s="8" t="str">
@@ -4722,44 +4720,44 @@
         <v>O1</v>
       </c>
       <c r="AD21" s="41"/>
-      <c r="AE21" s="111"/>
+      <c r="AE21" s="123"/>
       <c r="AF21" s="72"/>
-      <c r="AG21" s="111"/>
-      <c r="AH21" s="114"/>
+      <c r="AG21" s="123"/>
+      <c r="AH21" s="126"/>
       <c r="AI21" s="16" t="str">
         <f>IF(ISBLANK($AD$18),"S2",$AD$18)</f>
         <v>S2</v>
       </c>
       <c r="AJ21" s="91"/>
-      <c r="AK21" s="112"/>
+      <c r="AK21" s="155"/>
       <c r="AL21" s="72"/>
       <c r="AM21" s="109"/>
-      <c r="AN21" s="107"/>
-      <c r="AO21" s="107"/>
-      <c r="AP21" s="107"/>
-      <c r="AQ21" s="108"/>
+      <c r="AN21" s="110"/>
+      <c r="AO21" s="110"/>
+      <c r="AP21" s="110"/>
+      <c r="AQ21" s="111"/>
       <c r="AR21" s="72"/>
       <c r="AS21" s="72"/>
       <c r="AT21" s="72"/>
       <c r="AU21" s="72"/>
       <c r="AV21" s="72"/>
       <c r="AW21" s="72"/>
-      <c r="AX21" s="103"/>
+      <c r="AX21" s="100"/>
       <c r="AY21" s="72"/>
       <c r="AZ21" s="109"/>
-      <c r="BA21" s="107"/>
-      <c r="BB21" s="107"/>
-      <c r="BC21" s="107"/>
-      <c r="BD21" s="107"/>
-      <c r="BE21" s="108"/>
+      <c r="BA21" s="110"/>
+      <c r="BB21" s="110"/>
+      <c r="BC21" s="110"/>
+      <c r="BD21" s="110"/>
+      <c r="BE21" s="111"/>
       <c r="BF21" s="29"/>
-      <c r="BG21" s="105"/>
+      <c r="BG21" s="175"/>
     </row>
     <row r="22" spans="1:59" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="84" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="106"/>
+      <c r="B22" s="176"/>
       <c r="C22" s="31"/>
       <c r="D22" s="21" t="s">
         <v>10</v>
@@ -4780,8 +4778,8 @@
         <v>26</v>
       </c>
       <c r="K22" s="72"/>
-      <c r="L22" s="103"/>
-      <c r="M22" s="112"/>
+      <c r="L22" s="100"/>
+      <c r="M22" s="155"/>
       <c r="N22" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Participant #06</v>
@@ -4790,40 +4788,40 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="P22" s="114"/>
+      <c r="P22" s="126"/>
       <c r="Q22" s="8" t="str" cm="1">
         <f t="array" ref="Q22">IFERROR(INDEX($N$17:$N$64,SMALL($O$17:$O$64,ROW(B14))),"-")</f>
         <v>-</v>
       </c>
       <c r="R22" s="10"/>
-      <c r="S22" s="111"/>
+      <c r="S22" s="123"/>
       <c r="T22" s="72"/>
-      <c r="U22" s="111"/>
-      <c r="V22" s="117"/>
+      <c r="U22" s="123"/>
+      <c r="V22" s="120"/>
       <c r="W22" s="8" t="str">
         <f>IF(ISBLANK($R$29),"D1",$R$29)</f>
         <v>D1</v>
       </c>
       <c r="X22" s="42"/>
-      <c r="Y22" s="111"/>
+      <c r="Y22" s="123"/>
       <c r="Z22" s="72"/>
-      <c r="AA22" s="111"/>
-      <c r="AB22" s="117"/>
+      <c r="AA22" s="123"/>
+      <c r="AB22" s="120"/>
       <c r="AC22" s="8" t="str">
         <f>IF(ISBLANK($X$29),"P1",$X$29)</f>
         <v>P1</v>
       </c>
       <c r="AD22" s="42"/>
-      <c r="AE22" s="111"/>
+      <c r="AE22" s="123"/>
       <c r="AF22" s="72"/>
-      <c r="AG22" s="111"/>
-      <c r="AH22" s="115"/>
+      <c r="AG22" s="123"/>
+      <c r="AH22" s="127"/>
       <c r="AI22" s="17" t="str">
         <f>IF(ISBLANK($AD$22),"T2",$AD$22)</f>
         <v>T2</v>
       </c>
       <c r="AJ22" s="92"/>
-      <c r="AK22" s="112"/>
+      <c r="AK22" s="155"/>
       <c r="AL22" s="72"/>
       <c r="AM22" s="72"/>
       <c r="AN22" s="72"/>
@@ -4836,7 +4834,7 @@
       <c r="AU22" s="72"/>
       <c r="AV22" s="72"/>
       <c r="AW22" s="72"/>
-      <c r="AX22" s="103"/>
+      <c r="AX22" s="100"/>
       <c r="AY22" s="72"/>
       <c r="AZ22" s="72"/>
       <c r="BA22" s="72"/>
@@ -4845,13 +4843,13 @@
       <c r="BD22" s="72"/>
       <c r="BE22" s="72"/>
       <c r="BF22" s="29"/>
-      <c r="BG22" s="105"/>
+      <c r="BG22" s="175"/>
     </row>
     <row r="23" spans="1:59" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="B23" s="106"/>
+      <c r="B23" s="176"/>
       <c r="C23" s="31"/>
       <c r="D23" s="21" t="s">
         <v>11</v>
@@ -4872,8 +4870,8 @@
         <v>27</v>
       </c>
       <c r="K23" s="72"/>
-      <c r="L23" s="103"/>
-      <c r="M23" s="112"/>
+      <c r="L23" s="100"/>
+      <c r="M23" s="155"/>
       <c r="N23" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Participant #07</v>
@@ -4882,37 +4880,37 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="P23" s="114"/>
+      <c r="P23" s="126"/>
       <c r="Q23" s="8" t="str" cm="1">
         <f t="array" ref="Q23">IFERROR(INDEX($N$17:$N$64,SMALL($O$17:$O$64,ROW(B26))),"-")</f>
         <v>-</v>
       </c>
       <c r="R23" s="4"/>
-      <c r="S23" s="111"/>
+      <c r="S23" s="123"/>
       <c r="T23" s="72"/>
-      <c r="U23" s="111"/>
-      <c r="V23" s="117"/>
+      <c r="U23" s="123"/>
+      <c r="V23" s="120"/>
       <c r="W23" s="8" t="str">
         <f>IF(ISBLANK($R$50),"I2",$R$50)</f>
         <v>I2</v>
       </c>
       <c r="X23" s="74"/>
-      <c r="Y23" s="111"/>
+      <c r="Y23" s="123"/>
       <c r="Z23" s="72"/>
-      <c r="AA23" s="111"/>
-      <c r="AB23" s="117"/>
+      <c r="AA23" s="123"/>
+      <c r="AB23" s="120"/>
       <c r="AC23" s="8" t="str">
         <f>IF(ISBLANK($X$34),"Q2",$X$34)</f>
         <v>Q2</v>
       </c>
       <c r="AD23" s="74"/>
-      <c r="AE23" s="111"/>
+      <c r="AE23" s="123"/>
       <c r="AF23" s="72"/>
       <c r="AG23" s="109"/>
-      <c r="AH23" s="107"/>
-      <c r="AI23" s="113"/>
-      <c r="AJ23" s="113"/>
-      <c r="AK23" s="108"/>
+      <c r="AH23" s="110"/>
+      <c r="AI23" s="157"/>
+      <c r="AJ23" s="157"/>
+      <c r="AK23" s="111"/>
       <c r="AL23" s="72"/>
       <c r="AM23" s="72"/>
       <c r="AN23" s="72"/>
@@ -4925,7 +4923,7 @@
       <c r="AU23" s="72"/>
       <c r="AV23" s="72"/>
       <c r="AW23" s="72"/>
-      <c r="AX23" s="103"/>
+      <c r="AX23" s="100"/>
       <c r="AY23" s="72"/>
       <c r="AZ23" s="72"/>
       <c r="BA23" s="72"/>
@@ -4934,13 +4932,13 @@
       <c r="BD23" s="72"/>
       <c r="BE23" s="72"/>
       <c r="BF23" s="29"/>
-      <c r="BG23" s="105"/>
+      <c r="BG23" s="175"/>
     </row>
     <row r="24" spans="1:59" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="84" t="s">
         <v>81</v>
       </c>
-      <c r="B24" s="106"/>
+      <c r="B24" s="176"/>
       <c r="C24" s="31"/>
       <c r="D24" s="21" t="s">
         <v>12</v>
@@ -4961,8 +4959,8 @@
         <v>27</v>
       </c>
       <c r="K24" s="72"/>
-      <c r="L24" s="103"/>
-      <c r="M24" s="112"/>
+      <c r="L24" s="100"/>
+      <c r="M24" s="155"/>
       <c r="N24" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Participant #08</v>
@@ -4971,31 +4969,31 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="P24" s="115"/>
+      <c r="P24" s="127"/>
       <c r="Q24" s="9" t="str" cm="1">
         <f t="array" ref="Q24">IFERROR(INDEX($N$17:$N$64,SMALL($O$17:$O$64,ROW(B38))),"-")</f>
         <v>-</v>
       </c>
       <c r="R24" s="5"/>
-      <c r="S24" s="111"/>
+      <c r="S24" s="123"/>
       <c r="T24" s="72"/>
-      <c r="U24" s="111"/>
-      <c r="V24" s="118"/>
+      <c r="U24" s="123"/>
+      <c r="V24" s="121"/>
       <c r="W24" s="9" t="str">
         <f>IF(ISBLANK($R$54),"J2",$R$54)</f>
         <v>J2</v>
       </c>
       <c r="X24" s="43"/>
-      <c r="Y24" s="111"/>
+      <c r="Y24" s="123"/>
       <c r="Z24" s="72"/>
-      <c r="AA24" s="111"/>
-      <c r="AB24" s="118"/>
+      <c r="AA24" s="123"/>
+      <c r="AB24" s="121"/>
       <c r="AC24" s="9" t="str">
         <f>IF(ISBLANK($X$38),"R2",$X$38)</f>
         <v>R2</v>
       </c>
       <c r="AD24" s="43"/>
-      <c r="AE24" s="111"/>
+      <c r="AE24" s="123"/>
       <c r="AF24" s="72"/>
       <c r="AG24" s="72"/>
       <c r="AH24" s="75"/>
@@ -5014,7 +5012,7 @@
       <c r="AU24" s="72"/>
       <c r="AV24" s="72"/>
       <c r="AW24" s="72"/>
-      <c r="AX24" s="103"/>
+      <c r="AX24" s="100"/>
       <c r="AY24" s="72"/>
       <c r="AZ24" s="72"/>
       <c r="BA24" s="72"/>
@@ -5023,13 +5021,13 @@
       <c r="BD24" s="72"/>
       <c r="BE24" s="72"/>
       <c r="BF24" s="29"/>
-      <c r="BG24" s="105"/>
+      <c r="BG24" s="175"/>
     </row>
     <row r="25" spans="1:59" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="84" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="106"/>
+      <c r="B25" s="176"/>
       <c r="C25" s="31"/>
       <c r="D25" s="21" t="s">
         <v>13</v>
@@ -5050,8 +5048,8 @@
         <v>28</v>
       </c>
       <c r="K25" s="72"/>
-      <c r="L25" s="103"/>
-      <c r="M25" s="112"/>
+      <c r="L25" s="100"/>
+      <c r="M25" s="155"/>
       <c r="N25" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Participant #09</v>
@@ -5060,7 +5058,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="P25" s="159" t="s">
+      <c r="P25" s="125" t="s">
         <v>34</v>
       </c>
       <c r="Q25" s="7" t="str" cm="1">
@@ -5068,10 +5066,10 @@
         <v>-</v>
       </c>
       <c r="R25" s="3"/>
-      <c r="S25" s="111"/>
+      <c r="S25" s="123"/>
       <c r="T25" s="72"/>
-      <c r="U25" s="111"/>
-      <c r="V25" s="116" t="s">
+      <c r="U25" s="123"/>
+      <c r="V25" s="119" t="s">
         <v>150</v>
       </c>
       <c r="W25" s="8" t="str">
@@ -5079,10 +5077,10 @@
         <v>E1</v>
       </c>
       <c r="X25" s="41"/>
-      <c r="Y25" s="111"/>
+      <c r="Y25" s="123"/>
       <c r="Z25" s="72"/>
-      <c r="AA25" s="111"/>
-      <c r="AB25" s="116" t="s">
+      <c r="AA25" s="123"/>
+      <c r="AB25" s="119" t="s">
         <v>169</v>
       </c>
       <c r="AC25" s="8" t="str">
@@ -5090,13 +5088,13 @@
         <v>Q1</v>
       </c>
       <c r="AD25" s="41"/>
-      <c r="AE25" s="111"/>
+      <c r="AE25" s="123"/>
       <c r="AF25" s="72"/>
-      <c r="AG25" s="166"/>
-      <c r="AH25" s="166"/>
-      <c r="AI25" s="166"/>
-      <c r="AJ25" s="166"/>
-      <c r="AK25" s="166"/>
+      <c r="AG25" s="108"/>
+      <c r="AH25" s="108"/>
+      <c r="AI25" s="108"/>
+      <c r="AJ25" s="108"/>
+      <c r="AK25" s="108"/>
       <c r="AL25" s="72"/>
       <c r="AM25" s="72"/>
       <c r="AN25" s="72"/>
@@ -5109,24 +5107,24 @@
       <c r="AU25" s="72"/>
       <c r="AV25" s="72"/>
       <c r="AW25" s="72"/>
-      <c r="AX25" s="103"/>
+      <c r="AX25" s="100"/>
       <c r="AY25" s="72"/>
-      <c r="AZ25" s="120" t="s">
+      <c r="AZ25" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="BA25" s="121"/>
-      <c r="BB25" s="121"/>
-      <c r="BC25" s="121"/>
-      <c r="BD25" s="121"/>
-      <c r="BE25" s="122"/>
+      <c r="BA25" s="137"/>
+      <c r="BB25" s="137"/>
+      <c r="BC25" s="137"/>
+      <c r="BD25" s="137"/>
+      <c r="BE25" s="138"/>
       <c r="BF25" s="29"/>
-      <c r="BG25" s="105"/>
+      <c r="BG25" s="175"/>
     </row>
     <row r="26" spans="1:59" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="84" t="s">
         <v>83</v>
       </c>
-      <c r="B26" s="106"/>
+      <c r="B26" s="176"/>
       <c r="C26" s="31"/>
       <c r="D26" s="21" t="s">
         <v>14</v>
@@ -5147,8 +5145,8 @@
         <v>28</v>
       </c>
       <c r="K26" s="72"/>
-      <c r="L26" s="103"/>
-      <c r="M26" s="112"/>
+      <c r="L26" s="100"/>
+      <c r="M26" s="155"/>
       <c r="N26" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Participant #10</v>
@@ -5157,31 +5155,31 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="P26" s="114"/>
+      <c r="P26" s="126"/>
       <c r="Q26" s="8" t="str" cm="1">
         <f t="array" ref="Q26">IFERROR(INDEX($N$17:$N$64,SMALL($O$17:$O$64,ROW(B15))),"-")</f>
         <v>-</v>
       </c>
       <c r="R26" s="10"/>
-      <c r="S26" s="111"/>
+      <c r="S26" s="123"/>
       <c r="T26" s="72"/>
-      <c r="U26" s="111"/>
-      <c r="V26" s="117"/>
+      <c r="U26" s="123"/>
+      <c r="V26" s="120"/>
       <c r="W26" s="8" t="str">
         <f>IF(ISBLANK($R$37),"F1",$R$37)</f>
         <v>F1</v>
       </c>
       <c r="X26" s="42"/>
-      <c r="Y26" s="111"/>
+      <c r="Y26" s="123"/>
       <c r="Z26" s="72"/>
-      <c r="AA26" s="111"/>
-      <c r="AB26" s="117"/>
+      <c r="AA26" s="123"/>
+      <c r="AB26" s="120"/>
       <c r="AC26" s="8" t="str">
         <f>IF(ISBLANK($X$37),"R1",$X$37)</f>
         <v>R1</v>
       </c>
       <c r="AD26" s="42"/>
-      <c r="AE26" s="111"/>
+      <c r="AE26" s="123"/>
       <c r="AF26" s="72"/>
       <c r="AG26" s="72"/>
       <c r="AH26" s="72"/>
@@ -5200,22 +5198,22 @@
       <c r="AU26" s="72"/>
       <c r="AV26" s="72"/>
       <c r="AW26" s="72"/>
-      <c r="AX26" s="103"/>
+      <c r="AX26" s="100"/>
       <c r="AY26" s="72"/>
-      <c r="AZ26" s="123"/>
-      <c r="BA26" s="124"/>
-      <c r="BB26" s="124"/>
-      <c r="BC26" s="124"/>
-      <c r="BD26" s="124"/>
-      <c r="BE26" s="125"/>
+      <c r="AZ26" s="139"/>
+      <c r="BA26" s="140"/>
+      <c r="BB26" s="140"/>
+      <c r="BC26" s="140"/>
+      <c r="BD26" s="140"/>
+      <c r="BE26" s="141"/>
       <c r="BF26" s="29"/>
-      <c r="BG26" s="105"/>
+      <c r="BG26" s="175"/>
     </row>
     <row r="27" spans="1:59" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="84" t="s">
         <v>127</v>
       </c>
-      <c r="B27" s="106"/>
+      <c r="B27" s="176"/>
       <c r="C27" s="31"/>
       <c r="D27" s="21" t="s">
         <v>15</v>
@@ -5236,8 +5234,8 @@
         <v>198</v>
       </c>
       <c r="K27" s="72"/>
-      <c r="L27" s="103"/>
-      <c r="M27" s="112"/>
+      <c r="L27" s="100"/>
+      <c r="M27" s="155"/>
       <c r="N27" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Participant #11</v>
@@ -5246,31 +5244,31 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="P27" s="114"/>
+      <c r="P27" s="126"/>
       <c r="Q27" s="8" t="str" cm="1">
         <f t="array" ref="Q27">IFERROR(INDEX($N$17:$N$64,SMALL($O$17:$O$64,ROW(B27))),"-")</f>
         <v>-</v>
       </c>
       <c r="R27" s="4"/>
-      <c r="S27" s="111"/>
+      <c r="S27" s="123"/>
       <c r="T27" s="72"/>
-      <c r="U27" s="111"/>
-      <c r="V27" s="117"/>
+      <c r="U27" s="123"/>
+      <c r="V27" s="120"/>
       <c r="W27" s="8" t="str">
         <f>IF(ISBLANK($R$42),"G2",$R$42)</f>
         <v>G2</v>
       </c>
       <c r="X27" s="74"/>
-      <c r="Y27" s="111"/>
+      <c r="Y27" s="123"/>
       <c r="Z27" s="72"/>
-      <c r="AA27" s="111"/>
-      <c r="AB27" s="117"/>
+      <c r="AA27" s="123"/>
+      <c r="AB27" s="120"/>
       <c r="AC27" s="8" t="str">
         <f>IF(ISBLANK($X$18),"M2",$X$18)</f>
         <v>M2</v>
       </c>
       <c r="AD27" s="74"/>
-      <c r="AE27" s="111"/>
+      <c r="AE27" s="123"/>
       <c r="AF27" s="72"/>
       <c r="AG27" s="72"/>
       <c r="AH27" s="72"/>
@@ -5289,22 +5287,22 @@
       <c r="AU27" s="72"/>
       <c r="AV27" s="72"/>
       <c r="AW27" s="72"/>
-      <c r="AX27" s="103"/>
+      <c r="AX27" s="100"/>
       <c r="AY27" s="72"/>
-      <c r="AZ27" s="126"/>
-      <c r="BA27" s="127"/>
-      <c r="BB27" s="127"/>
-      <c r="BC27" s="127"/>
-      <c r="BD27" s="127"/>
-      <c r="BE27" s="128"/>
+      <c r="AZ27" s="142"/>
+      <c r="BA27" s="143"/>
+      <c r="BB27" s="143"/>
+      <c r="BC27" s="143"/>
+      <c r="BD27" s="143"/>
+      <c r="BE27" s="144"/>
       <c r="BF27" s="29"/>
-      <c r="BG27" s="105"/>
+      <c r="BG27" s="175"/>
     </row>
     <row r="28" spans="1:59" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="84" t="s">
         <v>84</v>
       </c>
-      <c r="B28" s="106"/>
+      <c r="B28" s="176"/>
       <c r="C28" s="31"/>
       <c r="D28" s="21" t="s">
         <v>16</v>
@@ -5325,8 +5323,8 @@
         <v>198</v>
       </c>
       <c r="K28" s="72"/>
-      <c r="L28" s="103"/>
-      <c r="M28" s="112"/>
+      <c r="L28" s="100"/>
+      <c r="M28" s="155"/>
       <c r="N28" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Participant #12</v>
@@ -5335,31 +5333,31 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="P28" s="115"/>
+      <c r="P28" s="127"/>
       <c r="Q28" s="9" t="str" cm="1">
         <f t="array" ref="Q28">IFERROR(INDEX($N$17:$N$64,SMALL($O$17:$O$64,ROW(B39))),"-")</f>
         <v>-</v>
       </c>
       <c r="R28" s="5"/>
-      <c r="S28" s="111"/>
+      <c r="S28" s="123"/>
       <c r="T28" s="72"/>
-      <c r="U28" s="111"/>
-      <c r="V28" s="118"/>
+      <c r="U28" s="123"/>
+      <c r="V28" s="121"/>
       <c r="W28" s="8" t="str">
         <f>IF(ISBLANK($R$46),"H2",$R$46)</f>
         <v>H2</v>
       </c>
       <c r="X28" s="43"/>
-      <c r="Y28" s="111"/>
+      <c r="Y28" s="123"/>
       <c r="Z28" s="72"/>
-      <c r="AA28" s="119"/>
-      <c r="AB28" s="118"/>
+      <c r="AA28" s="124"/>
+      <c r="AB28" s="121"/>
       <c r="AC28" s="9" t="str">
         <f>IF(ISBLANK($X$22),"N2",$X$22)</f>
         <v>N2</v>
       </c>
       <c r="AD28" s="43"/>
-      <c r="AE28" s="119"/>
+      <c r="AE28" s="124"/>
       <c r="AF28" s="72"/>
       <c r="AG28" s="72"/>
       <c r="AH28" s="72"/>
@@ -5378,22 +5376,22 @@
       <c r="AU28" s="72"/>
       <c r="AV28" s="72"/>
       <c r="AW28" s="72"/>
-      <c r="AX28" s="103"/>
+      <c r="AX28" s="100"/>
       <c r="AY28" s="72"/>
       <c r="AZ28" s="109"/>
-      <c r="BA28" s="107"/>
-      <c r="BB28" s="107"/>
-      <c r="BC28" s="107"/>
-      <c r="BD28" s="107"/>
-      <c r="BE28" s="108"/>
+      <c r="BA28" s="110"/>
+      <c r="BB28" s="110"/>
+      <c r="BC28" s="110"/>
+      <c r="BD28" s="110"/>
+      <c r="BE28" s="111"/>
       <c r="BF28" s="29"/>
-      <c r="BG28" s="105"/>
+      <c r="BG28" s="175"/>
     </row>
     <row r="29" spans="1:59" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="84" t="s">
         <v>85</v>
       </c>
-      <c r="B29" s="106"/>
+      <c r="B29" s="176"/>
       <c r="C29" s="31"/>
       <c r="D29" s="21" t="s">
         <v>17</v>
@@ -5414,8 +5412,8 @@
         <v>198</v>
       </c>
       <c r="K29" s="72"/>
-      <c r="L29" s="103"/>
-      <c r="M29" s="112"/>
+      <c r="L29" s="100"/>
+      <c r="M29" s="155"/>
       <c r="N29" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Participant #13</v>
@@ -5424,7 +5422,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="P29" s="159" t="s">
+      <c r="P29" s="125" t="s">
         <v>35</v>
       </c>
       <c r="Q29" s="7" t="str" cm="1">
@@ -5432,10 +5430,10 @@
         <v>-</v>
       </c>
       <c r="R29" s="3"/>
-      <c r="S29" s="111"/>
+      <c r="S29" s="123"/>
       <c r="T29" s="72"/>
-      <c r="U29" s="111"/>
-      <c r="V29" s="116" t="s">
+      <c r="U29" s="123"/>
+      <c r="V29" s="119" t="s">
         <v>151</v>
       </c>
       <c r="W29" s="7" t="str">
@@ -5443,13 +5441,13 @@
         <v>G1</v>
       </c>
       <c r="X29" s="41"/>
-      <c r="Y29" s="111"/>
+      <c r="Y29" s="123"/>
       <c r="Z29" s="72"/>
       <c r="AA29" s="109"/>
-      <c r="AB29" s="107"/>
-      <c r="AC29" s="107"/>
-      <c r="AD29" s="107"/>
-      <c r="AE29" s="108"/>
+      <c r="AB29" s="110"/>
+      <c r="AC29" s="110"/>
+      <c r="AD29" s="110"/>
+      <c r="AE29" s="111"/>
       <c r="AF29" s="72"/>
       <c r="AG29" s="72"/>
       <c r="AH29" s="72"/>
@@ -5468,9 +5466,9 @@
       <c r="AU29" s="72"/>
       <c r="AV29" s="72"/>
       <c r="AW29" s="72"/>
-      <c r="AX29" s="103"/>
+      <c r="AX29" s="100"/>
       <c r="AY29" s="72"/>
-      <c r="AZ29" s="110"/>
+      <c r="AZ29" s="122"/>
       <c r="BA29" s="2">
         <v>6</v>
       </c>
@@ -5479,15 +5477,15 @@
       </c>
       <c r="BC29" s="49"/>
       <c r="BD29" s="50"/>
-      <c r="BE29" s="110"/>
+      <c r="BE29" s="122"/>
       <c r="BF29" s="29"/>
-      <c r="BG29" s="105"/>
+      <c r="BG29" s="175"/>
     </row>
     <row r="30" spans="1:59" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="84" t="s">
         <v>128</v>
       </c>
-      <c r="B30" s="106"/>
+      <c r="B30" s="176"/>
       <c r="C30" s="31"/>
       <c r="D30" s="21" t="s">
         <v>18</v>
@@ -5508,8 +5506,8 @@
         <v>197</v>
       </c>
       <c r="K30" s="72"/>
-      <c r="L30" s="103"/>
-      <c r="M30" s="112"/>
+      <c r="L30" s="100"/>
+      <c r="M30" s="155"/>
       <c r="N30" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Participant #14</v>
@@ -5518,22 +5516,22 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="P30" s="114"/>
+      <c r="P30" s="126"/>
       <c r="Q30" s="8" t="str" cm="1">
         <f t="array" ref="Q30">IFERROR(INDEX($N$17:$N$64,SMALL($O$17:$O$64,ROW(B16))),"-")</f>
         <v>-</v>
       </c>
       <c r="R30" s="10"/>
-      <c r="S30" s="111"/>
+      <c r="S30" s="123"/>
       <c r="T30" s="72"/>
-      <c r="U30" s="111"/>
-      <c r="V30" s="117"/>
+      <c r="U30" s="123"/>
+      <c r="V30" s="120"/>
       <c r="W30" s="8" t="str">
         <f>IF(ISBLANK($R$45),"H1",$R$45)</f>
         <v>H1</v>
       </c>
       <c r="X30" s="42"/>
-      <c r="Y30" s="111"/>
+      <c r="Y30" s="123"/>
       <c r="Z30" s="72"/>
       <c r="AA30" s="72"/>
       <c r="AB30" s="72"/>
@@ -5558,9 +5556,9 @@
       <c r="AU30" s="72"/>
       <c r="AV30" s="72"/>
       <c r="AW30" s="72"/>
-      <c r="AX30" s="103"/>
+      <c r="AX30" s="100"/>
       <c r="AY30" s="72"/>
-      <c r="AZ30" s="111"/>
+      <c r="AZ30" s="123"/>
       <c r="BA30" s="1" t="s">
         <v>30</v>
       </c>
@@ -5573,15 +5571,15 @@
       <c r="BD30" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BE30" s="111"/>
+      <c r="BE30" s="123"/>
       <c r="BF30" s="29"/>
-      <c r="BG30" s="105"/>
+      <c r="BG30" s="175"/>
     </row>
     <row r="31" spans="1:59" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="84" t="s">
         <v>129</v>
       </c>
-      <c r="B31" s="106"/>
+      <c r="B31" s="176"/>
       <c r="C31" s="31"/>
       <c r="D31" s="21" t="s">
         <v>139</v>
@@ -5602,8 +5600,8 @@
         <v>197</v>
       </c>
       <c r="K31" s="85"/>
-      <c r="L31" s="103"/>
-      <c r="M31" s="112"/>
+      <c r="L31" s="100"/>
+      <c r="M31" s="155"/>
       <c r="N31" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Participant #15</v>
@@ -5612,22 +5610,22 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="P31" s="114"/>
+      <c r="P31" s="126"/>
       <c r="Q31" s="8" t="str" cm="1">
         <f t="array" ref="Q31">IFERROR(INDEX($N$17:$N$64,SMALL($O$17:$O$64,ROW(B28))),"-")</f>
         <v>-</v>
       </c>
       <c r="R31" s="4"/>
-      <c r="S31" s="111"/>
+      <c r="S31" s="123"/>
       <c r="T31" s="72"/>
-      <c r="U31" s="111"/>
-      <c r="V31" s="117"/>
+      <c r="U31" s="123"/>
+      <c r="V31" s="120"/>
       <c r="W31" s="8" t="str">
         <f>IF(ISBLANK($R$34),"E2",$R$34)</f>
         <v>E2</v>
       </c>
       <c r="X31" s="74"/>
-      <c r="Y31" s="111"/>
+      <c r="Y31" s="123"/>
       <c r="Z31" s="72"/>
       <c r="AA31" s="72"/>
       <c r="AB31" s="72"/>
@@ -5652,10 +5650,10 @@
       <c r="AU31" s="72"/>
       <c r="AV31" s="72"/>
       <c r="AW31" s="72"/>
-      <c r="AX31" s="103"/>
+      <c r="AX31" s="100"/>
       <c r="AY31" s="72"/>
-      <c r="AZ31" s="111"/>
-      <c r="BA31" s="116" t="s">
+      <c r="AZ31" s="123"/>
+      <c r="BA31" s="119" t="s">
         <v>54</v>
       </c>
       <c r="BB31" s="15" t="str">
@@ -5666,15 +5664,15 @@
       <c r="BD31" s="32">
         <v>0</v>
       </c>
-      <c r="BE31" s="111"/>
+      <c r="BE31" s="123"/>
       <c r="BF31" s="29"/>
-      <c r="BG31" s="105"/>
+      <c r="BG31" s="175"/>
     </row>
     <row r="32" spans="1:59" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="84" t="s">
         <v>130</v>
       </c>
-      <c r="B32" s="106"/>
+      <c r="B32" s="176"/>
       <c r="C32" s="31"/>
       <c r="D32" s="21" t="s">
         <v>140</v>
@@ -5695,8 +5693,8 @@
         <v>197</v>
       </c>
       <c r="K32" s="85"/>
-      <c r="L32" s="103"/>
-      <c r="M32" s="112"/>
+      <c r="L32" s="100"/>
+      <c r="M32" s="155"/>
       <c r="N32" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Participant #16</v>
@@ -5705,22 +5703,22 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="P32" s="115"/>
+      <c r="P32" s="127"/>
       <c r="Q32" s="9" t="str" cm="1">
         <f t="array" ref="Q32">IFERROR(INDEX($N$17:$N$64,SMALL($O$17:$O$64,ROW(B40))),"-")</f>
         <v>-</v>
       </c>
       <c r="R32" s="5"/>
-      <c r="S32" s="111"/>
+      <c r="S32" s="123"/>
       <c r="T32" s="72"/>
-      <c r="U32" s="111"/>
-      <c r="V32" s="118"/>
+      <c r="U32" s="123"/>
+      <c r="V32" s="121"/>
       <c r="W32" s="9" t="str">
         <f>IF(ISBLANK($R$38),"F2",$R$38)</f>
         <v>F2</v>
       </c>
       <c r="X32" s="74"/>
-      <c r="Y32" s="111"/>
+      <c r="Y32" s="123"/>
       <c r="Z32" s="72"/>
       <c r="AA32" s="72"/>
       <c r="AB32" s="72"/>
@@ -5745,10 +5743,10 @@
       <c r="AU32" s="72"/>
       <c r="AV32" s="72"/>
       <c r="AW32" s="72"/>
-      <c r="AX32" s="103"/>
+      <c r="AX32" s="100"/>
       <c r="AY32" s="72"/>
-      <c r="AZ32" s="111"/>
-      <c r="BA32" s="117"/>
+      <c r="AZ32" s="123"/>
+      <c r="BA32" s="120"/>
       <c r="BB32" s="16" t="str">
         <f>IF(ISBLANK($AV$82),"LF4",$AV$82)</f>
         <v>LF4</v>
@@ -5757,15 +5755,15 @@
       <c r="BD32" s="33">
         <v>0</v>
       </c>
-      <c r="BE32" s="111"/>
+      <c r="BE32" s="123"/>
       <c r="BF32" s="29"/>
-      <c r="BG32" s="105"/>
+      <c r="BG32" s="175"/>
     </row>
     <row r="33" spans="1:59" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="84" t="s">
         <v>131</v>
       </c>
-      <c r="B33" s="106"/>
+      <c r="B33" s="176"/>
       <c r="C33" s="31"/>
       <c r="D33" s="21" t="s">
         <v>141</v>
@@ -5786,8 +5784,8 @@
         <v>196</v>
       </c>
       <c r="K33" s="85"/>
-      <c r="L33" s="103"/>
-      <c r="M33" s="112"/>
+      <c r="L33" s="100"/>
+      <c r="M33" s="155"/>
       <c r="N33" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Participant #17</v>
@@ -5796,7 +5794,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="P33" s="159" t="s">
+      <c r="P33" s="125" t="s">
         <v>37</v>
       </c>
       <c r="Q33" s="7" t="str" cm="1">
@@ -5804,10 +5802,10 @@
         <v>-</v>
       </c>
       <c r="R33" s="3"/>
-      <c r="S33" s="111"/>
+      <c r="S33" s="123"/>
       <c r="T33" s="72"/>
-      <c r="U33" s="111"/>
-      <c r="V33" s="116" t="s">
+      <c r="U33" s="123"/>
+      <c r="V33" s="119" t="s">
         <v>152</v>
       </c>
       <c r="W33" s="8" t="str">
@@ -5815,7 +5813,7 @@
         <v>I1</v>
       </c>
       <c r="X33" s="41"/>
-      <c r="Y33" s="111"/>
+      <c r="Y33" s="123"/>
       <c r="Z33" s="72"/>
       <c r="AA33" s="72"/>
       <c r="AB33" s="72"/>
@@ -5840,10 +5838,10 @@
       <c r="AU33" s="72"/>
       <c r="AV33" s="72"/>
       <c r="AW33" s="72"/>
-      <c r="AX33" s="103"/>
+      <c r="AX33" s="100"/>
       <c r="AY33" s="72"/>
-      <c r="AZ33" s="111"/>
-      <c r="BA33" s="117"/>
+      <c r="AZ33" s="123"/>
+      <c r="BA33" s="120"/>
       <c r="BB33" s="16" t="str">
         <f>IF(ISBLANK($AP$80),"AR3",$AP$80)</f>
         <v>AR3</v>
@@ -5852,15 +5850,15 @@
       <c r="BD33" s="34">
         <v>0</v>
       </c>
-      <c r="BE33" s="111"/>
+      <c r="BE33" s="123"/>
       <c r="BF33" s="29"/>
-      <c r="BG33" s="105"/>
+      <c r="BG33" s="175"/>
     </row>
     <row r="34" spans="1:59" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="84" t="s">
         <v>132</v>
       </c>
-      <c r="B34" s="106"/>
+      <c r="B34" s="176"/>
       <c r="C34" s="31"/>
       <c r="D34" s="21" t="s">
         <v>142</v>
@@ -5881,8 +5879,8 @@
         <v>196</v>
       </c>
       <c r="K34" s="85"/>
-      <c r="L34" s="103"/>
-      <c r="M34" s="112"/>
+      <c r="L34" s="100"/>
+      <c r="M34" s="155"/>
       <c r="N34" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Participant #18</v>
@@ -5891,22 +5889,22 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="P34" s="114"/>
+      <c r="P34" s="126"/>
       <c r="Q34" s="8" t="str" cm="1">
         <f t="array" ref="Q34">IFERROR(INDEX($N$17:$N$64,SMALL($O$17:$O$64,ROW(B17))),"-")</f>
         <v>-</v>
       </c>
       <c r="R34" s="10"/>
-      <c r="S34" s="111"/>
+      <c r="S34" s="123"/>
       <c r="T34" s="72"/>
-      <c r="U34" s="111"/>
-      <c r="V34" s="117"/>
+      <c r="U34" s="123"/>
+      <c r="V34" s="120"/>
       <c r="W34" s="8" t="str">
         <f>IF(ISBLANK($R$53),"J1",$R$53)</f>
         <v>J1</v>
       </c>
       <c r="X34" s="42"/>
-      <c r="Y34" s="111"/>
+      <c r="Y34" s="123"/>
       <c r="Z34" s="72"/>
       <c r="AA34" s="72"/>
       <c r="AB34" s="72"/>
@@ -5931,10 +5929,10 @@
       <c r="AU34" s="72"/>
       <c r="AV34" s="72"/>
       <c r="AW34" s="72"/>
-      <c r="AX34" s="103"/>
+      <c r="AX34" s="100"/>
       <c r="AY34" s="72"/>
-      <c r="AZ34" s="119"/>
-      <c r="BA34" s="118"/>
+      <c r="AZ34" s="124"/>
+      <c r="BA34" s="121"/>
       <c r="BB34" s="17" t="str">
         <f>IF(ISBLANK($AP$84),"AS3",$AP$84)</f>
         <v>AS3</v>
@@ -5943,15 +5941,15 @@
       <c r="BD34" s="10">
         <v>0</v>
       </c>
-      <c r="BE34" s="119"/>
+      <c r="BE34" s="124"/>
       <c r="BF34" s="29"/>
-      <c r="BG34" s="105"/>
+      <c r="BG34" s="175"/>
     </row>
     <row r="35" spans="1:59" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="84" t="s">
         <v>133</v>
       </c>
-      <c r="B35" s="106"/>
+      <c r="B35" s="176"/>
       <c r="C35" s="31"/>
       <c r="D35" s="21" t="s">
         <v>143</v>
@@ -5972,8 +5970,8 @@
         <v>196</v>
       </c>
       <c r="K35" s="85"/>
-      <c r="L35" s="103"/>
-      <c r="M35" s="112"/>
+      <c r="L35" s="100"/>
+      <c r="M35" s="155"/>
       <c r="N35" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Participant #19</v>
@@ -5982,22 +5980,22 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="P35" s="114"/>
+      <c r="P35" s="126"/>
       <c r="Q35" s="8" t="str" cm="1">
         <f t="array" ref="Q35">IFERROR(INDEX($N$17:$N$64,SMALL($O$17:$O$64,ROW(B29))),"-")</f>
         <v>-</v>
       </c>
       <c r="R35" s="4"/>
-      <c r="S35" s="111"/>
+      <c r="S35" s="123"/>
       <c r="T35" s="72"/>
-      <c r="U35" s="111"/>
-      <c r="V35" s="117"/>
+      <c r="U35" s="123"/>
+      <c r="V35" s="120"/>
       <c r="W35" s="8" t="str">
         <f>IF(ISBLANK($R$26),"C2",$R$26)</f>
         <v>C2</v>
       </c>
       <c r="X35" s="74"/>
-      <c r="Y35" s="111"/>
+      <c r="Y35" s="123"/>
       <c r="Z35" s="86"/>
       <c r="AA35" s="86"/>
       <c r="AB35" s="86"/>
@@ -6022,22 +6020,22 @@
       <c r="AU35" s="72"/>
       <c r="AV35" s="72"/>
       <c r="AW35" s="72"/>
-      <c r="AX35" s="103"/>
+      <c r="AX35" s="100"/>
       <c r="AY35" s="72"/>
       <c r="AZ35" s="109"/>
-      <c r="BA35" s="107"/>
-      <c r="BB35" s="107"/>
-      <c r="BC35" s="107"/>
-      <c r="BD35" s="107"/>
-      <c r="BE35" s="108"/>
+      <c r="BA35" s="110"/>
+      <c r="BB35" s="110"/>
+      <c r="BC35" s="110"/>
+      <c r="BD35" s="110"/>
+      <c r="BE35" s="111"/>
       <c r="BF35" s="29"/>
-      <c r="BG35" s="105"/>
+      <c r="BG35" s="175"/>
     </row>
     <row r="36" spans="1:59" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="84" t="s">
         <v>134</v>
       </c>
-      <c r="B36" s="106"/>
+      <c r="B36" s="176"/>
       <c r="C36" s="31"/>
       <c r="D36" s="21" t="s">
         <v>144</v>
@@ -6058,8 +6056,8 @@
         <v>195</v>
       </c>
       <c r="K36" s="85"/>
-      <c r="L36" s="103"/>
-      <c r="M36" s="112"/>
+      <c r="L36" s="100"/>
+      <c r="M36" s="155"/>
       <c r="N36" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Participant #20</v>
@@ -6068,22 +6066,22 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="P36" s="115"/>
+      <c r="P36" s="127"/>
       <c r="Q36" s="9" t="str" cm="1">
         <f t="array" ref="Q36">IFERROR(INDEX($N$17:$N$64,SMALL($O$17:$O$64,ROW(B41))),"-")</f>
         <v>-</v>
       </c>
       <c r="R36" s="5"/>
-      <c r="S36" s="111"/>
+      <c r="S36" s="123"/>
       <c r="T36" s="72"/>
-      <c r="U36" s="111"/>
-      <c r="V36" s="118"/>
+      <c r="U36" s="123"/>
+      <c r="V36" s="121"/>
       <c r="W36" s="8" t="str">
         <f>IF(ISBLANK($R$30),"D2",$R$30)</f>
         <v>D2</v>
       </c>
       <c r="X36" s="43"/>
-      <c r="Y36" s="111"/>
+      <c r="Y36" s="123"/>
       <c r="Z36" s="72"/>
       <c r="AA36" s="72"/>
       <c r="AB36" s="72"/>
@@ -6108,7 +6106,7 @@
       <c r="AU36" s="72"/>
       <c r="AV36" s="72"/>
       <c r="AW36" s="72"/>
-      <c r="AX36" s="103"/>
+      <c r="AX36" s="100"/>
       <c r="AY36" s="72"/>
       <c r="AZ36" s="72"/>
       <c r="BA36" s="72"/>
@@ -6117,13 +6115,13 @@
       <c r="BD36" s="72"/>
       <c r="BE36" s="72"/>
       <c r="BF36" s="29"/>
-      <c r="BG36" s="105"/>
+      <c r="BG36" s="175"/>
     </row>
     <row r="37" spans="1:59" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="84" t="s">
         <v>135</v>
       </c>
-      <c r="B37" s="106"/>
+      <c r="B37" s="176"/>
       <c r="C37" s="31"/>
       <c r="D37" s="21" t="s">
         <v>145</v>
@@ -6144,8 +6142,8 @@
         <v>195</v>
       </c>
       <c r="K37" s="85"/>
-      <c r="L37" s="103"/>
-      <c r="M37" s="112"/>
+      <c r="L37" s="100"/>
+      <c r="M37" s="155"/>
       <c r="N37" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Participant #21</v>
@@ -6154,7 +6152,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="P37" s="159" t="s">
+      <c r="P37" s="125" t="s">
         <v>38</v>
       </c>
       <c r="Q37" s="7" t="str" cm="1">
@@ -6162,10 +6160,10 @@
         <v>-</v>
       </c>
       <c r="R37" s="3"/>
-      <c r="S37" s="111"/>
+      <c r="S37" s="123"/>
       <c r="T37" s="72"/>
-      <c r="U37" s="111"/>
-      <c r="V37" s="116" t="s">
+      <c r="U37" s="123"/>
+      <c r="V37" s="119" t="s">
         <v>153</v>
       </c>
       <c r="W37" s="7" t="str">
@@ -6173,7 +6171,7 @@
         <v>K1</v>
       </c>
       <c r="X37" s="41"/>
-      <c r="Y37" s="111"/>
+      <c r="Y37" s="123"/>
       <c r="Z37" s="72"/>
       <c r="AA37" s="72"/>
       <c r="AB37" s="72"/>
@@ -6198,7 +6196,7 @@
       <c r="AU37" s="72"/>
       <c r="AV37" s="72"/>
       <c r="AW37" s="72"/>
-      <c r="AX37" s="103"/>
+      <c r="AX37" s="100"/>
       <c r="AY37" s="72"/>
       <c r="AZ37" s="72"/>
       <c r="BA37" s="72"/>
@@ -6207,13 +6205,13 @@
       <c r="BD37" s="72"/>
       <c r="BE37" s="72"/>
       <c r="BF37" s="29"/>
-      <c r="BG37" s="105"/>
+      <c r="BG37" s="175"/>
     </row>
     <row r="38" spans="1:59" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="84" t="s">
         <v>136</v>
       </c>
-      <c r="B38" s="106"/>
+      <c r="B38" s="176"/>
       <c r="C38" s="31"/>
       <c r="D38" s="21" t="s">
         <v>146</v>
@@ -6234,8 +6232,8 @@
         <v>195</v>
       </c>
       <c r="K38" s="85"/>
-      <c r="L38" s="103"/>
-      <c r="M38" s="112"/>
+      <c r="L38" s="100"/>
+      <c r="M38" s="155"/>
       <c r="N38" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Participant #22</v>
@@ -6244,22 +6242,22 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="P38" s="114"/>
+      <c r="P38" s="126"/>
       <c r="Q38" s="8" t="str" cm="1">
         <f t="array" ref="Q38">IFERROR(INDEX($N$17:$N$64,SMALL($O$17:$O$64,ROW(B18))),"-")</f>
         <v>-</v>
       </c>
       <c r="R38" s="10"/>
-      <c r="S38" s="111"/>
+      <c r="S38" s="123"/>
       <c r="T38" s="72"/>
-      <c r="U38" s="111"/>
-      <c r="V38" s="117"/>
+      <c r="U38" s="123"/>
+      <c r="V38" s="120"/>
       <c r="W38" s="8" t="str">
         <f>IF(ISBLANK($R$61),"L1",$R$61)</f>
         <v>L1</v>
       </c>
       <c r="X38" s="42"/>
-      <c r="Y38" s="111"/>
+      <c r="Y38" s="123"/>
       <c r="Z38" s="72"/>
       <c r="AA38" s="72"/>
       <c r="AB38" s="72"/>
@@ -6284,7 +6282,7 @@
       <c r="AU38" s="72"/>
       <c r="AV38" s="72"/>
       <c r="AW38" s="72"/>
-      <c r="AX38" s="103"/>
+      <c r="AX38" s="100"/>
       <c r="AY38" s="72"/>
       <c r="AZ38" s="72"/>
       <c r="BA38" s="72"/>
@@ -6293,13 +6291,13 @@
       <c r="BD38" s="72"/>
       <c r="BE38" s="72"/>
       <c r="BF38" s="29"/>
-      <c r="BG38" s="105"/>
+      <c r="BG38" s="175"/>
     </row>
     <row r="39" spans="1:59" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="84" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="106"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="31"/>
       <c r="D39" s="21" t="s">
         <v>157</v>
@@ -6320,8 +6318,8 @@
         <v>165</v>
       </c>
       <c r="K39" s="85"/>
-      <c r="L39" s="103"/>
-      <c r="M39" s="112"/>
+      <c r="L39" s="100"/>
+      <c r="M39" s="155"/>
       <c r="N39" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Participant #23</v>
@@ -6330,22 +6328,22 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="P39" s="114"/>
+      <c r="P39" s="126"/>
       <c r="Q39" s="8" t="str" cm="1">
         <f t="array" ref="Q39">IFERROR(INDEX($N$17:$N$64,SMALL($O$17:$O$64,ROW(B30))),"-")</f>
         <v>-</v>
       </c>
       <c r="R39" s="4"/>
-      <c r="S39" s="111"/>
+      <c r="S39" s="123"/>
       <c r="T39" s="72"/>
-      <c r="U39" s="111"/>
-      <c r="V39" s="117"/>
+      <c r="U39" s="123"/>
+      <c r="V39" s="120"/>
       <c r="W39" s="8" t="str">
         <f>IF(ISBLANK($R$18),"A2",$R$18)</f>
         <v>A2</v>
       </c>
       <c r="X39" s="74"/>
-      <c r="Y39" s="111"/>
+      <c r="Y39" s="123"/>
       <c r="Z39" s="72"/>
       <c r="AA39" s="72"/>
       <c r="AB39" s="72"/>
@@ -6370,7 +6368,7 @@
       <c r="AU39" s="72"/>
       <c r="AV39" s="72"/>
       <c r="AW39" s="72"/>
-      <c r="AX39" s="103"/>
+      <c r="AX39" s="100"/>
       <c r="AY39" s="72"/>
       <c r="AZ39" s="72"/>
       <c r="BA39" s="72"/>
@@ -6379,13 +6377,13 @@
       <c r="BD39" s="72"/>
       <c r="BE39" s="72"/>
       <c r="BF39" s="29"/>
-      <c r="BG39" s="105"/>
+      <c r="BG39" s="175"/>
     </row>
     <row r="40" spans="1:59" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="84" t="s">
         <v>87</v>
       </c>
-      <c r="B40" s="106"/>
+      <c r="B40" s="176"/>
       <c r="C40" s="31"/>
       <c r="D40" s="21" t="s">
         <v>158</v>
@@ -6406,8 +6404,8 @@
         <v>165</v>
       </c>
       <c r="K40" s="85"/>
-      <c r="L40" s="103"/>
-      <c r="M40" s="112"/>
+      <c r="L40" s="100"/>
+      <c r="M40" s="155"/>
       <c r="N40" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Participant #24</v>
@@ -6416,22 +6414,22 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="P40" s="115"/>
+      <c r="P40" s="127"/>
       <c r="Q40" s="9" t="str" cm="1">
         <f t="array" ref="Q40">IFERROR(INDEX($N$17:$N$64,SMALL($O$17:$O$64,ROW(B42))),"-")</f>
         <v>-</v>
       </c>
       <c r="R40" s="4"/>
-      <c r="S40" s="111"/>
+      <c r="S40" s="123"/>
       <c r="T40" s="72"/>
-      <c r="U40" s="119"/>
-      <c r="V40" s="118"/>
+      <c r="U40" s="124"/>
+      <c r="V40" s="121"/>
       <c r="W40" s="9" t="str">
         <f>IF(ISBLANK($R$22),"B2",$R$22)</f>
         <v>B2</v>
       </c>
       <c r="X40" s="74"/>
-      <c r="Y40" s="119"/>
+      <c r="Y40" s="124"/>
       <c r="Z40" s="72"/>
       <c r="AA40" s="72"/>
       <c r="AB40" s="72"/>
@@ -6456,7 +6454,7 @@
       <c r="AU40" s="72"/>
       <c r="AV40" s="72"/>
       <c r="AW40" s="72"/>
-      <c r="AX40" s="103"/>
+      <c r="AX40" s="100"/>
       <c r="AY40" s="72"/>
       <c r="AZ40" s="72"/>
       <c r="BA40" s="72"/>
@@ -6465,13 +6463,13 @@
       <c r="BD40" s="72"/>
       <c r="BE40" s="72"/>
       <c r="BF40" s="29"/>
-      <c r="BG40" s="105"/>
+      <c r="BG40" s="175"/>
     </row>
     <row r="41" spans="1:59" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="84" t="s">
         <v>88</v>
       </c>
-      <c r="B41" s="106"/>
+      <c r="B41" s="176"/>
       <c r="C41" s="31"/>
       <c r="D41" s="21" t="s">
         <v>159</v>
@@ -6492,8 +6490,8 @@
         <v>165</v>
       </c>
       <c r="K41" s="85"/>
-      <c r="L41" s="103"/>
-      <c r="M41" s="112"/>
+      <c r="L41" s="100"/>
+      <c r="M41" s="155"/>
       <c r="N41" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Participant #25</v>
@@ -6502,7 +6500,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="P41" s="159" t="s">
+      <c r="P41" s="125" t="s">
         <v>44</v>
       </c>
       <c r="Q41" s="7" t="str" cm="1">
@@ -6510,13 +6508,13 @@
         <v>-</v>
       </c>
       <c r="R41" s="3"/>
-      <c r="S41" s="111"/>
+      <c r="S41" s="123"/>
       <c r="T41" s="72"/>
       <c r="U41" s="109"/>
-      <c r="V41" s="107"/>
-      <c r="W41" s="107"/>
-      <c r="X41" s="107"/>
-      <c r="Y41" s="108"/>
+      <c r="V41" s="110"/>
+      <c r="W41" s="110"/>
+      <c r="X41" s="110"/>
+      <c r="Y41" s="111"/>
       <c r="Z41" s="72"/>
       <c r="AA41" s="72"/>
       <c r="AB41" s="72"/>
@@ -6541,7 +6539,7 @@
       <c r="AU41" s="72"/>
       <c r="AV41" s="72"/>
       <c r="AW41" s="72"/>
-      <c r="AX41" s="103"/>
+      <c r="AX41" s="100"/>
       <c r="AY41" s="72"/>
       <c r="AZ41" s="72"/>
       <c r="BA41" s="72"/>
@@ -6550,13 +6548,13 @@
       <c r="BD41" s="72"/>
       <c r="BE41" s="72"/>
       <c r="BF41" s="29"/>
-      <c r="BG41" s="105"/>
+      <c r="BG41" s="175"/>
     </row>
     <row r="42" spans="1:59" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="84" t="s">
         <v>89</v>
       </c>
-      <c r="B42" s="106"/>
+      <c r="B42" s="176"/>
       <c r="C42" s="31"/>
       <c r="D42" s="21" t="s">
         <v>160</v>
@@ -6577,8 +6575,8 @@
         <v>165</v>
       </c>
       <c r="K42" s="85"/>
-      <c r="L42" s="103"/>
-      <c r="M42" s="112"/>
+      <c r="L42" s="100"/>
+      <c r="M42" s="155"/>
       <c r="N42" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Participant #26</v>
@@ -6587,13 +6585,13 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="P42" s="114"/>
+      <c r="P42" s="126"/>
       <c r="Q42" s="8" t="str" cm="1">
         <f t="array" ref="Q42">IFERROR(INDEX($N$17:$N$64,SMALL($O$17:$O$64,ROW(B19))),"-")</f>
         <v>-</v>
       </c>
       <c r="R42" s="10"/>
-      <c r="S42" s="111"/>
+      <c r="S42" s="123"/>
       <c r="T42" s="72"/>
       <c r="U42" s="72"/>
       <c r="V42" s="72"/>
@@ -6624,7 +6622,7 @@
       <c r="AU42" s="72"/>
       <c r="AV42" s="72"/>
       <c r="AW42" s="72"/>
-      <c r="AX42" s="103"/>
+      <c r="AX42" s="100"/>
       <c r="AY42" s="72"/>
       <c r="AZ42" s="72"/>
       <c r="BA42" s="72"/>
@@ -6633,13 +6631,13 @@
       <c r="BD42" s="72"/>
       <c r="BE42" s="72"/>
       <c r="BF42" s="29"/>
-      <c r="BG42" s="105"/>
+      <c r="BG42" s="175"/>
     </row>
     <row r="43" spans="1:59" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="84" t="s">
         <v>90</v>
       </c>
-      <c r="B43" s="106"/>
+      <c r="B43" s="176"/>
       <c r="C43" s="31"/>
       <c r="D43" s="21" t="s">
         <v>161</v>
@@ -6660,8 +6658,8 @@
         <v>165</v>
       </c>
       <c r="K43" s="85"/>
-      <c r="L43" s="103"/>
-      <c r="M43" s="112"/>
+      <c r="L43" s="100"/>
+      <c r="M43" s="155"/>
       <c r="N43" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Participant #27</v>
@@ -6670,13 +6668,13 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="P43" s="114"/>
+      <c r="P43" s="126"/>
       <c r="Q43" s="8" t="str" cm="1">
         <f t="array" ref="Q43">IFERROR(INDEX($N$17:$N$64,SMALL($O$17:$O$64,ROW(B31))),"-")</f>
         <v>-</v>
       </c>
       <c r="R43" s="4"/>
-      <c r="S43" s="111"/>
+      <c r="S43" s="123"/>
       <c r="T43" s="72"/>
       <c r="U43" s="72"/>
       <c r="V43" s="72"/>
@@ -6707,7 +6705,7 @@
       <c r="AU43" s="72"/>
       <c r="AV43" s="72"/>
       <c r="AW43" s="72"/>
-      <c r="AX43" s="103"/>
+      <c r="AX43" s="100"/>
       <c r="AY43" s="72"/>
       <c r="AZ43" s="72"/>
       <c r="BA43" s="72"/>
@@ -6716,13 +6714,13 @@
       <c r="BD43" s="72"/>
       <c r="BE43" s="72"/>
       <c r="BF43" s="29"/>
-      <c r="BG43" s="105"/>
+      <c r="BG43" s="175"/>
     </row>
     <row r="44" spans="1:59" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="84" t="s">
         <v>91</v>
       </c>
-      <c r="B44" s="106"/>
+      <c r="B44" s="176"/>
       <c r="C44" s="31"/>
       <c r="D44" s="21" t="s">
         <v>162</v>
@@ -6743,8 +6741,8 @@
         <v>165</v>
       </c>
       <c r="K44" s="85"/>
-      <c r="L44" s="103"/>
-      <c r="M44" s="112"/>
+      <c r="L44" s="100"/>
+      <c r="M44" s="155"/>
       <c r="N44" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Participant #28</v>
@@ -6753,13 +6751,13 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="P44" s="115"/>
+      <c r="P44" s="127"/>
       <c r="Q44" s="9" t="str" cm="1">
         <f t="array" ref="Q44">IFERROR(INDEX($N$17:$N$64,SMALL($O$17:$O$64,ROW(B43))),"-")</f>
         <v>-</v>
       </c>
       <c r="R44" s="5"/>
-      <c r="S44" s="111"/>
+      <c r="S44" s="123"/>
       <c r="T44" s="72"/>
       <c r="U44" s="72"/>
       <c r="V44" s="72"/>
@@ -6790,7 +6788,7 @@
       <c r="AU44" s="72"/>
       <c r="AV44" s="72"/>
       <c r="AW44" s="72"/>
-      <c r="AX44" s="103"/>
+      <c r="AX44" s="100"/>
       <c r="AY44" s="72"/>
       <c r="AZ44" s="72"/>
       <c r="BA44" s="72"/>
@@ -6799,13 +6797,13 @@
       <c r="BD44" s="72"/>
       <c r="BE44" s="72"/>
       <c r="BF44" s="29"/>
-      <c r="BG44" s="105"/>
+      <c r="BG44" s="175"/>
     </row>
     <row r="45" spans="1:59" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="84" t="s">
         <v>92</v>
       </c>
-      <c r="B45" s="106"/>
+      <c r="B45" s="176"/>
       <c r="C45" s="31"/>
       <c r="D45" s="21" t="s">
         <v>163</v>
@@ -6826,8 +6824,8 @@
         <v>194</v>
       </c>
       <c r="K45" s="85"/>
-      <c r="L45" s="103"/>
-      <c r="M45" s="112"/>
+      <c r="L45" s="100"/>
+      <c r="M45" s="155"/>
       <c r="N45" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Participant #29</v>
@@ -6836,7 +6834,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="P45" s="159" t="s">
+      <c r="P45" s="125" t="s">
         <v>45</v>
       </c>
       <c r="Q45" s="7" t="str" cm="1">
@@ -6844,7 +6842,7 @@
         <v>-</v>
       </c>
       <c r="R45" s="3"/>
-      <c r="S45" s="111"/>
+      <c r="S45" s="123"/>
       <c r="T45" s="72"/>
       <c r="U45" s="72"/>
       <c r="V45" s="72"/>
@@ -6875,7 +6873,7 @@
       <c r="AU45" s="72"/>
       <c r="AV45" s="72"/>
       <c r="AW45" s="72"/>
-      <c r="AX45" s="103"/>
+      <c r="AX45" s="100"/>
       <c r="AY45" s="72"/>
       <c r="AZ45" s="72"/>
       <c r="BA45" s="72"/>
@@ -6884,13 +6882,13 @@
       <c r="BD45" s="72"/>
       <c r="BE45" s="72"/>
       <c r="BF45" s="29"/>
-      <c r="BG45" s="105"/>
+      <c r="BG45" s="175"/>
     </row>
     <row r="46" spans="1:59" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="84" t="s">
         <v>93</v>
       </c>
-      <c r="B46" s="106"/>
+      <c r="B46" s="176"/>
       <c r="C46" s="31"/>
       <c r="D46" s="21" t="s">
         <v>164</v>
@@ -6911,8 +6909,8 @@
         <v>194</v>
       </c>
       <c r="K46" s="85"/>
-      <c r="L46" s="103"/>
-      <c r="M46" s="112"/>
+      <c r="L46" s="100"/>
+      <c r="M46" s="155"/>
       <c r="N46" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Participant #30</v>
@@ -6921,13 +6919,13 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="P46" s="114"/>
+      <c r="P46" s="126"/>
       <c r="Q46" s="8" t="str" cm="1">
         <f t="array" ref="Q46">IFERROR(INDEX($N$17:$N$64,SMALL($O$17:$O$64,ROW(B20))),"-")</f>
         <v>-</v>
       </c>
       <c r="R46" s="10"/>
-      <c r="S46" s="111"/>
+      <c r="S46" s="123"/>
       <c r="T46" s="72"/>
       <c r="U46" s="72"/>
       <c r="V46" s="72"/>
@@ -6958,7 +6956,7 @@
       <c r="AU46" s="72"/>
       <c r="AV46" s="72"/>
       <c r="AW46" s="72"/>
-      <c r="AX46" s="103"/>
+      <c r="AX46" s="100"/>
       <c r="AY46" s="72"/>
       <c r="AZ46" s="72"/>
       <c r="BA46" s="72"/>
@@ -6967,13 +6965,13 @@
       <c r="BD46" s="72"/>
       <c r="BE46" s="72"/>
       <c r="BF46" s="29"/>
-      <c r="BG46" s="105"/>
+      <c r="BG46" s="175"/>
     </row>
     <row r="47" spans="1:59" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="84" t="s">
         <v>94</v>
       </c>
-      <c r="B47" s="106"/>
+      <c r="B47" s="176"/>
       <c r="C47" s="31"/>
       <c r="D47" s="21" t="s">
         <v>176</v>
@@ -6994,8 +6992,8 @@
         <v>194</v>
       </c>
       <c r="K47" s="85"/>
-      <c r="L47" s="103"/>
-      <c r="M47" s="112"/>
+      <c r="L47" s="100"/>
+      <c r="M47" s="155"/>
       <c r="N47" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Participant #31</v>
@@ -7004,13 +7002,13 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="P47" s="114"/>
+      <c r="P47" s="126"/>
       <c r="Q47" s="8" t="str" cm="1">
         <f t="array" ref="Q47">IFERROR(INDEX($N$17:$N$64,SMALL($O$17:$O$64,ROW(B32))),"-")</f>
         <v>-</v>
       </c>
       <c r="R47" s="4"/>
-      <c r="S47" s="111"/>
+      <c r="S47" s="123"/>
       <c r="T47" s="72"/>
       <c r="U47" s="72"/>
       <c r="V47" s="72"/>
@@ -7041,7 +7039,7 @@
       <c r="AU47" s="72"/>
       <c r="AV47" s="72"/>
       <c r="AW47" s="72"/>
-      <c r="AX47" s="103"/>
+      <c r="AX47" s="100"/>
       <c r="AY47" s="72"/>
       <c r="AZ47" s="72"/>
       <c r="BA47" s="72"/>
@@ -7050,13 +7048,13 @@
       <c r="BD47" s="72"/>
       <c r="BE47" s="72"/>
       <c r="BF47" s="29"/>
-      <c r="BG47" s="105"/>
+      <c r="BG47" s="175"/>
     </row>
     <row r="48" spans="1:59" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="84" t="s">
         <v>95</v>
       </c>
-      <c r="B48" s="106"/>
+      <c r="B48" s="176"/>
       <c r="C48" s="31"/>
       <c r="D48" s="21" t="s">
         <v>177</v>
@@ -7077,8 +7075,8 @@
         <v>194</v>
       </c>
       <c r="K48" s="85"/>
-      <c r="L48" s="103"/>
-      <c r="M48" s="112"/>
+      <c r="L48" s="100"/>
+      <c r="M48" s="155"/>
       <c r="N48" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Participant #32</v>
@@ -7087,13 +7085,13 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="P48" s="115"/>
+      <c r="P48" s="127"/>
       <c r="Q48" s="9" t="str" cm="1">
         <f t="array" ref="Q48">IFERROR(INDEX($N$17:$N$64,SMALL($O$17:$O$64,ROW(B44))),"-")</f>
         <v>-</v>
       </c>
       <c r="R48" s="4"/>
-      <c r="S48" s="111"/>
+      <c r="S48" s="123"/>
       <c r="T48" s="72"/>
       <c r="U48" s="72"/>
       <c r="V48" s="72"/>
@@ -7124,7 +7122,7 @@
       <c r="AU48" s="72"/>
       <c r="AV48" s="72"/>
       <c r="AW48" s="72"/>
-      <c r="AX48" s="103"/>
+      <c r="AX48" s="100"/>
       <c r="AY48" s="72"/>
       <c r="AZ48" s="72"/>
       <c r="BA48" s="72"/>
@@ -7133,13 +7131,13 @@
       <c r="BD48" s="72"/>
       <c r="BE48" s="72"/>
       <c r="BF48" s="29"/>
-      <c r="BG48" s="105"/>
+      <c r="BG48" s="175"/>
     </row>
     <row r="49" spans="1:59" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="84" t="s">
         <v>96</v>
       </c>
-      <c r="B49" s="106"/>
+      <c r="B49" s="176"/>
       <c r="C49" s="31"/>
       <c r="D49" s="21" t="s">
         <v>178</v>
@@ -7160,8 +7158,8 @@
         <v>194</v>
       </c>
       <c r="K49" s="85"/>
-      <c r="L49" s="103"/>
-      <c r="M49" s="112"/>
+      <c r="L49" s="100"/>
+      <c r="M49" s="155"/>
       <c r="N49" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Participant #33</v>
@@ -7170,7 +7168,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="P49" s="159" t="s">
+      <c r="P49" s="125" t="s">
         <v>48</v>
       </c>
       <c r="Q49" s="7" t="str" cm="1">
@@ -7178,7 +7176,7 @@
         <v>-</v>
       </c>
       <c r="R49" s="3"/>
-      <c r="S49" s="111"/>
+      <c r="S49" s="123"/>
       <c r="T49" s="72"/>
       <c r="U49" s="72"/>
       <c r="V49" s="72"/>
@@ -7209,7 +7207,7 @@
       <c r="AU49" s="72"/>
       <c r="AV49" s="72"/>
       <c r="AW49" s="72"/>
-      <c r="AX49" s="103"/>
+      <c r="AX49" s="100"/>
       <c r="AY49" s="72"/>
       <c r="AZ49" s="72"/>
       <c r="BA49" s="72"/>
@@ -7218,13 +7216,13 @@
       <c r="BD49" s="72"/>
       <c r="BE49" s="72"/>
       <c r="BF49" s="29"/>
-      <c r="BG49" s="105"/>
+      <c r="BG49" s="175"/>
     </row>
     <row r="50" spans="1:59" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="84" t="s">
         <v>97</v>
       </c>
-      <c r="B50" s="106"/>
+      <c r="B50" s="176"/>
       <c r="C50" s="30"/>
       <c r="D50" s="21" t="s">
         <v>179</v>
@@ -7245,8 +7243,8 @@
         <v>194</v>
       </c>
       <c r="K50" s="72"/>
-      <c r="L50" s="103"/>
-      <c r="M50" s="112"/>
+      <c r="L50" s="100"/>
+      <c r="M50" s="155"/>
       <c r="N50" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Participant #34</v>
@@ -7255,13 +7253,13 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="P50" s="114"/>
+      <c r="P50" s="126"/>
       <c r="Q50" s="8" t="str" cm="1">
         <f t="array" ref="Q50">IFERROR(INDEX($N$17:$N$64,SMALL($O$17:$O$64,ROW(B21))),"-")</f>
         <v>-</v>
       </c>
       <c r="R50" s="10"/>
-      <c r="S50" s="111"/>
+      <c r="S50" s="123"/>
       <c r="T50" s="72"/>
       <c r="U50" s="72"/>
       <c r="V50" s="72"/>
@@ -7292,7 +7290,7 @@
       <c r="AU50" s="72"/>
       <c r="AV50" s="72"/>
       <c r="AW50" s="72"/>
-      <c r="AX50" s="103"/>
+      <c r="AX50" s="100"/>
       <c r="AY50" s="72"/>
       <c r="AZ50" s="72"/>
       <c r="BA50" s="72"/>
@@ -7301,13 +7299,13 @@
       <c r="BD50" s="72"/>
       <c r="BE50" s="72"/>
       <c r="BF50" s="29"/>
-      <c r="BG50" s="105"/>
+      <c r="BG50" s="175"/>
     </row>
     <row r="51" spans="1:59" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="84" t="s">
         <v>98</v>
       </c>
-      <c r="B51" s="106"/>
+      <c r="B51" s="176"/>
       <c r="C51" s="30"/>
       <c r="D51" s="21" t="s">
         <v>180</v>
@@ -7328,8 +7326,8 @@
         <v>192</v>
       </c>
       <c r="K51" s="72"/>
-      <c r="L51" s="103"/>
-      <c r="M51" s="112"/>
+      <c r="L51" s="100"/>
+      <c r="M51" s="155"/>
       <c r="N51" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Participant #35</v>
@@ -7338,13 +7336,13 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="P51" s="114"/>
+      <c r="P51" s="126"/>
       <c r="Q51" s="8" t="str" cm="1">
         <f t="array" ref="Q51">IFERROR(INDEX($N$17:$N$64,SMALL($O$17:$O$64,ROW(B33))),"-")</f>
         <v>-</v>
       </c>
       <c r="R51" s="4"/>
-      <c r="S51" s="111"/>
+      <c r="S51" s="123"/>
       <c r="T51" s="72"/>
       <c r="U51" s="72"/>
       <c r="V51" s="72"/>
@@ -7375,7 +7373,7 @@
       <c r="AU51" s="72"/>
       <c r="AV51" s="72"/>
       <c r="AW51" s="72"/>
-      <c r="AX51" s="103"/>
+      <c r="AX51" s="100"/>
       <c r="AY51" s="72"/>
       <c r="AZ51" s="72"/>
       <c r="BA51" s="72"/>
@@ -7384,13 +7382,13 @@
       <c r="BD51" s="72"/>
       <c r="BE51" s="72"/>
       <c r="BF51" s="29"/>
-      <c r="BG51" s="105"/>
+      <c r="BG51" s="175"/>
     </row>
     <row r="52" spans="1:59" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="84" t="s">
         <v>99</v>
       </c>
-      <c r="B52" s="106"/>
+      <c r="B52" s="176"/>
       <c r="C52" s="30"/>
       <c r="D52" s="21" t="s">
         <v>181</v>
@@ -7411,8 +7409,8 @@
         <v>192</v>
       </c>
       <c r="K52" s="72"/>
-      <c r="L52" s="103"/>
-      <c r="M52" s="112"/>
+      <c r="L52" s="100"/>
+      <c r="M52" s="155"/>
       <c r="N52" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Participant #36</v>
@@ -7421,13 +7419,13 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="P52" s="115"/>
+      <c r="P52" s="127"/>
       <c r="Q52" s="9" t="str" cm="1">
         <f t="array" ref="Q52">IFERROR(INDEX($N$17:$N$64,SMALL($O$17:$O$64,ROW(B45))),"-")</f>
         <v>-</v>
       </c>
       <c r="R52" s="4"/>
-      <c r="S52" s="111"/>
+      <c r="S52" s="123"/>
       <c r="T52" s="72"/>
       <c r="U52" s="72"/>
       <c r="V52" s="72"/>
@@ -7458,7 +7456,7 @@
       <c r="AU52" s="72"/>
       <c r="AV52" s="72"/>
       <c r="AW52" s="72"/>
-      <c r="AX52" s="103"/>
+      <c r="AX52" s="100"/>
       <c r="AY52" s="72"/>
       <c r="AZ52" s="72"/>
       <c r="BA52" s="72"/>
@@ -7467,13 +7465,13 @@
       <c r="BD52" s="72"/>
       <c r="BE52" s="72"/>
       <c r="BF52" s="29"/>
-      <c r="BG52" s="105"/>
+      <c r="BG52" s="175"/>
     </row>
     <row r="53" spans="1:59" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="84" t="s">
         <v>100</v>
       </c>
-      <c r="B53" s="106"/>
+      <c r="B53" s="176"/>
       <c r="C53" s="30"/>
       <c r="D53" s="21" t="s">
         <v>182</v>
@@ -7494,8 +7492,8 @@
         <v>192</v>
       </c>
       <c r="K53" s="72"/>
-      <c r="L53" s="103"/>
-      <c r="M53" s="112"/>
+      <c r="L53" s="100"/>
+      <c r="M53" s="155"/>
       <c r="N53" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Participant #37</v>
@@ -7504,7 +7502,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="P53" s="159" t="s">
+      <c r="P53" s="125" t="s">
         <v>47</v>
       </c>
       <c r="Q53" s="7" t="str" cm="1">
@@ -7512,7 +7510,7 @@
         <v>-</v>
       </c>
       <c r="R53" s="3"/>
-      <c r="S53" s="111"/>
+      <c r="S53" s="123"/>
       <c r="T53" s="72"/>
       <c r="U53" s="72"/>
       <c r="V53" s="72"/>
@@ -7543,7 +7541,7 @@
       <c r="AU53" s="72"/>
       <c r="AV53" s="72"/>
       <c r="AW53" s="72"/>
-      <c r="AX53" s="103"/>
+      <c r="AX53" s="100"/>
       <c r="AY53" s="72"/>
       <c r="AZ53" s="72"/>
       <c r="BA53" s="72"/>
@@ -7552,13 +7550,13 @@
       <c r="BD53" s="72"/>
       <c r="BE53" s="72"/>
       <c r="BF53" s="29"/>
-      <c r="BG53" s="105"/>
+      <c r="BG53" s="175"/>
     </row>
     <row r="54" spans="1:59" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="84" t="s">
         <v>101</v>
       </c>
-      <c r="B54" s="106"/>
+      <c r="B54" s="176"/>
       <c r="C54" s="30"/>
       <c r="D54" s="21" t="s">
         <v>183</v>
@@ -7579,8 +7577,8 @@
         <v>192</v>
       </c>
       <c r="K54" s="72"/>
-      <c r="L54" s="103"/>
-      <c r="M54" s="112"/>
+      <c r="L54" s="100"/>
+      <c r="M54" s="155"/>
       <c r="N54" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Participant #38</v>
@@ -7589,13 +7587,13 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="P54" s="114"/>
+      <c r="P54" s="126"/>
       <c r="Q54" s="8" t="str" cm="1">
         <f t="array" ref="Q54">IFERROR(INDEX($N$17:$N$64,SMALL($O$17:$O$64,ROW(B22))),"-")</f>
         <v>-</v>
       </c>
       <c r="R54" s="10"/>
-      <c r="S54" s="111"/>
+      <c r="S54" s="123"/>
       <c r="T54" s="72"/>
       <c r="U54" s="72"/>
       <c r="V54" s="72"/>
@@ -7626,7 +7624,7 @@
       <c r="AU54" s="72"/>
       <c r="AV54" s="72"/>
       <c r="AW54" s="72"/>
-      <c r="AX54" s="103"/>
+      <c r="AX54" s="100"/>
       <c r="AY54" s="72"/>
       <c r="AZ54" s="72"/>
       <c r="BA54" s="72"/>
@@ -7635,13 +7633,13 @@
       <c r="BD54" s="72"/>
       <c r="BE54" s="72"/>
       <c r="BF54" s="29"/>
-      <c r="BG54" s="105"/>
+      <c r="BG54" s="175"/>
     </row>
     <row r="55" spans="1:59" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="84" t="s">
         <v>102</v>
       </c>
-      <c r="B55" s="106"/>
+      <c r="B55" s="176"/>
       <c r="C55" s="30"/>
       <c r="D55" s="21" t="s">
         <v>184</v>
@@ -7662,8 +7660,8 @@
         <v>192</v>
       </c>
       <c r="K55" s="72"/>
-      <c r="L55" s="103"/>
-      <c r="M55" s="112"/>
+      <c r="L55" s="100"/>
+      <c r="M55" s="155"/>
       <c r="N55" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Participant #39</v>
@@ -7672,13 +7670,13 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="P55" s="114"/>
+      <c r="P55" s="126"/>
       <c r="Q55" s="8" t="str" cm="1">
         <f t="array" ref="Q55">IFERROR(INDEX($N$17:$N$64,SMALL($O$17:$O$64,ROW(B34))),"-")</f>
         <v>-</v>
       </c>
       <c r="R55" s="4"/>
-      <c r="S55" s="111"/>
+      <c r="S55" s="123"/>
       <c r="T55" s="72"/>
       <c r="U55" s="72"/>
       <c r="V55" s="72"/>
@@ -7709,7 +7707,7 @@
       <c r="AU55" s="72"/>
       <c r="AV55" s="72"/>
       <c r="AW55" s="72"/>
-      <c r="AX55" s="103"/>
+      <c r="AX55" s="100"/>
       <c r="AY55" s="72"/>
       <c r="AZ55" s="72"/>
       <c r="BA55" s="72"/>
@@ -7718,13 +7716,13 @@
       <c r="BD55" s="72"/>
       <c r="BE55" s="72"/>
       <c r="BF55" s="29"/>
-      <c r="BG55" s="105"/>
+      <c r="BG55" s="175"/>
     </row>
     <row r="56" spans="1:59" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="84" t="s">
         <v>103</v>
       </c>
-      <c r="B56" s="106"/>
+      <c r="B56" s="176"/>
       <c r="C56" s="30"/>
       <c r="D56" s="21" t="s">
         <v>185</v>
@@ -7745,8 +7743,8 @@
         <v>192</v>
       </c>
       <c r="K56" s="72"/>
-      <c r="L56" s="103"/>
-      <c r="M56" s="112"/>
+      <c r="L56" s="100"/>
+      <c r="M56" s="155"/>
       <c r="N56" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Participant #40</v>
@@ -7755,13 +7753,13 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="P56" s="115"/>
+      <c r="P56" s="127"/>
       <c r="Q56" s="9" t="str" cm="1">
         <f t="array" ref="Q56">IFERROR(INDEX($N$17:$N$64,SMALL($O$17:$O$64,ROW(B46))),"-")</f>
         <v>-</v>
       </c>
       <c r="R56" s="4"/>
-      <c r="S56" s="111"/>
+      <c r="S56" s="123"/>
       <c r="T56" s="72"/>
       <c r="U56" s="72"/>
       <c r="V56" s="72"/>
@@ -7792,7 +7790,7 @@
       <c r="AU56" s="72"/>
       <c r="AV56" s="72"/>
       <c r="AW56" s="72"/>
-      <c r="AX56" s="103"/>
+      <c r="AX56" s="100"/>
       <c r="AY56" s="72"/>
       <c r="AZ56" s="72"/>
       <c r="BA56" s="72"/>
@@ -7801,13 +7799,13 @@
       <c r="BD56" s="72"/>
       <c r="BE56" s="72"/>
       <c r="BF56" s="29"/>
-      <c r="BG56" s="105"/>
+      <c r="BG56" s="175"/>
     </row>
     <row r="57" spans="1:59" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="84" t="s">
         <v>104</v>
       </c>
-      <c r="B57" s="106"/>
+      <c r="B57" s="176"/>
       <c r="C57" s="30"/>
       <c r="D57" s="21" t="s">
         <v>186</v>
@@ -7828,8 +7826,8 @@
         <v>193</v>
       </c>
       <c r="K57" s="72"/>
-      <c r="L57" s="103"/>
-      <c r="M57" s="112"/>
+      <c r="L57" s="100"/>
+      <c r="M57" s="155"/>
       <c r="N57" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Participant #41</v>
@@ -7838,7 +7836,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="P57" s="159" t="s">
+      <c r="P57" s="125" t="s">
         <v>55</v>
       </c>
       <c r="Q57" s="7" t="str" cm="1">
@@ -7846,7 +7844,7 @@
         <v>-</v>
       </c>
       <c r="R57" s="3"/>
-      <c r="S57" s="111"/>
+      <c r="S57" s="123"/>
       <c r="T57" s="72"/>
       <c r="U57" s="72"/>
       <c r="V57" s="72"/>
@@ -7877,7 +7875,7 @@
       <c r="AU57" s="72"/>
       <c r="AV57" s="72"/>
       <c r="AW57" s="72"/>
-      <c r="AX57" s="103"/>
+      <c r="AX57" s="100"/>
       <c r="AY57" s="72"/>
       <c r="AZ57" s="72"/>
       <c r="BA57" s="72"/>
@@ -7886,13 +7884,13 @@
       <c r="BD57" s="72"/>
       <c r="BE57" s="72"/>
       <c r="BF57" s="29"/>
-      <c r="BG57" s="105"/>
+      <c r="BG57" s="175"/>
     </row>
     <row r="58" spans="1:59" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="84" t="s">
         <v>105</v>
       </c>
-      <c r="B58" s="106"/>
+      <c r="B58" s="176"/>
       <c r="C58" s="30"/>
       <c r="D58" s="21" t="s">
         <v>187</v>
@@ -7913,8 +7911,8 @@
         <v>193</v>
       </c>
       <c r="K58" s="72"/>
-      <c r="L58" s="103"/>
-      <c r="M58" s="112"/>
+      <c r="L58" s="100"/>
+      <c r="M58" s="155"/>
       <c r="N58" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Participant #42</v>
@@ -7923,13 +7921,13 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="P58" s="114"/>
+      <c r="P58" s="126"/>
       <c r="Q58" s="8" t="str" cm="1">
         <f t="array" ref="Q58">IFERROR(INDEX($N$17:$N$64,SMALL($O$17:$O$64,ROW(B23))),"-")</f>
         <v>-</v>
       </c>
       <c r="R58" s="10"/>
-      <c r="S58" s="111"/>
+      <c r="S58" s="123"/>
       <c r="T58" s="72"/>
       <c r="U58" s="72"/>
       <c r="V58" s="72"/>
@@ -7960,7 +7958,7 @@
       <c r="AU58" s="72"/>
       <c r="AV58" s="72"/>
       <c r="AW58" s="72"/>
-      <c r="AX58" s="103"/>
+      <c r="AX58" s="100"/>
       <c r="AY58" s="72"/>
       <c r="AZ58" s="72"/>
       <c r="BA58" s="72"/>
@@ -7969,13 +7967,13 @@
       <c r="BD58" s="72"/>
       <c r="BE58" s="72"/>
       <c r="BF58" s="29"/>
-      <c r="BG58" s="105"/>
+      <c r="BG58" s="175"/>
     </row>
     <row r="59" spans="1:59" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="84" t="s">
         <v>106</v>
       </c>
-      <c r="B59" s="106"/>
+      <c r="B59" s="176"/>
       <c r="C59" s="30"/>
       <c r="D59" s="21" t="s">
         <v>188</v>
@@ -7996,8 +7994,8 @@
         <v>193</v>
       </c>
       <c r="K59" s="72"/>
-      <c r="L59" s="103"/>
-      <c r="M59" s="112"/>
+      <c r="L59" s="100"/>
+      <c r="M59" s="155"/>
       <c r="N59" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Participant #43</v>
@@ -8006,13 +8004,13 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="P59" s="114"/>
+      <c r="P59" s="126"/>
       <c r="Q59" s="8" t="str" cm="1">
         <f t="array" ref="Q59">IFERROR(INDEX($N$17:$N$64,SMALL($O$17:$O$64,ROW(B35))),"-")</f>
         <v>-</v>
       </c>
       <c r="R59" s="4"/>
-      <c r="S59" s="111"/>
+      <c r="S59" s="123"/>
       <c r="T59" s="72"/>
       <c r="U59" s="72"/>
       <c r="V59" s="72"/>
@@ -8043,7 +8041,7 @@
       <c r="AU59" s="72"/>
       <c r="AV59" s="72"/>
       <c r="AW59" s="72"/>
-      <c r="AX59" s="103"/>
+      <c r="AX59" s="100"/>
       <c r="AY59" s="72"/>
       <c r="AZ59" s="72"/>
       <c r="BA59" s="72"/>
@@ -8052,13 +8050,13 @@
       <c r="BD59" s="72"/>
       <c r="BE59" s="72"/>
       <c r="BF59" s="29"/>
-      <c r="BG59" s="105"/>
+      <c r="BG59" s="175"/>
     </row>
     <row r="60" spans="1:59" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="84" t="s">
         <v>107</v>
       </c>
-      <c r="B60" s="106"/>
+      <c r="B60" s="176"/>
       <c r="C60" s="30"/>
       <c r="D60" s="21" t="s">
         <v>189</v>
@@ -8079,8 +8077,8 @@
         <v>193</v>
       </c>
       <c r="K60" s="72"/>
-      <c r="L60" s="103"/>
-      <c r="M60" s="112"/>
+      <c r="L60" s="100"/>
+      <c r="M60" s="155"/>
       <c r="N60" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Participant #44</v>
@@ -8089,13 +8087,13 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="P60" s="115"/>
+      <c r="P60" s="127"/>
       <c r="Q60" s="9" t="str" cm="1">
         <f t="array" ref="Q60">IFERROR(INDEX($N$17:$N$64,SMALL($O$17:$O$64,ROW(B47))),"-")</f>
         <v>-</v>
       </c>
       <c r="R60" s="4"/>
-      <c r="S60" s="111"/>
+      <c r="S60" s="123"/>
       <c r="T60" s="72"/>
       <c r="U60" s="72"/>
       <c r="V60" s="72"/>
@@ -8126,7 +8124,7 @@
       <c r="AU60" s="72"/>
       <c r="AV60" s="72"/>
       <c r="AW60" s="72"/>
-      <c r="AX60" s="103"/>
+      <c r="AX60" s="100"/>
       <c r="AY60" s="72"/>
       <c r="AZ60" s="72"/>
       <c r="BA60" s="72"/>
@@ -8135,13 +8133,13 @@
       <c r="BD60" s="72"/>
       <c r="BE60" s="72"/>
       <c r="BF60" s="29"/>
-      <c r="BG60" s="105"/>
+      <c r="BG60" s="175"/>
     </row>
     <row r="61" spans="1:59" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="84" t="s">
         <v>108</v>
       </c>
-      <c r="B61" s="106"/>
+      <c r="B61" s="176"/>
       <c r="C61" s="30"/>
       <c r="D61" s="21" t="s">
         <v>190</v>
@@ -8162,8 +8160,8 @@
         <v>193</v>
       </c>
       <c r="K61" s="72"/>
-      <c r="L61" s="103"/>
-      <c r="M61" s="112"/>
+      <c r="L61" s="100"/>
+      <c r="M61" s="155"/>
       <c r="N61" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Participant #45</v>
@@ -8172,7 +8170,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="P61" s="159" t="s">
+      <c r="P61" s="125" t="s">
         <v>56</v>
       </c>
       <c r="Q61" s="7" t="str" cm="1">
@@ -8180,7 +8178,7 @@
         <v>-</v>
       </c>
       <c r="R61" s="3"/>
-      <c r="S61" s="111"/>
+      <c r="S61" s="123"/>
       <c r="T61" s="72"/>
       <c r="U61" s="72"/>
       <c r="V61" s="72"/>
@@ -8211,7 +8209,7 @@
       <c r="AU61" s="72"/>
       <c r="AV61" s="72"/>
       <c r="AW61" s="72"/>
-      <c r="AX61" s="103"/>
+      <c r="AX61" s="100"/>
       <c r="AY61" s="72"/>
       <c r="AZ61" s="72"/>
       <c r="BA61" s="72"/>
@@ -8220,13 +8218,13 @@
       <c r="BD61" s="72"/>
       <c r="BE61" s="72"/>
       <c r="BF61" s="29"/>
-      <c r="BG61" s="105"/>
+      <c r="BG61" s="175"/>
     </row>
     <row r="62" spans="1:59" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="B62" s="106"/>
+      <c r="B62" s="176"/>
       <c r="C62" s="30"/>
       <c r="D62" s="22" t="s">
         <v>191</v>
@@ -8247,8 +8245,8 @@
         <v>193</v>
       </c>
       <c r="K62" s="72"/>
-      <c r="L62" s="103"/>
-      <c r="M62" s="112"/>
+      <c r="L62" s="100"/>
+      <c r="M62" s="155"/>
       <c r="N62" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Participant #46</v>
@@ -8257,13 +8255,13 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="P62" s="114"/>
+      <c r="P62" s="126"/>
       <c r="Q62" s="8" t="str" cm="1">
         <f t="array" ref="Q62">IFERROR(INDEX($N$17:$N$64,SMALL($O$17:$O$64,ROW(B24))),"-")</f>
         <v>-</v>
       </c>
       <c r="R62" s="10"/>
-      <c r="S62" s="111"/>
+      <c r="S62" s="123"/>
       <c r="T62" s="72"/>
       <c r="U62" s="72"/>
       <c r="V62" s="72"/>
@@ -8294,7 +8292,7 @@
       <c r="AU62" s="72"/>
       <c r="AV62" s="72"/>
       <c r="AW62" s="72"/>
-      <c r="AX62" s="103"/>
+      <c r="AX62" s="100"/>
       <c r="AY62" s="72"/>
       <c r="AZ62" s="72"/>
       <c r="BA62" s="72"/>
@@ -8303,13 +8301,13 @@
       <c r="BD62" s="72"/>
       <c r="BE62" s="72"/>
       <c r="BF62" s="29"/>
-      <c r="BG62" s="105"/>
+      <c r="BG62" s="175"/>
     </row>
     <row r="63" spans="1:59" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="84" t="s">
         <v>110</v>
       </c>
-      <c r="B63" s="106"/>
+      <c r="B63" s="176"/>
       <c r="C63" s="30"/>
       <c r="D63" s="72"/>
       <c r="E63" s="81"/>
@@ -8319,8 +8317,8 @@
       <c r="I63" s="82"/>
       <c r="J63" s="82"/>
       <c r="K63" s="72"/>
-      <c r="L63" s="103"/>
-      <c r="M63" s="112"/>
+      <c r="L63" s="100"/>
+      <c r="M63" s="155"/>
       <c r="N63" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Participant #47</v>
@@ -8329,13 +8327,13 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="P63" s="114"/>
+      <c r="P63" s="126"/>
       <c r="Q63" s="8" t="str" cm="1">
         <f t="array" ref="Q63">IFERROR(INDEX($N$17:$N$64,SMALL($O$17:$O$64,ROW(B36))),"-")</f>
         <v>-</v>
       </c>
       <c r="R63" s="4"/>
-      <c r="S63" s="111"/>
+      <c r="S63" s="123"/>
       <c r="T63" s="72"/>
       <c r="U63" s="72"/>
       <c r="V63" s="72"/>
@@ -8366,7 +8364,7 @@
       <c r="AU63" s="72"/>
       <c r="AV63" s="72"/>
       <c r="AW63" s="72"/>
-      <c r="AX63" s="103"/>
+      <c r="AX63" s="100"/>
       <c r="AY63" s="72"/>
       <c r="AZ63" s="72"/>
       <c r="BA63" s="72"/>
@@ -8375,13 +8373,13 @@
       <c r="BD63" s="72"/>
       <c r="BE63" s="72"/>
       <c r="BF63" s="29"/>
-      <c r="BG63" s="105"/>
+      <c r="BG63" s="175"/>
     </row>
     <row r="64" spans="1:59" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="84" t="s">
         <v>111</v>
       </c>
-      <c r="B64" s="106"/>
+      <c r="B64" s="176"/>
       <c r="C64" s="30"/>
       <c r="D64" s="72"/>
       <c r="E64" s="81"/>
@@ -8391,8 +8389,8 @@
       <c r="I64" s="82"/>
       <c r="J64" s="82"/>
       <c r="K64" s="72"/>
-      <c r="L64" s="103"/>
-      <c r="M64" s="158"/>
+      <c r="L64" s="100"/>
+      <c r="M64" s="156"/>
       <c r="N64" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Participant #48</v>
@@ -8401,13 +8399,13 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="P64" s="115"/>
+      <c r="P64" s="127"/>
       <c r="Q64" s="9" t="str" cm="1">
         <f t="array" ref="Q64">IFERROR(INDEX($N$17:$N$64,SMALL($O$17:$O$64,ROW(B48))),"-")</f>
         <v>-</v>
       </c>
       <c r="R64" s="4"/>
-      <c r="S64" s="119"/>
+      <c r="S64" s="124"/>
       <c r="T64" s="72"/>
       <c r="U64" s="72"/>
       <c r="V64" s="72"/>
@@ -8438,7 +8436,7 @@
       <c r="AU64" s="72"/>
       <c r="AV64" s="72"/>
       <c r="AW64" s="72"/>
-      <c r="AX64" s="103"/>
+      <c r="AX64" s="100"/>
       <c r="AY64" s="72"/>
       <c r="AZ64" s="72"/>
       <c r="BA64" s="72"/>
@@ -8447,13 +8445,13 @@
       <c r="BD64" s="72"/>
       <c r="BE64" s="72"/>
       <c r="BF64" s="29"/>
-      <c r="BG64" s="105"/>
+      <c r="BG64" s="175"/>
     </row>
     <row r="65" spans="1:59" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="84" t="s">
         <v>112</v>
       </c>
-      <c r="B65" s="106"/>
+      <c r="B65" s="176"/>
       <c r="C65" s="30"/>
       <c r="D65" s="72"/>
       <c r="E65" s="81"/>
@@ -8463,14 +8461,14 @@
       <c r="I65" s="82"/>
       <c r="J65" s="82"/>
       <c r="K65" s="72"/>
-      <c r="L65" s="103"/>
-      <c r="M65" s="107"/>
-      <c r="N65" s="107"/>
-      <c r="O65" s="107"/>
-      <c r="P65" s="107"/>
-      <c r="Q65" s="113"/>
-      <c r="R65" s="107"/>
-      <c r="S65" s="108"/>
+      <c r="L65" s="100"/>
+      <c r="M65" s="110"/>
+      <c r="N65" s="110"/>
+      <c r="O65" s="110"/>
+      <c r="P65" s="110"/>
+      <c r="Q65" s="157"/>
+      <c r="R65" s="110"/>
+      <c r="S65" s="111"/>
       <c r="T65" s="72"/>
       <c r="U65" s="72"/>
       <c r="V65" s="72"/>
@@ -8501,7 +8499,7 @@
       <c r="AU65" s="72"/>
       <c r="AV65" s="72"/>
       <c r="AW65" s="72"/>
-      <c r="AX65" s="103"/>
+      <c r="AX65" s="100"/>
       <c r="AY65" s="72"/>
       <c r="AZ65" s="72"/>
       <c r="BA65" s="72"/>
@@ -8510,13 +8508,13 @@
       <c r="BD65" s="72"/>
       <c r="BE65" s="72"/>
       <c r="BF65" s="29"/>
-      <c r="BG65" s="105"/>
+      <c r="BG65" s="175"/>
     </row>
     <row r="66" spans="1:59" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="84" t="s">
         <v>113</v>
       </c>
-      <c r="B66" s="106"/>
+      <c r="B66" s="176"/>
       <c r="C66" s="30"/>
       <c r="D66" s="72"/>
       <c r="E66" s="81"/>
@@ -8526,7 +8524,7 @@
       <c r="I66" s="82"/>
       <c r="J66" s="82"/>
       <c r="K66" s="72"/>
-      <c r="L66" s="103"/>
+      <c r="L66" s="100"/>
       <c r="M66" s="72"/>
       <c r="N66" s="72"/>
       <c r="O66" s="72"/>
@@ -8564,7 +8562,7 @@
       <c r="AU66" s="72"/>
       <c r="AV66" s="72"/>
       <c r="AW66" s="72"/>
-      <c r="AX66" s="103"/>
+      <c r="AX66" s="100"/>
       <c r="AY66" s="72"/>
       <c r="AZ66" s="72"/>
       <c r="BA66" s="72"/>
@@ -8573,13 +8571,13 @@
       <c r="BD66" s="72"/>
       <c r="BE66" s="72"/>
       <c r="BF66" s="29"/>
-      <c r="BG66" s="105"/>
+      <c r="BG66" s="175"/>
     </row>
     <row r="67" spans="1:59" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="84" t="s">
         <v>114</v>
       </c>
-      <c r="B67" s="106"/>
+      <c r="B67" s="176"/>
       <c r="C67" s="30"/>
       <c r="D67" s="72"/>
       <c r="E67" s="81"/>
@@ -8589,7 +8587,7 @@
       <c r="I67" s="82"/>
       <c r="J67" s="82"/>
       <c r="K67" s="72"/>
-      <c r="L67" s="103"/>
+      <c r="L67" s="100"/>
       <c r="M67" s="72"/>
       <c r="N67" s="72"/>
       <c r="O67" s="72"/>
@@ -8627,7 +8625,7 @@
       <c r="AU67" s="72"/>
       <c r="AV67" s="72"/>
       <c r="AW67" s="72"/>
-      <c r="AX67" s="103"/>
+      <c r="AX67" s="100"/>
       <c r="AY67" s="72"/>
       <c r="AZ67" s="72"/>
       <c r="BA67" s="72"/>
@@ -8636,13 +8634,13 @@
       <c r="BD67" s="72"/>
       <c r="BE67" s="72"/>
       <c r="BF67" s="29"/>
-      <c r="BG67" s="105"/>
+      <c r="BG67" s="175"/>
     </row>
     <row r="68" spans="1:59" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="84" t="s">
         <v>115</v>
       </c>
-      <c r="B68" s="106"/>
+      <c r="B68" s="176"/>
       <c r="C68" s="30"/>
       <c r="D68" s="72"/>
       <c r="E68" s="81"/>
@@ -8652,47 +8650,47 @@
       <c r="I68" s="82"/>
       <c r="J68" s="82"/>
       <c r="K68" s="72"/>
-      <c r="L68" s="103"/>
-      <c r="M68" s="160" t="s">
+      <c r="L68" s="100"/>
+      <c r="M68" s="130" t="s">
         <v>41</v>
       </c>
-      <c r="N68" s="160"/>
-      <c r="O68" s="160"/>
-      <c r="P68" s="160"/>
-      <c r="Q68" s="160"/>
-      <c r="R68" s="160"/>
-      <c r="S68" s="160"/>
-      <c r="T68" s="160"/>
-      <c r="U68" s="160"/>
-      <c r="V68" s="160"/>
-      <c r="W68" s="160"/>
-      <c r="X68" s="160"/>
-      <c r="Y68" s="160"/>
-      <c r="Z68" s="160"/>
-      <c r="AA68" s="160"/>
-      <c r="AB68" s="160"/>
-      <c r="AC68" s="160"/>
-      <c r="AD68" s="160"/>
-      <c r="AE68" s="160"/>
-      <c r="AF68" s="160"/>
-      <c r="AG68" s="160"/>
-      <c r="AH68" s="160"/>
-      <c r="AI68" s="160"/>
-      <c r="AJ68" s="160"/>
-      <c r="AK68" s="160"/>
-      <c r="AL68" s="160"/>
-      <c r="AM68" s="160"/>
-      <c r="AN68" s="160"/>
-      <c r="AO68" s="160"/>
-      <c r="AP68" s="160"/>
-      <c r="AQ68" s="160"/>
-      <c r="AR68" s="160"/>
-      <c r="AS68" s="160"/>
-      <c r="AT68" s="160"/>
-      <c r="AU68" s="160"/>
-      <c r="AV68" s="160"/>
-      <c r="AW68" s="161"/>
-      <c r="AX68" s="103"/>
+      <c r="N68" s="130"/>
+      <c r="O68" s="130"/>
+      <c r="P68" s="130"/>
+      <c r="Q68" s="130"/>
+      <c r="R68" s="130"/>
+      <c r="S68" s="130"/>
+      <c r="T68" s="130"/>
+      <c r="U68" s="130"/>
+      <c r="V68" s="130"/>
+      <c r="W68" s="130"/>
+      <c r="X68" s="130"/>
+      <c r="Y68" s="130"/>
+      <c r="Z68" s="130"/>
+      <c r="AA68" s="130"/>
+      <c r="AB68" s="130"/>
+      <c r="AC68" s="130"/>
+      <c r="AD68" s="130"/>
+      <c r="AE68" s="130"/>
+      <c r="AF68" s="130"/>
+      <c r="AG68" s="130"/>
+      <c r="AH68" s="130"/>
+      <c r="AI68" s="130"/>
+      <c r="AJ68" s="130"/>
+      <c r="AK68" s="130"/>
+      <c r="AL68" s="130"/>
+      <c r="AM68" s="130"/>
+      <c r="AN68" s="130"/>
+      <c r="AO68" s="130"/>
+      <c r="AP68" s="130"/>
+      <c r="AQ68" s="130"/>
+      <c r="AR68" s="130"/>
+      <c r="AS68" s="130"/>
+      <c r="AT68" s="130"/>
+      <c r="AU68" s="130"/>
+      <c r="AV68" s="130"/>
+      <c r="AW68" s="131"/>
+      <c r="AX68" s="100"/>
       <c r="AY68" s="72"/>
       <c r="AZ68" s="72"/>
       <c r="BA68" s="72"/>
@@ -8701,13 +8699,13 @@
       <c r="BD68" s="72"/>
       <c r="BE68" s="72"/>
       <c r="BF68" s="29"/>
-      <c r="BG68" s="105"/>
+      <c r="BG68" s="175"/>
     </row>
     <row r="69" spans="1:59" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="84" t="s">
         <v>116</v>
       </c>
-      <c r="B69" s="106"/>
+      <c r="B69" s="176"/>
       <c r="C69" s="30"/>
       <c r="D69" s="72"/>
       <c r="E69" s="81"/>
@@ -8717,45 +8715,45 @@
       <c r="I69" s="82"/>
       <c r="J69" s="82"/>
       <c r="K69" s="72"/>
-      <c r="L69" s="103"/>
-      <c r="M69" s="162"/>
-      <c r="N69" s="162"/>
-      <c r="O69" s="162"/>
-      <c r="P69" s="162"/>
-      <c r="Q69" s="162"/>
-      <c r="R69" s="162"/>
-      <c r="S69" s="162"/>
-      <c r="T69" s="162"/>
-      <c r="U69" s="162"/>
-      <c r="V69" s="162"/>
-      <c r="W69" s="162"/>
-      <c r="X69" s="162"/>
-      <c r="Y69" s="162"/>
-      <c r="Z69" s="162"/>
-      <c r="AA69" s="162"/>
-      <c r="AB69" s="162"/>
-      <c r="AC69" s="162"/>
-      <c r="AD69" s="162"/>
-      <c r="AE69" s="162"/>
-      <c r="AF69" s="162"/>
-      <c r="AG69" s="162"/>
-      <c r="AH69" s="162"/>
-      <c r="AI69" s="162"/>
-      <c r="AJ69" s="162"/>
-      <c r="AK69" s="162"/>
-      <c r="AL69" s="162"/>
-      <c r="AM69" s="162"/>
-      <c r="AN69" s="162"/>
-      <c r="AO69" s="162"/>
-      <c r="AP69" s="162"/>
-      <c r="AQ69" s="162"/>
-      <c r="AR69" s="162"/>
-      <c r="AS69" s="162"/>
-      <c r="AT69" s="162"/>
-      <c r="AU69" s="162"/>
-      <c r="AV69" s="162"/>
-      <c r="AW69" s="163"/>
-      <c r="AX69" s="103"/>
+      <c r="L69" s="100"/>
+      <c r="M69" s="132"/>
+      <c r="N69" s="132"/>
+      <c r="O69" s="132"/>
+      <c r="P69" s="132"/>
+      <c r="Q69" s="132"/>
+      <c r="R69" s="132"/>
+      <c r="S69" s="132"/>
+      <c r="T69" s="132"/>
+      <c r="U69" s="132"/>
+      <c r="V69" s="132"/>
+      <c r="W69" s="132"/>
+      <c r="X69" s="132"/>
+      <c r="Y69" s="132"/>
+      <c r="Z69" s="132"/>
+      <c r="AA69" s="132"/>
+      <c r="AB69" s="132"/>
+      <c r="AC69" s="132"/>
+      <c r="AD69" s="132"/>
+      <c r="AE69" s="132"/>
+      <c r="AF69" s="132"/>
+      <c r="AG69" s="132"/>
+      <c r="AH69" s="132"/>
+      <c r="AI69" s="132"/>
+      <c r="AJ69" s="132"/>
+      <c r="AK69" s="132"/>
+      <c r="AL69" s="132"/>
+      <c r="AM69" s="132"/>
+      <c r="AN69" s="132"/>
+      <c r="AO69" s="132"/>
+      <c r="AP69" s="132"/>
+      <c r="AQ69" s="132"/>
+      <c r="AR69" s="132"/>
+      <c r="AS69" s="132"/>
+      <c r="AT69" s="132"/>
+      <c r="AU69" s="132"/>
+      <c r="AV69" s="132"/>
+      <c r="AW69" s="133"/>
+      <c r="AX69" s="100"/>
       <c r="AY69" s="72"/>
       <c r="AZ69" s="72"/>
       <c r="BA69" s="72"/>
@@ -8764,13 +8762,13 @@
       <c r="BD69" s="72"/>
       <c r="BE69" s="72"/>
       <c r="BF69" s="29"/>
-      <c r="BG69" s="105"/>
+      <c r="BG69" s="175"/>
     </row>
     <row r="70" spans="1:59" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="84" t="s">
         <v>117</v>
       </c>
-      <c r="B70" s="106"/>
+      <c r="B70" s="176"/>
       <c r="C70" s="30"/>
       <c r="D70" s="72"/>
       <c r="E70" s="81"/>
@@ -8780,45 +8778,45 @@
       <c r="I70" s="82"/>
       <c r="J70" s="82"/>
       <c r="K70" s="72"/>
-      <c r="L70" s="103"/>
-      <c r="M70" s="164"/>
-      <c r="N70" s="164"/>
-      <c r="O70" s="164"/>
-      <c r="P70" s="164"/>
-      <c r="Q70" s="164"/>
-      <c r="R70" s="164"/>
-      <c r="S70" s="164"/>
-      <c r="T70" s="164"/>
-      <c r="U70" s="164"/>
-      <c r="V70" s="164"/>
-      <c r="W70" s="164"/>
-      <c r="X70" s="164"/>
-      <c r="Y70" s="164"/>
-      <c r="Z70" s="164"/>
-      <c r="AA70" s="164"/>
-      <c r="AB70" s="164"/>
-      <c r="AC70" s="164"/>
-      <c r="AD70" s="164"/>
-      <c r="AE70" s="164"/>
-      <c r="AF70" s="164"/>
-      <c r="AG70" s="164"/>
-      <c r="AH70" s="164"/>
-      <c r="AI70" s="164"/>
-      <c r="AJ70" s="164"/>
-      <c r="AK70" s="164"/>
-      <c r="AL70" s="164"/>
-      <c r="AM70" s="164"/>
-      <c r="AN70" s="164"/>
-      <c r="AO70" s="164"/>
-      <c r="AP70" s="164"/>
-      <c r="AQ70" s="164"/>
-      <c r="AR70" s="164"/>
-      <c r="AS70" s="164"/>
-      <c r="AT70" s="164"/>
-      <c r="AU70" s="164"/>
-      <c r="AV70" s="164"/>
-      <c r="AW70" s="165"/>
-      <c r="AX70" s="103"/>
+      <c r="L70" s="100"/>
+      <c r="M70" s="134"/>
+      <c r="N70" s="134"/>
+      <c r="O70" s="134"/>
+      <c r="P70" s="134"/>
+      <c r="Q70" s="134"/>
+      <c r="R70" s="134"/>
+      <c r="S70" s="134"/>
+      <c r="T70" s="134"/>
+      <c r="U70" s="134"/>
+      <c r="V70" s="134"/>
+      <c r="W70" s="134"/>
+      <c r="X70" s="134"/>
+      <c r="Y70" s="134"/>
+      <c r="Z70" s="134"/>
+      <c r="AA70" s="134"/>
+      <c r="AB70" s="134"/>
+      <c r="AC70" s="134"/>
+      <c r="AD70" s="134"/>
+      <c r="AE70" s="134"/>
+      <c r="AF70" s="134"/>
+      <c r="AG70" s="134"/>
+      <c r="AH70" s="134"/>
+      <c r="AI70" s="134"/>
+      <c r="AJ70" s="134"/>
+      <c r="AK70" s="134"/>
+      <c r="AL70" s="134"/>
+      <c r="AM70" s="134"/>
+      <c r="AN70" s="134"/>
+      <c r="AO70" s="134"/>
+      <c r="AP70" s="134"/>
+      <c r="AQ70" s="134"/>
+      <c r="AR70" s="134"/>
+      <c r="AS70" s="134"/>
+      <c r="AT70" s="134"/>
+      <c r="AU70" s="134"/>
+      <c r="AV70" s="134"/>
+      <c r="AW70" s="135"/>
+      <c r="AX70" s="100"/>
       <c r="AY70" s="72"/>
       <c r="AZ70" s="72"/>
       <c r="BA70" s="72"/>
@@ -8827,13 +8825,13 @@
       <c r="BD70" s="72"/>
       <c r="BE70" s="72"/>
       <c r="BF70" s="29"/>
-      <c r="BG70" s="105"/>
+      <c r="BG70" s="175"/>
     </row>
     <row r="71" spans="1:59" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="84" t="s">
         <v>118</v>
       </c>
-      <c r="B71" s="106"/>
+      <c r="B71" s="176"/>
       <c r="C71" s="30"/>
       <c r="D71" s="72"/>
       <c r="E71" s="81"/>
@@ -8843,7 +8841,7 @@
       <c r="I71" s="82"/>
       <c r="J71" s="82"/>
       <c r="K71" s="72"/>
-      <c r="L71" s="103"/>
+      <c r="L71" s="100"/>
       <c r="M71" s="72"/>
       <c r="N71" s="72"/>
       <c r="O71" s="72"/>
@@ -8881,7 +8879,7 @@
       <c r="AU71" s="72"/>
       <c r="AV71" s="72"/>
       <c r="AW71" s="72"/>
-      <c r="AX71" s="103"/>
+      <c r="AX71" s="100"/>
       <c r="AY71" s="72"/>
       <c r="AZ71" s="72"/>
       <c r="BA71" s="72"/>
@@ -8890,13 +8888,13 @@
       <c r="BD71" s="72"/>
       <c r="BE71" s="72"/>
       <c r="BF71" s="29"/>
-      <c r="BG71" s="105"/>
+      <c r="BG71" s="175"/>
     </row>
     <row r="72" spans="1:59" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="84" t="s">
         <v>119</v>
       </c>
-      <c r="B72" s="106"/>
+      <c r="B72" s="176"/>
       <c r="C72" s="30"/>
       <c r="D72" s="72"/>
       <c r="E72" s="81"/>
@@ -8906,7 +8904,7 @@
       <c r="I72" s="82"/>
       <c r="J72" s="82"/>
       <c r="K72" s="72"/>
-      <c r="L72" s="103"/>
+      <c r="L72" s="100"/>
       <c r="M72" s="72"/>
       <c r="N72" s="72"/>
       <c r="O72" s="72"/>
@@ -8944,7 +8942,7 @@
       <c r="AU72" s="72"/>
       <c r="AV72" s="72"/>
       <c r="AW72" s="72"/>
-      <c r="AX72" s="103"/>
+      <c r="AX72" s="100"/>
       <c r="AY72" s="72"/>
       <c r="AZ72" s="72"/>
       <c r="BA72" s="72"/>
@@ -8953,13 +8951,13 @@
       <c r="BD72" s="72"/>
       <c r="BE72" s="72"/>
       <c r="BF72" s="29"/>
-      <c r="BG72" s="105"/>
+      <c r="BG72" s="175"/>
     </row>
     <row r="73" spans="1:59" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="84" t="s">
         <v>137</v>
       </c>
-      <c r="B73" s="106"/>
+      <c r="B73" s="176"/>
       <c r="C73" s="30"/>
       <c r="D73" s="72"/>
       <c r="E73" s="81"/>
@@ -8969,57 +8967,57 @@
       <c r="I73" s="82"/>
       <c r="J73" s="82"/>
       <c r="K73" s="72"/>
-      <c r="L73" s="103"/>
-      <c r="M73" s="121" t="s">
+      <c r="L73" s="100"/>
+      <c r="M73" s="137" t="s">
         <v>42</v>
       </c>
-      <c r="N73" s="121"/>
-      <c r="O73" s="121"/>
-      <c r="P73" s="121"/>
-      <c r="Q73" s="121"/>
-      <c r="R73" s="121"/>
-      <c r="S73" s="122"/>
+      <c r="N73" s="137"/>
+      <c r="O73" s="137"/>
+      <c r="P73" s="137"/>
+      <c r="Q73" s="137"/>
+      <c r="R73" s="137"/>
+      <c r="S73" s="138"/>
       <c r="T73" s="78"/>
-      <c r="U73" s="120" t="s">
+      <c r="U73" s="136" t="s">
         <v>46</v>
       </c>
-      <c r="V73" s="121"/>
-      <c r="W73" s="121"/>
-      <c r="X73" s="121"/>
-      <c r="Y73" s="122"/>
+      <c r="V73" s="137"/>
+      <c r="W73" s="137"/>
+      <c r="X73" s="137"/>
+      <c r="Y73" s="138"/>
       <c r="Z73" s="78"/>
-      <c r="AA73" s="120" t="s">
+      <c r="AA73" s="136" t="s">
         <v>156</v>
       </c>
-      <c r="AB73" s="121"/>
-      <c r="AC73" s="121"/>
-      <c r="AD73" s="121"/>
-      <c r="AE73" s="122"/>
+      <c r="AB73" s="137"/>
+      <c r="AC73" s="137"/>
+      <c r="AD73" s="137"/>
+      <c r="AE73" s="138"/>
       <c r="AF73" s="72"/>
-      <c r="AG73" s="120" t="s">
+      <c r="AG73" s="136" t="s">
         <v>166</v>
       </c>
-      <c r="AH73" s="121"/>
-      <c r="AI73" s="121"/>
-      <c r="AJ73" s="121"/>
-      <c r="AK73" s="122"/>
+      <c r="AH73" s="137"/>
+      <c r="AI73" s="137"/>
+      <c r="AJ73" s="137"/>
+      <c r="AK73" s="138"/>
       <c r="AL73" s="72"/>
-      <c r="AM73" s="120" t="s">
+      <c r="AM73" s="136" t="s">
         <v>216</v>
       </c>
-      <c r="AN73" s="121"/>
-      <c r="AO73" s="121"/>
-      <c r="AP73" s="121"/>
-      <c r="AQ73" s="122"/>
+      <c r="AN73" s="137"/>
+      <c r="AO73" s="137"/>
+      <c r="AP73" s="137"/>
+      <c r="AQ73" s="138"/>
       <c r="AR73" s="72"/>
-      <c r="AS73" s="120" t="s">
+      <c r="AS73" s="136" t="s">
         <v>49</v>
       </c>
-      <c r="AT73" s="121"/>
-      <c r="AU73" s="121"/>
-      <c r="AV73" s="121"/>
-      <c r="AW73" s="121"/>
-      <c r="AX73" s="103"/>
+      <c r="AT73" s="137"/>
+      <c r="AU73" s="137"/>
+      <c r="AV73" s="137"/>
+      <c r="AW73" s="137"/>
+      <c r="AX73" s="100"/>
       <c r="AY73" s="72"/>
       <c r="AZ73" s="72"/>
       <c r="BA73" s="72"/>
@@ -9028,13 +9026,13 @@
       <c r="BD73" s="72"/>
       <c r="BE73" s="72"/>
       <c r="BF73" s="29"/>
-      <c r="BG73" s="105"/>
+      <c r="BG73" s="175"/>
     </row>
     <row r="74" spans="1:59" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="84" t="s">
         <v>120</v>
       </c>
-      <c r="B74" s="106"/>
+      <c r="B74" s="176"/>
       <c r="C74" s="30"/>
       <c r="D74" s="72"/>
       <c r="E74" s="81"/>
@@ -9044,45 +9042,45 @@
       <c r="I74" s="82"/>
       <c r="J74" s="82"/>
       <c r="K74" s="72"/>
-      <c r="L74" s="103"/>
-      <c r="M74" s="124"/>
-      <c r="N74" s="124"/>
-      <c r="O74" s="124"/>
-      <c r="P74" s="124"/>
-      <c r="Q74" s="124"/>
-      <c r="R74" s="124"/>
-      <c r="S74" s="125"/>
+      <c r="L74" s="100"/>
+      <c r="M74" s="140"/>
+      <c r="N74" s="140"/>
+      <c r="O74" s="140"/>
+      <c r="P74" s="140"/>
+      <c r="Q74" s="140"/>
+      <c r="R74" s="140"/>
+      <c r="S74" s="141"/>
       <c r="T74" s="78"/>
-      <c r="U74" s="123"/>
-      <c r="V74" s="124"/>
-      <c r="W74" s="124"/>
-      <c r="X74" s="124"/>
-      <c r="Y74" s="125"/>
+      <c r="U74" s="139"/>
+      <c r="V74" s="140"/>
+      <c r="W74" s="140"/>
+      <c r="X74" s="140"/>
+      <c r="Y74" s="141"/>
       <c r="Z74" s="78"/>
-      <c r="AA74" s="123"/>
-      <c r="AB74" s="124"/>
-      <c r="AC74" s="124"/>
-      <c r="AD74" s="124"/>
-      <c r="AE74" s="125"/>
+      <c r="AA74" s="139"/>
+      <c r="AB74" s="140"/>
+      <c r="AC74" s="140"/>
+      <c r="AD74" s="140"/>
+      <c r="AE74" s="141"/>
       <c r="AF74" s="72"/>
-      <c r="AG74" s="123"/>
-      <c r="AH74" s="124"/>
-      <c r="AI74" s="124"/>
-      <c r="AJ74" s="124"/>
-      <c r="AK74" s="125"/>
+      <c r="AG74" s="139"/>
+      <c r="AH74" s="140"/>
+      <c r="AI74" s="140"/>
+      <c r="AJ74" s="140"/>
+      <c r="AK74" s="141"/>
       <c r="AL74" s="72"/>
-      <c r="AM74" s="123"/>
-      <c r="AN74" s="124"/>
-      <c r="AO74" s="124"/>
-      <c r="AP74" s="124"/>
-      <c r="AQ74" s="125"/>
+      <c r="AM74" s="139"/>
+      <c r="AN74" s="140"/>
+      <c r="AO74" s="140"/>
+      <c r="AP74" s="140"/>
+      <c r="AQ74" s="141"/>
       <c r="AR74" s="72"/>
-      <c r="AS74" s="123"/>
-      <c r="AT74" s="124"/>
-      <c r="AU74" s="124"/>
-      <c r="AV74" s="124"/>
-      <c r="AW74" s="124"/>
-      <c r="AX74" s="103"/>
+      <c r="AS74" s="139"/>
+      <c r="AT74" s="140"/>
+      <c r="AU74" s="140"/>
+      <c r="AV74" s="140"/>
+      <c r="AW74" s="140"/>
+      <c r="AX74" s="100"/>
       <c r="AY74" s="72"/>
       <c r="AZ74" s="72"/>
       <c r="BA74" s="72"/>
@@ -9091,13 +9089,13 @@
       <c r="BD74" s="72"/>
       <c r="BE74" s="72"/>
       <c r="BF74" s="29"/>
-      <c r="BG74" s="105"/>
+      <c r="BG74" s="175"/>
     </row>
     <row r="75" spans="1:59" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="84" t="s">
         <v>121</v>
       </c>
-      <c r="B75" s="106"/>
+      <c r="B75" s="176"/>
       <c r="C75" s="30"/>
       <c r="D75" s="72"/>
       <c r="E75" s="81"/>
@@ -9107,45 +9105,45 @@
       <c r="I75" s="82"/>
       <c r="J75" s="82"/>
       <c r="K75" s="72"/>
-      <c r="L75" s="103"/>
-      <c r="M75" s="127"/>
-      <c r="N75" s="127"/>
-      <c r="O75" s="127"/>
-      <c r="P75" s="127"/>
-      <c r="Q75" s="127"/>
-      <c r="R75" s="127"/>
-      <c r="S75" s="128"/>
+      <c r="L75" s="100"/>
+      <c r="M75" s="143"/>
+      <c r="N75" s="143"/>
+      <c r="O75" s="143"/>
+      <c r="P75" s="143"/>
+      <c r="Q75" s="143"/>
+      <c r="R75" s="143"/>
+      <c r="S75" s="144"/>
       <c r="T75" s="78"/>
-      <c r="U75" s="126"/>
-      <c r="V75" s="127"/>
-      <c r="W75" s="127"/>
-      <c r="X75" s="127"/>
-      <c r="Y75" s="128"/>
+      <c r="U75" s="142"/>
+      <c r="V75" s="143"/>
+      <c r="W75" s="143"/>
+      <c r="X75" s="143"/>
+      <c r="Y75" s="144"/>
       <c r="Z75" s="78"/>
-      <c r="AA75" s="126"/>
-      <c r="AB75" s="127"/>
-      <c r="AC75" s="127"/>
-      <c r="AD75" s="127"/>
-      <c r="AE75" s="128"/>
+      <c r="AA75" s="142"/>
+      <c r="AB75" s="143"/>
+      <c r="AC75" s="143"/>
+      <c r="AD75" s="143"/>
+      <c r="AE75" s="144"/>
       <c r="AF75" s="72"/>
-      <c r="AG75" s="126"/>
-      <c r="AH75" s="127"/>
-      <c r="AI75" s="127"/>
-      <c r="AJ75" s="127"/>
-      <c r="AK75" s="128"/>
+      <c r="AG75" s="142"/>
+      <c r="AH75" s="143"/>
+      <c r="AI75" s="143"/>
+      <c r="AJ75" s="143"/>
+      <c r="AK75" s="144"/>
       <c r="AL75" s="72"/>
-      <c r="AM75" s="126"/>
-      <c r="AN75" s="127"/>
-      <c r="AO75" s="127"/>
-      <c r="AP75" s="127"/>
-      <c r="AQ75" s="128"/>
+      <c r="AM75" s="142"/>
+      <c r="AN75" s="143"/>
+      <c r="AO75" s="143"/>
+      <c r="AP75" s="143"/>
+      <c r="AQ75" s="144"/>
       <c r="AR75" s="72"/>
-      <c r="AS75" s="126"/>
-      <c r="AT75" s="127"/>
-      <c r="AU75" s="127"/>
-      <c r="AV75" s="127"/>
-      <c r="AW75" s="127"/>
-      <c r="AX75" s="103"/>
+      <c r="AS75" s="142"/>
+      <c r="AT75" s="143"/>
+      <c r="AU75" s="143"/>
+      <c r="AV75" s="143"/>
+      <c r="AW75" s="143"/>
+      <c r="AX75" s="100"/>
       <c r="AY75" s="72"/>
       <c r="AZ75" s="72"/>
       <c r="BA75" s="72"/>
@@ -9154,13 +9152,13 @@
       <c r="BD75" s="72"/>
       <c r="BE75" s="72"/>
       <c r="BF75" s="29"/>
-      <c r="BG75" s="105"/>
+      <c r="BG75" s="175"/>
     </row>
     <row r="76" spans="1:59" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="84" t="s">
         <v>122</v>
       </c>
-      <c r="B76" s="106"/>
+      <c r="B76" s="176"/>
       <c r="C76" s="30"/>
       <c r="D76" s="72"/>
       <c r="E76" s="81"/>
@@ -9170,32 +9168,32 @@
       <c r="I76" s="82"/>
       <c r="J76" s="82"/>
       <c r="K76" s="72"/>
-      <c r="L76" s="103"/>
-      <c r="M76" s="107"/>
-      <c r="N76" s="107"/>
-      <c r="O76" s="107"/>
-      <c r="P76" s="107"/>
-      <c r="Q76" s="107"/>
-      <c r="R76" s="107"/>
-      <c r="S76" s="108"/>
+      <c r="L76" s="100"/>
+      <c r="M76" s="110"/>
+      <c r="N76" s="110"/>
+      <c r="O76" s="110"/>
+      <c r="P76" s="110"/>
+      <c r="Q76" s="110"/>
+      <c r="R76" s="110"/>
+      <c r="S76" s="111"/>
       <c r="T76" s="72"/>
       <c r="U76" s="109"/>
-      <c r="V76" s="107"/>
-      <c r="W76" s="107"/>
-      <c r="X76" s="107"/>
-      <c r="Y76" s="108"/>
+      <c r="V76" s="110"/>
+      <c r="W76" s="110"/>
+      <c r="X76" s="110"/>
+      <c r="Y76" s="111"/>
       <c r="Z76" s="72"/>
       <c r="AA76" s="109"/>
-      <c r="AB76" s="107"/>
-      <c r="AC76" s="107"/>
-      <c r="AD76" s="107"/>
-      <c r="AE76" s="108"/>
+      <c r="AB76" s="110"/>
+      <c r="AC76" s="110"/>
+      <c r="AD76" s="110"/>
+      <c r="AE76" s="111"/>
       <c r="AF76" s="72"/>
       <c r="AG76" s="109"/>
-      <c r="AH76" s="107"/>
-      <c r="AI76" s="107"/>
-      <c r="AJ76" s="107"/>
-      <c r="AK76" s="108"/>
+      <c r="AH76" s="110"/>
+      <c r="AI76" s="110"/>
+      <c r="AJ76" s="110"/>
+      <c r="AK76" s="111"/>
       <c r="AL76" s="72"/>
       <c r="AM76" s="48"/>
       <c r="AN76" s="46"/>
@@ -9204,11 +9202,11 @@
       <c r="AQ76" s="47"/>
       <c r="AR76" s="72"/>
       <c r="AS76" s="109"/>
-      <c r="AT76" s="107"/>
-      <c r="AU76" s="107"/>
-      <c r="AV76" s="107"/>
-      <c r="AW76" s="107"/>
-      <c r="AX76" s="103"/>
+      <c r="AT76" s="110"/>
+      <c r="AU76" s="110"/>
+      <c r="AV76" s="110"/>
+      <c r="AW76" s="110"/>
+      <c r="AX76" s="100"/>
       <c r="AY76" s="72"/>
       <c r="AZ76" s="72"/>
       <c r="BA76" s="72"/>
@@ -9217,13 +9215,13 @@
       <c r="BD76" s="72"/>
       <c r="BE76" s="72"/>
       <c r="BF76" s="29"/>
-      <c r="BG76" s="105"/>
+      <c r="BG76" s="175"/>
     </row>
     <row r="77" spans="1:59" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="84" t="s">
         <v>123</v>
       </c>
-      <c r="B77" s="106"/>
+      <c r="B77" s="176"/>
       <c r="C77" s="30"/>
       <c r="D77" s="72"/>
       <c r="E77" s="81"/>
@@ -9233,8 +9231,8 @@
       <c r="I77" s="82"/>
       <c r="J77" s="82"/>
       <c r="K77" s="72"/>
-      <c r="L77" s="103"/>
-      <c r="M77" s="157"/>
+      <c r="L77" s="100"/>
+      <c r="M77" s="154"/>
       <c r="P77" s="13">
         <v>4</v>
       </c>
@@ -9242,39 +9240,39 @@
         <v>29</v>
       </c>
       <c r="R77" s="14"/>
-      <c r="S77" s="110"/>
+      <c r="S77" s="122"/>
       <c r="T77" s="72"/>
-      <c r="U77" s="110"/>
+      <c r="U77" s="122"/>
       <c r="V77" s="44">
         <v>4</v>
       </c>
-      <c r="W77" s="129" t="s">
+      <c r="W77" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="X77" s="130"/>
-      <c r="Y77" s="110"/>
+      <c r="X77" s="129"/>
+      <c r="Y77" s="122"/>
       <c r="Z77" s="93"/>
-      <c r="AA77" s="110"/>
+      <c r="AA77" s="122"/>
       <c r="AB77" s="44">
         <v>4</v>
       </c>
-      <c r="AC77" s="129" t="s">
+      <c r="AC77" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="AD77" s="130"/>
-      <c r="AE77" s="110"/>
+      <c r="AD77" s="129"/>
+      <c r="AE77" s="122"/>
       <c r="AF77" s="72"/>
-      <c r="AG77" s="110"/>
+      <c r="AG77" s="122"/>
       <c r="AH77" s="44">
         <v>4</v>
       </c>
-      <c r="AI77" s="129" t="s">
+      <c r="AI77" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="AJ77" s="130"/>
-      <c r="AK77" s="110"/>
+      <c r="AJ77" s="129"/>
+      <c r="AK77" s="122"/>
       <c r="AL77" s="72"/>
-      <c r="AM77" s="110"/>
+      <c r="AM77" s="122"/>
       <c r="AN77" s="2">
         <v>4</v>
       </c>
@@ -9282,18 +9280,18 @@
         <v>29</v>
       </c>
       <c r="AP77" s="49"/>
-      <c r="AQ77" s="110"/>
+      <c r="AQ77" s="122"/>
       <c r="AR77" s="72"/>
       <c r="AS77" s="57"/>
       <c r="AT77" s="2">
         <v>4</v>
       </c>
-      <c r="AU77" s="129" t="s">
+      <c r="AU77" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="AV77" s="130"/>
+      <c r="AV77" s="129"/>
       <c r="AW77" s="54"/>
-      <c r="AX77" s="103"/>
+      <c r="AX77" s="100"/>
       <c r="AY77" s="72"/>
       <c r="AZ77" s="72"/>
       <c r="BA77" s="72"/>
@@ -9302,13 +9300,13 @@
       <c r="BD77" s="72"/>
       <c r="BE77" s="72"/>
       <c r="BF77" s="29"/>
-      <c r="BG77" s="105"/>
+      <c r="BG77" s="175"/>
     </row>
     <row r="78" spans="1:59" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="84" t="s">
         <v>124</v>
       </c>
-      <c r="B78" s="106"/>
+      <c r="B78" s="176"/>
       <c r="C78" s="30"/>
       <c r="D78" s="72"/>
       <c r="E78" s="81"/>
@@ -9318,8 +9316,8 @@
       <c r="I78" s="82"/>
       <c r="J78" s="82"/>
       <c r="K78" s="72"/>
-      <c r="L78" s="103"/>
-      <c r="M78" s="112"/>
+      <c r="L78" s="100"/>
+      <c r="M78" s="155"/>
       <c r="P78" s="1" t="s">
         <v>30</v>
       </c>
@@ -9329,9 +9327,9 @@
       <c r="R78" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="S78" s="111"/>
+      <c r="S78" s="123"/>
       <c r="T78" s="72"/>
-      <c r="U78" s="111"/>
+      <c r="U78" s="123"/>
       <c r="V78" s="45" t="s">
         <v>30</v>
       </c>
@@ -9341,9 +9339,9 @@
       <c r="X78" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Y78" s="111"/>
+      <c r="Y78" s="123"/>
       <c r="Z78" s="81"/>
-      <c r="AA78" s="111"/>
+      <c r="AA78" s="123"/>
       <c r="AB78" s="45" t="s">
         <v>30</v>
       </c>
@@ -9353,9 +9351,9 @@
       <c r="AD78" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="AE78" s="111"/>
+      <c r="AE78" s="123"/>
       <c r="AF78" s="72"/>
-      <c r="AG78" s="111"/>
+      <c r="AG78" s="123"/>
       <c r="AH78" s="45" t="s">
         <v>30</v>
       </c>
@@ -9365,9 +9363,9 @@
       <c r="AJ78" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="AK78" s="111"/>
+      <c r="AK78" s="123"/>
       <c r="AL78" s="72"/>
-      <c r="AM78" s="111"/>
+      <c r="AM78" s="123"/>
       <c r="AN78" s="1" t="s">
         <v>30</v>
       </c>
@@ -9377,7 +9375,7 @@
       <c r="AP78" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="AQ78" s="111"/>
+      <c r="AQ78" s="123"/>
       <c r="AR78" s="72"/>
       <c r="AS78" s="53"/>
       <c r="AT78" s="1" t="s">
@@ -9390,7 +9388,7 @@
         <v>31</v>
       </c>
       <c r="AW78" s="55"/>
-      <c r="AX78" s="103"/>
+      <c r="AX78" s="100"/>
       <c r="AY78" s="72"/>
       <c r="AZ78" s="72"/>
       <c r="BA78" s="72"/>
@@ -9399,13 +9397,13 @@
       <c r="BD78" s="72"/>
       <c r="BE78" s="72"/>
       <c r="BF78" s="29"/>
-      <c r="BG78" s="105"/>
+      <c r="BG78" s="175"/>
     </row>
     <row r="79" spans="1:59" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="84" t="s">
         <v>125</v>
       </c>
-      <c r="B79" s="106"/>
+      <c r="B79" s="176"/>
       <c r="C79" s="30"/>
       <c r="D79" s="72"/>
       <c r="E79" s="81"/>
@@ -9415,9 +9413,9 @@
       <c r="I79" s="82"/>
       <c r="J79" s="82"/>
       <c r="K79" s="72"/>
-      <c r="L79" s="103"/>
-      <c r="M79" s="112"/>
-      <c r="P79" s="116" t="s">
+      <c r="L79" s="100"/>
+      <c r="M79" s="155"/>
+      <c r="P79" s="119" t="s">
         <v>172</v>
       </c>
       <c r="Q79" s="7" t="str">
@@ -9425,10 +9423,10 @@
         <v>A3</v>
       </c>
       <c r="R79" s="41"/>
-      <c r="S79" s="111"/>
+      <c r="S79" s="123"/>
       <c r="T79" s="72"/>
-      <c r="U79" s="111"/>
-      <c r="V79" s="131" t="s">
+      <c r="U79" s="123"/>
+      <c r="V79" s="116" t="s">
         <v>202</v>
       </c>
       <c r="W79" s="7" t="str">
@@ -9436,10 +9434,10 @@
         <v>X1</v>
       </c>
       <c r="X79" s="3"/>
-      <c r="Y79" s="111"/>
+      <c r="Y79" s="123"/>
       <c r="Z79" s="94"/>
-      <c r="AA79" s="111"/>
-      <c r="AB79" s="116" t="s">
+      <c r="AA79" s="123"/>
+      <c r="AB79" s="119" t="s">
         <v>208</v>
       </c>
       <c r="AC79" s="15" t="str">
@@ -9447,10 +9445,10 @@
         <v>AD1</v>
       </c>
       <c r="AD79" s="59"/>
-      <c r="AE79" s="111"/>
+      <c r="AE79" s="123"/>
       <c r="AF79" s="72"/>
-      <c r="AG79" s="111"/>
-      <c r="AH79" s="116" t="s">
+      <c r="AG79" s="123"/>
+      <c r="AH79" s="119" t="s">
         <v>211</v>
       </c>
       <c r="AI79" s="15" t="str">
@@ -9458,10 +9456,10 @@
         <v>AJ1</v>
       </c>
       <c r="AJ79" s="59"/>
-      <c r="AK79" s="111"/>
+      <c r="AK79" s="123"/>
       <c r="AL79" s="72"/>
-      <c r="AM79" s="111"/>
-      <c r="AN79" s="116" t="s">
+      <c r="AM79" s="123"/>
+      <c r="AN79" s="119" t="s">
         <v>214</v>
       </c>
       <c r="AO79" s="7" t="str">
@@ -9469,10 +9467,10 @@
         <v>AO1</v>
       </c>
       <c r="AP79" s="41"/>
-      <c r="AQ79" s="111"/>
+      <c r="AQ79" s="123"/>
       <c r="AR79" s="72"/>
       <c r="AS79" s="53"/>
-      <c r="AT79" s="116" t="s">
+      <c r="AT79" s="119" t="s">
         <v>147</v>
       </c>
       <c r="AU79" s="7" t="str">
@@ -9481,7 +9479,7 @@
       </c>
       <c r="AV79" s="3"/>
       <c r="AW79" s="55"/>
-      <c r="AX79" s="103"/>
+      <c r="AX79" s="100"/>
       <c r="AY79" s="72"/>
       <c r="AZ79" s="72"/>
       <c r="BA79" s="72"/>
@@ -9490,13 +9488,13 @@
       <c r="BD79" s="72"/>
       <c r="BE79" s="72"/>
       <c r="BF79" s="29"/>
-      <c r="BG79" s="105"/>
+      <c r="BG79" s="175"/>
     </row>
     <row r="80" spans="1:59" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="84" t="s">
         <v>126</v>
       </c>
-      <c r="B80" s="106"/>
+      <c r="B80" s="176"/>
       <c r="C80" s="30"/>
       <c r="D80" s="72"/>
       <c r="E80" s="81"/>
@@ -9506,61 +9504,61 @@
       <c r="I80" s="82"/>
       <c r="J80" s="82"/>
       <c r="K80" s="72"/>
-      <c r="L80" s="103"/>
-      <c r="M80" s="112"/>
-      <c r="P80" s="117"/>
+      <c r="L80" s="100"/>
+      <c r="M80" s="155"/>
+      <c r="P80" s="120"/>
       <c r="Q80" s="8" t="str">
         <f>IF(ISBLANK($R$23),"B3",$R$23)</f>
         <v>B3</v>
       </c>
       <c r="R80" s="42"/>
-      <c r="S80" s="111"/>
+      <c r="S80" s="123"/>
       <c r="T80" s="72"/>
-      <c r="U80" s="111"/>
-      <c r="V80" s="132"/>
+      <c r="U80" s="123"/>
+      <c r="V80" s="117"/>
       <c r="W80" s="8" t="str">
         <f>IF(ISBLANK($R$84),"Y2",$R$84)</f>
         <v>Y2</v>
       </c>
       <c r="X80" s="10"/>
-      <c r="Y80" s="111"/>
+      <c r="Y80" s="123"/>
       <c r="Z80" s="94"/>
-      <c r="AA80" s="111"/>
-      <c r="AB80" s="117"/>
+      <c r="AA80" s="123"/>
+      <c r="AB80" s="120"/>
       <c r="AC80" s="16" t="str">
         <f>IF(ISBLANK($X$83),"AE1",$X$83)</f>
         <v>AE1</v>
       </c>
       <c r="AD80" s="60"/>
-      <c r="AE80" s="111"/>
+      <c r="AE80" s="123"/>
       <c r="AF80" s="72"/>
-      <c r="AG80" s="111"/>
-      <c r="AH80" s="117"/>
+      <c r="AG80" s="123"/>
+      <c r="AH80" s="120"/>
       <c r="AI80" s="16" t="str">
         <f>IF(ISBLANK($AD$88),"AL2",$AD$88)</f>
         <v>AL2</v>
       </c>
       <c r="AJ80" s="60"/>
-      <c r="AK80" s="111"/>
+      <c r="AK80" s="123"/>
       <c r="AL80" s="72"/>
-      <c r="AM80" s="111"/>
-      <c r="AN80" s="117"/>
+      <c r="AM80" s="123"/>
+      <c r="AN80" s="120"/>
       <c r="AO80" s="16" t="str">
         <f>IF(ISBLANK($AJ$83),"AP1",$AJ$83)</f>
         <v>AP1</v>
       </c>
       <c r="AP80" s="95"/>
-      <c r="AQ80" s="111"/>
+      <c r="AQ80" s="123"/>
       <c r="AR80" s="72"/>
       <c r="AS80" s="53"/>
-      <c r="AT80" s="117"/>
+      <c r="AT80" s="120"/>
       <c r="AU80" s="8" t="str">
         <f>IF(ISBLANK($AP$83),"AS1",$AP$83)</f>
         <v>AS1</v>
       </c>
       <c r="AV80" s="10"/>
       <c r="AW80" s="55"/>
-      <c r="AX80" s="103"/>
+      <c r="AX80" s="100"/>
       <c r="AY80" s="72"/>
       <c r="AZ80" s="72"/>
       <c r="BA80" s="72"/>
@@ -9569,11 +9567,11 @@
       <c r="BD80" s="72"/>
       <c r="BE80" s="72"/>
       <c r="BF80" s="29"/>
-      <c r="BG80" s="105"/>
+      <c r="BG80" s="175"/>
     </row>
     <row r="81" spans="1:59" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="84"/>
-      <c r="B81" s="106"/>
+      <c r="B81" s="176"/>
       <c r="C81" s="30"/>
       <c r="D81" s="72"/>
       <c r="E81" s="81"/>
@@ -9583,61 +9581,61 @@
       <c r="I81" s="82"/>
       <c r="J81" s="82"/>
       <c r="K81" s="72"/>
-      <c r="L81" s="103"/>
-      <c r="M81" s="112"/>
-      <c r="P81" s="117"/>
+      <c r="L81" s="100"/>
+      <c r="M81" s="155"/>
+      <c r="P81" s="120"/>
       <c r="Q81" s="8" t="str">
         <f>IF(ISBLANK($R$60),"K4",$R$60)</f>
         <v>K4</v>
       </c>
       <c r="R81" s="74"/>
-      <c r="S81" s="111"/>
+      <c r="S81" s="123"/>
       <c r="T81" s="72"/>
-      <c r="U81" s="111"/>
-      <c r="V81" s="132"/>
+      <c r="U81" s="123"/>
+      <c r="V81" s="117"/>
       <c r="W81" s="8" t="str">
         <f>IF(ISBLANK($X$19),"M3",$X$19)</f>
         <v>M3</v>
       </c>
       <c r="X81" s="4"/>
-      <c r="Y81" s="111"/>
+      <c r="Y81" s="123"/>
       <c r="Z81" s="94"/>
-      <c r="AA81" s="111"/>
-      <c r="AB81" s="117"/>
+      <c r="AA81" s="123"/>
+      <c r="AB81" s="120"/>
       <c r="AC81" s="8" t="str">
         <f>IF(ISBLANK($X$88),"AF2",$X$88)</f>
         <v>AF2</v>
       </c>
       <c r="AD81" s="74"/>
-      <c r="AE81" s="111"/>
+      <c r="AE81" s="123"/>
       <c r="AF81" s="72"/>
-      <c r="AG81" s="111"/>
-      <c r="AH81" s="117"/>
+      <c r="AG81" s="123"/>
+      <c r="AH81" s="120"/>
       <c r="AI81" s="8" t="str">
         <f>IF(ISBLANK($AD$19),"S3",$AD$19)</f>
         <v>S3</v>
       </c>
       <c r="AJ81" s="74"/>
-      <c r="AK81" s="111"/>
+      <c r="AK81" s="123"/>
       <c r="AL81" s="72"/>
-      <c r="AM81" s="111"/>
-      <c r="AN81" s="117"/>
+      <c r="AM81" s="123"/>
+      <c r="AN81" s="120"/>
       <c r="AO81" s="8" t="str">
         <f>IF(ISBLANK($AJ$88),"AQ2",$AJ$88)</f>
         <v>AQ2</v>
       </c>
       <c r="AP81" s="74"/>
-      <c r="AQ81" s="111"/>
+      <c r="AQ81" s="123"/>
       <c r="AR81" s="72"/>
       <c r="AS81" s="53"/>
-      <c r="AT81" s="117"/>
+      <c r="AT81" s="120"/>
       <c r="AU81" s="8" t="str">
         <f>IF(ISBLANK($AP$19),"WF3",$AP$19)</f>
         <v>WF3</v>
       </c>
       <c r="AV81" s="4"/>
       <c r="AW81" s="55"/>
-      <c r="AX81" s="103"/>
+      <c r="AX81" s="100"/>
       <c r="AY81" s="72"/>
       <c r="AZ81" s="72"/>
       <c r="BA81" s="72"/>
@@ -9646,11 +9644,11 @@
       <c r="BD81" s="72"/>
       <c r="BE81" s="72"/>
       <c r="BF81" s="29"/>
-      <c r="BG81" s="105"/>
+      <c r="BG81" s="175"/>
     </row>
     <row r="82" spans="1:59" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="84"/>
-      <c r="B82" s="106"/>
+      <c r="B82" s="176"/>
       <c r="C82" s="30"/>
       <c r="D82" s="72"/>
       <c r="E82" s="72"/>
@@ -9660,61 +9658,61 @@
       <c r="I82" s="72"/>
       <c r="J82" s="72"/>
       <c r="K82" s="72"/>
-      <c r="L82" s="103"/>
-      <c r="M82" s="112"/>
-      <c r="P82" s="118"/>
+      <c r="L82" s="100"/>
+      <c r="M82" s="155"/>
+      <c r="P82" s="121"/>
       <c r="Q82" s="8" t="str">
         <f>IF(ISBLANK($R$64),"L4",$R$64)</f>
         <v>L4</v>
       </c>
       <c r="R82" s="43"/>
-      <c r="S82" s="111"/>
+      <c r="S82" s="123"/>
       <c r="T82" s="72"/>
-      <c r="U82" s="111"/>
-      <c r="V82" s="133"/>
+      <c r="U82" s="123"/>
+      <c r="V82" s="118"/>
       <c r="W82" s="8" t="str">
         <f>IF(ISBLANK($X$24),"N4",$X$24)</f>
         <v>N4</v>
       </c>
       <c r="X82" s="5"/>
-      <c r="Y82" s="111"/>
+      <c r="Y82" s="123"/>
       <c r="Z82" s="94"/>
-      <c r="AA82" s="111"/>
-      <c r="AB82" s="118"/>
+      <c r="AA82" s="123"/>
+      <c r="AB82" s="121"/>
       <c r="AC82" s="8" t="str">
         <f>IF(ISBLANK($X$92),"AG2",$X$92)</f>
         <v>AG2</v>
       </c>
       <c r="AD82" s="74"/>
-      <c r="AE82" s="111"/>
+      <c r="AE82" s="123"/>
       <c r="AF82" s="80"/>
-      <c r="AG82" s="111"/>
-      <c r="AH82" s="118"/>
+      <c r="AG82" s="123"/>
+      <c r="AH82" s="121"/>
       <c r="AI82" s="8" t="str">
         <f>IF(ISBLANK($AD$28),"U4",$AD$28)</f>
         <v>U4</v>
       </c>
       <c r="AJ82" s="74"/>
-      <c r="AK82" s="111"/>
+      <c r="AK82" s="123"/>
       <c r="AL82" s="72"/>
-      <c r="AM82" s="111"/>
-      <c r="AN82" s="118"/>
+      <c r="AM82" s="123"/>
+      <c r="AN82" s="121"/>
       <c r="AO82" s="8" t="str">
         <f>IF(ISBLANK($AJ$19),"V3",$AJ$19)</f>
         <v>V3</v>
       </c>
       <c r="AP82" s="74"/>
-      <c r="AQ82" s="111"/>
+      <c r="AQ82" s="123"/>
       <c r="AR82" s="72"/>
       <c r="AS82" s="53"/>
-      <c r="AT82" s="118"/>
+      <c r="AT82" s="121"/>
       <c r="AU82" s="8" t="str">
         <f>IF(ISBLANK($AP$20),"WF4",$AP$20)</f>
         <v>WF4</v>
       </c>
       <c r="AV82" s="4"/>
       <c r="AW82" s="55"/>
-      <c r="AX82" s="103"/>
+      <c r="AX82" s="100"/>
       <c r="AY82" s="72"/>
       <c r="AZ82" s="79"/>
       <c r="BA82" s="73"/>
@@ -9723,11 +9721,11 @@
       <c r="BD82" s="72"/>
       <c r="BE82" s="72"/>
       <c r="BF82" s="29"/>
-      <c r="BG82" s="105"/>
+      <c r="BG82" s="175"/>
     </row>
     <row r="83" spans="1:59" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="84"/>
-      <c r="B83" s="106"/>
+      <c r="B83" s="176"/>
       <c r="C83" s="30"/>
       <c r="D83" s="72"/>
       <c r="E83" s="72"/>
@@ -9737,9 +9735,9 @@
       <c r="I83" s="72"/>
       <c r="J83" s="72"/>
       <c r="K83" s="72"/>
-      <c r="L83" s="103"/>
-      <c r="M83" s="112"/>
-      <c r="P83" s="116" t="s">
+      <c r="L83" s="100"/>
+      <c r="M83" s="155"/>
+      <c r="P83" s="119" t="s">
         <v>173</v>
       </c>
       <c r="Q83" s="7" t="str">
@@ -9747,10 +9745,10 @@
         <v>C3</v>
       </c>
       <c r="R83" s="41"/>
-      <c r="S83" s="111"/>
+      <c r="S83" s="123"/>
       <c r="T83" s="72"/>
-      <c r="U83" s="111"/>
-      <c r="V83" s="131" t="s">
+      <c r="U83" s="123"/>
+      <c r="V83" s="116" t="s">
         <v>203</v>
       </c>
       <c r="W83" s="7" t="str">
@@ -9758,10 +9756,10 @@
         <v>Y1</v>
       </c>
       <c r="X83" s="3"/>
-      <c r="Y83" s="111"/>
+      <c r="Y83" s="123"/>
       <c r="Z83" s="94"/>
-      <c r="AA83" s="111"/>
-      <c r="AB83" s="116" t="s">
+      <c r="AA83" s="123"/>
+      <c r="AB83" s="119" t="s">
         <v>209</v>
       </c>
       <c r="AC83" s="15" t="str">
@@ -9769,10 +9767,10 @@
         <v>AF1</v>
       </c>
       <c r="AD83" s="59"/>
-      <c r="AE83" s="111"/>
+      <c r="AE83" s="123"/>
       <c r="AF83" s="80"/>
-      <c r="AG83" s="111"/>
-      <c r="AH83" s="116" t="s">
+      <c r="AG83" s="123"/>
+      <c r="AH83" s="119" t="s">
         <v>212</v>
       </c>
       <c r="AI83" s="15" t="str">
@@ -9780,10 +9778,10 @@
         <v>AK1</v>
       </c>
       <c r="AJ83" s="59"/>
-      <c r="AK83" s="111"/>
+      <c r="AK83" s="123"/>
       <c r="AL83" s="72"/>
-      <c r="AM83" s="111"/>
-      <c r="AN83" s="116" t="s">
+      <c r="AM83" s="123"/>
+      <c r="AN83" s="119" t="s">
         <v>215</v>
       </c>
       <c r="AO83" s="7" t="str">
@@ -9791,27 +9789,27 @@
         <v>AQ1</v>
       </c>
       <c r="AP83" s="41"/>
-      <c r="AQ83" s="111"/>
+      <c r="AQ83" s="123"/>
       <c r="AR83" s="72"/>
       <c r="AS83" s="109"/>
-      <c r="AT83" s="107"/>
-      <c r="AU83" s="107"/>
-      <c r="AV83" s="107"/>
-      <c r="AW83" s="107"/>
-      <c r="AX83" s="103"/>
-      <c r="AY83" s="166"/>
-      <c r="AZ83" s="166"/>
-      <c r="BA83" s="166"/>
-      <c r="BB83" s="166"/>
-      <c r="BC83" s="166"/>
+      <c r="AT83" s="110"/>
+      <c r="AU83" s="110"/>
+      <c r="AV83" s="110"/>
+      <c r="AW83" s="110"/>
+      <c r="AX83" s="100"/>
+      <c r="AY83" s="108"/>
+      <c r="AZ83" s="108"/>
+      <c r="BA83" s="108"/>
+      <c r="BB83" s="108"/>
+      <c r="BC83" s="108"/>
       <c r="BD83" s="72"/>
       <c r="BE83" s="72"/>
       <c r="BF83" s="29"/>
-      <c r="BG83" s="105"/>
+      <c r="BG83" s="175"/>
     </row>
     <row r="84" spans="1:59" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="84"/>
-      <c r="B84" s="106"/>
+      <c r="B84" s="176"/>
       <c r="C84" s="30"/>
       <c r="D84" s="72"/>
       <c r="E84" s="72"/>
@@ -9821,58 +9819,58 @@
       <c r="I84" s="72"/>
       <c r="J84" s="72"/>
       <c r="K84" s="72"/>
-      <c r="L84" s="103"/>
-      <c r="M84" s="112"/>
-      <c r="P84" s="117"/>
+      <c r="L84" s="100"/>
+      <c r="M84" s="155"/>
+      <c r="P84" s="120"/>
       <c r="Q84" s="8" t="str">
         <f>IF(ISBLANK($R$31),"D3",$R$31)</f>
         <v>D3</v>
       </c>
       <c r="R84" s="42"/>
-      <c r="S84" s="111"/>
+      <c r="S84" s="123"/>
       <c r="T84" s="72"/>
-      <c r="U84" s="111"/>
-      <c r="V84" s="132"/>
+      <c r="U84" s="123"/>
+      <c r="V84" s="117"/>
       <c r="W84" s="8" t="str">
         <f>IF(ISBLANK($R$80),"X2",$R$80)</f>
         <v>X2</v>
       </c>
       <c r="X84" s="10"/>
-      <c r="Y84" s="111"/>
+      <c r="Y84" s="123"/>
       <c r="Z84" s="94"/>
-      <c r="AA84" s="111"/>
-      <c r="AB84" s="117"/>
+      <c r="AA84" s="123"/>
+      <c r="AB84" s="120"/>
       <c r="AC84" s="16" t="str">
         <f>IF(ISBLANK($X$91),"AG1",$X$91)</f>
         <v>AG1</v>
       </c>
       <c r="AD84" s="60"/>
-      <c r="AE84" s="111"/>
+      <c r="AE84" s="123"/>
       <c r="AF84" s="80"/>
-      <c r="AG84" s="111"/>
-      <c r="AH84" s="117"/>
+      <c r="AG84" s="123"/>
+      <c r="AH84" s="120"/>
       <c r="AI84" s="16" t="str">
         <f>IF(ISBLANK($AD$80),"AJ2",$AD$80)</f>
         <v>AJ2</v>
       </c>
       <c r="AJ84" s="60"/>
-      <c r="AK84" s="111"/>
+      <c r="AK84" s="123"/>
       <c r="AL84" s="72"/>
-      <c r="AM84" s="111"/>
-      <c r="AN84" s="117"/>
+      <c r="AM84" s="123"/>
+      <c r="AN84" s="120"/>
       <c r="AO84" s="16" t="str">
         <f>IF(ISBLANK($AJ$80),"AO2",$AJ$80)</f>
         <v>AO2</v>
       </c>
       <c r="AP84" s="95"/>
-      <c r="AQ84" s="111"/>
+      <c r="AQ84" s="123"/>
       <c r="AR84" s="72"/>
       <c r="AS84" s="72"/>
       <c r="AT84" s="75"/>
       <c r="AU84" s="73"/>
       <c r="AV84" s="76"/>
       <c r="AW84" s="72"/>
-      <c r="AX84" s="103"/>
+      <c r="AX84" s="100"/>
       <c r="AY84" s="72"/>
       <c r="AZ84" s="75"/>
       <c r="BA84" s="73"/>
@@ -9881,11 +9879,11 @@
       <c r="BD84" s="72"/>
       <c r="BE84" s="72"/>
       <c r="BF84" s="29"/>
-      <c r="BG84" s="105"/>
+      <c r="BG84" s="175"/>
     </row>
     <row r="85" spans="1:59" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="84"/>
-      <c r="B85" s="106"/>
+      <c r="B85" s="176"/>
       <c r="C85" s="30"/>
       <c r="D85" s="72"/>
       <c r="E85" s="72"/>
@@ -9895,58 +9893,58 @@
       <c r="I85" s="72"/>
       <c r="J85" s="72"/>
       <c r="K85" s="72"/>
-      <c r="L85" s="103"/>
-      <c r="M85" s="112"/>
-      <c r="P85" s="117"/>
+      <c r="L85" s="100"/>
+      <c r="M85" s="155"/>
+      <c r="P85" s="120"/>
       <c r="Q85" s="8" t="str">
         <f>IF(ISBLANK($R$52),"I4",$R$52)</f>
         <v>I4</v>
       </c>
       <c r="R85" s="74"/>
-      <c r="S85" s="111"/>
+      <c r="S85" s="123"/>
       <c r="T85" s="72"/>
-      <c r="U85" s="111"/>
-      <c r="V85" s="132"/>
+      <c r="U85" s="123"/>
+      <c r="V85" s="117"/>
       <c r="W85" s="8" t="str">
         <f>IF(ISBLANK($X$23),"N3",$X$23)</f>
         <v>N3</v>
       </c>
       <c r="X85" s="4"/>
-      <c r="Y85" s="111"/>
+      <c r="Y85" s="123"/>
       <c r="Z85" s="94"/>
-      <c r="AA85" s="111"/>
-      <c r="AB85" s="117"/>
+      <c r="AA85" s="123"/>
+      <c r="AB85" s="120"/>
       <c r="AC85" s="8" t="str">
         <f>IF(ISBLANK($X$96),"AH2",$X$96)</f>
         <v>AH2</v>
       </c>
       <c r="AD85" s="74"/>
-      <c r="AE85" s="111"/>
+      <c r="AE85" s="123"/>
       <c r="AF85" s="80"/>
-      <c r="AG85" s="111"/>
-      <c r="AH85" s="117"/>
+      <c r="AG85" s="123"/>
+      <c r="AH85" s="120"/>
       <c r="AI85" s="8" t="str">
         <f>IF(ISBLANK($AD$23),"T3",$AD$23)</f>
         <v>T3</v>
       </c>
       <c r="AJ85" s="74"/>
-      <c r="AK85" s="111"/>
+      <c r="AK85" s="123"/>
       <c r="AL85" s="72"/>
-      <c r="AM85" s="111"/>
-      <c r="AN85" s="117"/>
+      <c r="AM85" s="123"/>
+      <c r="AN85" s="120"/>
       <c r="AO85" s="8" t="str">
         <f>IF(ISBLANK($AJ$84),"AP2",$AJ$84)</f>
         <v>AP2</v>
       </c>
       <c r="AP85" s="74"/>
-      <c r="AQ85" s="111"/>
+      <c r="AQ85" s="123"/>
       <c r="AR85" s="72"/>
       <c r="AS85" s="72"/>
       <c r="AT85" s="75"/>
       <c r="AU85" s="73"/>
       <c r="AV85" s="76"/>
       <c r="AW85" s="72"/>
-      <c r="AX85" s="103"/>
+      <c r="AX85" s="100"/>
       <c r="AY85" s="72"/>
       <c r="AZ85" s="75"/>
       <c r="BA85" s="73"/>
@@ -9955,11 +9953,11 @@
       <c r="BD85" s="72"/>
       <c r="BE85" s="72"/>
       <c r="BF85" s="29"/>
-      <c r="BG85" s="105"/>
+      <c r="BG85" s="175"/>
     </row>
     <row r="86" spans="1:59" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="84"/>
-      <c r="B86" s="106"/>
+      <c r="B86" s="176"/>
       <c r="C86" s="30"/>
       <c r="D86" s="72"/>
       <c r="E86" s="72"/>
@@ -9969,58 +9967,58 @@
       <c r="I86" s="72"/>
       <c r="J86" s="72"/>
       <c r="K86" s="72"/>
-      <c r="L86" s="103"/>
-      <c r="M86" s="112"/>
-      <c r="P86" s="118"/>
+      <c r="L86" s="100"/>
+      <c r="M86" s="155"/>
+      <c r="P86" s="121"/>
       <c r="Q86" s="8" t="str">
         <f>IF(ISBLANK($R$58),"J4",$R$58)</f>
         <v>J4</v>
       </c>
       <c r="R86" s="74"/>
-      <c r="S86" s="111"/>
+      <c r="S86" s="123"/>
       <c r="T86" s="72"/>
-      <c r="U86" s="111"/>
-      <c r="V86" s="133"/>
+      <c r="U86" s="123"/>
+      <c r="V86" s="118"/>
       <c r="W86" s="9" t="str">
         <f>IF(ISBLANK($X$20),"M4",$X$20)</f>
         <v>M4</v>
       </c>
       <c r="X86" s="5"/>
-      <c r="Y86" s="111"/>
+      <c r="Y86" s="123"/>
       <c r="Z86" s="94"/>
-      <c r="AA86" s="111"/>
-      <c r="AB86" s="118"/>
+      <c r="AA86" s="123"/>
+      <c r="AB86" s="121"/>
       <c r="AC86" s="8" t="str">
         <f>IF(ISBLANK($X$100),"AI2",$X$100)</f>
         <v>AI2</v>
       </c>
       <c r="AD86" s="74"/>
-      <c r="AE86" s="111"/>
+      <c r="AE86" s="123"/>
       <c r="AF86" s="80"/>
-      <c r="AG86" s="111"/>
-      <c r="AH86" s="118"/>
+      <c r="AG86" s="123"/>
+      <c r="AH86" s="121"/>
       <c r="AI86" s="8" t="str">
         <f>IF(ISBLANK($AD$20),"S4",$AD$20)</f>
         <v>S4</v>
       </c>
       <c r="AJ86" s="74"/>
-      <c r="AK86" s="111"/>
+      <c r="AK86" s="123"/>
       <c r="AL86" s="72"/>
-      <c r="AM86" s="119"/>
-      <c r="AN86" s="118"/>
+      <c r="AM86" s="124"/>
+      <c r="AN86" s="121"/>
       <c r="AO86" s="8" t="str">
         <f>IF(ISBLANK($AJ$22),"W3",$AJ$22)</f>
         <v>W3</v>
       </c>
       <c r="AP86" s="74"/>
-      <c r="AQ86" s="119"/>
+      <c r="AQ86" s="124"/>
       <c r="AR86" s="72"/>
       <c r="AS86" s="72"/>
       <c r="AT86" s="75"/>
       <c r="AU86" s="73"/>
       <c r="AV86" s="76"/>
       <c r="AW86" s="72"/>
-      <c r="AX86" s="103"/>
+      <c r="AX86" s="100"/>
       <c r="AY86" s="72"/>
       <c r="AZ86" s="75"/>
       <c r="BA86" s="73"/>
@@ -10029,11 +10027,11 @@
       <c r="BD86" s="72"/>
       <c r="BE86" s="72"/>
       <c r="BF86" s="29"/>
-      <c r="BG86" s="105"/>
+      <c r="BG86" s="175"/>
     </row>
     <row r="87" spans="1:59" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="84"/>
-      <c r="B87" s="106"/>
+      <c r="B87" s="176"/>
       <c r="C87" s="30"/>
       <c r="D87" s="72"/>
       <c r="E87" s="72"/>
@@ -10043,9 +10041,9 @@
       <c r="I87" s="72"/>
       <c r="J87" s="72"/>
       <c r="K87" s="72"/>
-      <c r="L87" s="103"/>
-      <c r="M87" s="112"/>
-      <c r="P87" s="116" t="s">
+      <c r="L87" s="100"/>
+      <c r="M87" s="155"/>
+      <c r="P87" s="119" t="s">
         <v>174</v>
       </c>
       <c r="Q87" s="7" t="str">
@@ -10053,10 +10051,10 @@
         <v>E3</v>
       </c>
       <c r="R87" s="41"/>
-      <c r="S87" s="111"/>
+      <c r="S87" s="123"/>
       <c r="T87" s="72"/>
-      <c r="U87" s="111"/>
-      <c r="V87" s="131" t="s">
+      <c r="U87" s="123"/>
+      <c r="V87" s="116" t="s">
         <v>204</v>
       </c>
       <c r="W87" s="7" t="str">
@@ -10064,10 +10062,10 @@
         <v>Z1</v>
       </c>
       <c r="X87" s="3"/>
-      <c r="Y87" s="111"/>
+      <c r="Y87" s="123"/>
       <c r="Z87" s="72"/>
-      <c r="AA87" s="111"/>
-      <c r="AB87" s="116" t="s">
+      <c r="AA87" s="123"/>
+      <c r="AB87" s="119" t="s">
         <v>210</v>
       </c>
       <c r="AC87" s="15" t="str">
@@ -10075,10 +10073,10 @@
         <v>AH1</v>
       </c>
       <c r="AD87" s="59"/>
-      <c r="AE87" s="111"/>
+      <c r="AE87" s="123"/>
       <c r="AF87" s="80"/>
-      <c r="AG87" s="111"/>
-      <c r="AH87" s="116" t="s">
+      <c r="AG87" s="123"/>
+      <c r="AH87" s="119" t="s">
         <v>213</v>
       </c>
       <c r="AI87" s="15" t="str">
@@ -10086,7 +10084,7 @@
         <v>AL1</v>
       </c>
       <c r="AJ87" s="59"/>
-      <c r="AK87" s="111"/>
+      <c r="AK87" s="123"/>
       <c r="AL87" s="72"/>
       <c r="AM87" s="48"/>
       <c r="AN87" s="46"/>
@@ -10099,7 +10097,7 @@
       <c r="AU87" s="72"/>
       <c r="AV87" s="72"/>
       <c r="AW87" s="72"/>
-      <c r="AX87" s="103"/>
+      <c r="AX87" s="100"/>
       <c r="AY87" s="72"/>
       <c r="AZ87" s="72"/>
       <c r="BA87" s="72"/>
@@ -10108,11 +10106,11 @@
       <c r="BD87" s="72"/>
       <c r="BE87" s="72"/>
       <c r="BF87" s="29"/>
-      <c r="BG87" s="105"/>
+      <c r="BG87" s="175"/>
     </row>
     <row r="88" spans="1:59" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="84"/>
-      <c r="B88" s="106"/>
+      <c r="B88" s="176"/>
       <c r="C88" s="30"/>
       <c r="D88" s="72"/>
       <c r="E88" s="72"/>
@@ -10122,42 +10120,42 @@
       <c r="I88" s="72"/>
       <c r="J88" s="72"/>
       <c r="K88" s="72"/>
-      <c r="L88" s="103"/>
-      <c r="M88" s="112"/>
-      <c r="P88" s="117"/>
+      <c r="L88" s="100"/>
+      <c r="M88" s="155"/>
+      <c r="P88" s="120"/>
       <c r="Q88" s="8" t="str">
         <f>IF(ISBLANK($R$39),"F3",$R$39)</f>
         <v>F3</v>
       </c>
       <c r="R88" s="42"/>
-      <c r="S88" s="111"/>
+      <c r="S88" s="123"/>
       <c r="T88" s="72"/>
-      <c r="U88" s="111"/>
-      <c r="V88" s="132"/>
+      <c r="U88" s="123"/>
+      <c r="V88" s="117"/>
       <c r="W88" s="8" t="str">
         <f>IF(ISBLANK($R$92),"AA2",$R$92)</f>
         <v>AA2</v>
       </c>
       <c r="X88" s="10"/>
-      <c r="Y88" s="111"/>
+      <c r="Y88" s="123"/>
       <c r="Z88" s="72"/>
-      <c r="AA88" s="111"/>
-      <c r="AB88" s="117"/>
+      <c r="AA88" s="123"/>
+      <c r="AB88" s="120"/>
       <c r="AC88" s="16" t="str">
         <f>IF(ISBLANK($X$99),"AI1",$X$99)</f>
         <v>AI1</v>
       </c>
       <c r="AD88" s="60"/>
-      <c r="AE88" s="111"/>
+      <c r="AE88" s="123"/>
       <c r="AF88" s="80"/>
-      <c r="AG88" s="111"/>
-      <c r="AH88" s="117"/>
+      <c r="AG88" s="123"/>
+      <c r="AH88" s="120"/>
       <c r="AI88" s="16" t="str">
         <f>IF(ISBLANK($AD$84),"AK2",$AD$84)</f>
         <v>AK2</v>
       </c>
       <c r="AJ88" s="60"/>
-      <c r="AK88" s="111"/>
+      <c r="AK88" s="123"/>
       <c r="AL88" s="72"/>
       <c r="AM88" s="72"/>
       <c r="AN88" s="72"/>
@@ -10170,7 +10168,7 @@
       <c r="AU88" s="72"/>
       <c r="AV88" s="72"/>
       <c r="AW88" s="72"/>
-      <c r="AX88" s="103"/>
+      <c r="AX88" s="100"/>
       <c r="AY88" s="72"/>
       <c r="AZ88" s="72"/>
       <c r="BA88" s="72"/>
@@ -10179,11 +10177,11 @@
       <c r="BD88" s="72"/>
       <c r="BE88" s="72"/>
       <c r="BF88" s="29"/>
-      <c r="BG88" s="105"/>
+      <c r="BG88" s="175"/>
     </row>
     <row r="89" spans="1:59" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="84"/>
-      <c r="B89" s="106"/>
+      <c r="B89" s="176"/>
       <c r="C89" s="30"/>
       <c r="D89" s="72"/>
       <c r="E89" s="72"/>
@@ -10193,42 +10191,42 @@
       <c r="I89" s="72"/>
       <c r="J89" s="72"/>
       <c r="K89" s="72"/>
-      <c r="L89" s="103"/>
-      <c r="M89" s="112"/>
-      <c r="P89" s="117"/>
+      <c r="L89" s="100"/>
+      <c r="M89" s="155"/>
+      <c r="P89" s="120"/>
       <c r="Q89" s="8" t="str">
         <f>IF(ISBLANK($R$44),"G4",$R$44)</f>
         <v>G4</v>
       </c>
       <c r="R89" s="74"/>
-      <c r="S89" s="111"/>
+      <c r="S89" s="123"/>
       <c r="T89" s="72"/>
-      <c r="U89" s="111"/>
-      <c r="V89" s="132"/>
+      <c r="U89" s="123"/>
+      <c r="V89" s="117"/>
       <c r="W89" s="8" t="str">
         <f>IF(ISBLANK($X$27),"O3",$X$27)</f>
         <v>O3</v>
       </c>
       <c r="X89" s="4"/>
-      <c r="Y89" s="111"/>
+      <c r="Y89" s="123"/>
       <c r="Z89" s="72"/>
-      <c r="AA89" s="111"/>
-      <c r="AB89" s="117"/>
+      <c r="AA89" s="123"/>
+      <c r="AB89" s="120"/>
       <c r="AC89" s="8" t="str">
         <f>IF(ISBLANK($X$80),"AD2",$X$80)</f>
         <v>AD2</v>
       </c>
       <c r="AD89" s="74"/>
-      <c r="AE89" s="111"/>
+      <c r="AE89" s="123"/>
       <c r="AF89" s="80"/>
-      <c r="AG89" s="111"/>
-      <c r="AH89" s="117"/>
+      <c r="AG89" s="123"/>
+      <c r="AH89" s="120"/>
       <c r="AI89" s="8" t="str">
         <f>IF(ISBLANK($AD$27),"U3",$AD$27)</f>
         <v>U3</v>
       </c>
       <c r="AJ89" s="74"/>
-      <c r="AK89" s="111"/>
+      <c r="AK89" s="123"/>
       <c r="AL89" s="72"/>
       <c r="AM89" s="72"/>
       <c r="AN89" s="72"/>
@@ -10241,7 +10239,7 @@
       <c r="AU89" s="72"/>
       <c r="AV89" s="72"/>
       <c r="AW89" s="72"/>
-      <c r="AX89" s="103"/>
+      <c r="AX89" s="100"/>
       <c r="AY89" s="72"/>
       <c r="AZ89" s="72"/>
       <c r="BA89" s="72"/>
@@ -10250,11 +10248,11 @@
       <c r="BD89" s="72"/>
       <c r="BE89" s="72"/>
       <c r="BF89" s="29"/>
-      <c r="BG89" s="105"/>
+      <c r="BG89" s="175"/>
     </row>
     <row r="90" spans="1:59" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="84"/>
-      <c r="B90" s="106"/>
+      <c r="B90" s="176"/>
       <c r="C90" s="30"/>
       <c r="D90" s="72"/>
       <c r="E90" s="72"/>
@@ -10264,42 +10262,42 @@
       <c r="I90" s="72"/>
       <c r="J90" s="72"/>
       <c r="K90" s="72"/>
-      <c r="L90" s="103"/>
-      <c r="M90" s="112"/>
-      <c r="P90" s="118"/>
+      <c r="L90" s="100"/>
+      <c r="M90" s="155"/>
+      <c r="P90" s="121"/>
       <c r="Q90" s="8" t="str">
         <f>IF(ISBLANK($R$48),"H4",$R$48)</f>
         <v>H4</v>
       </c>
       <c r="R90" s="74"/>
-      <c r="S90" s="111"/>
+      <c r="S90" s="123"/>
       <c r="T90" s="72"/>
-      <c r="U90" s="111"/>
-      <c r="V90" s="133"/>
+      <c r="U90" s="123"/>
+      <c r="V90" s="118"/>
       <c r="W90" s="9" t="str">
         <f>IF(ISBLANK($X$32),"P4",$X$32)</f>
         <v>P4</v>
       </c>
       <c r="X90" s="5"/>
-      <c r="Y90" s="111"/>
+      <c r="Y90" s="123"/>
       <c r="Z90" s="72"/>
-      <c r="AA90" s="119"/>
-      <c r="AB90" s="118"/>
+      <c r="AA90" s="124"/>
+      <c r="AB90" s="121"/>
       <c r="AC90" s="8" t="str">
         <f>IF(ISBLANK($X$84),"AE2",$X$84)</f>
         <v>AE2</v>
       </c>
       <c r="AD90" s="74"/>
-      <c r="AE90" s="119"/>
+      <c r="AE90" s="124"/>
       <c r="AF90" s="80"/>
-      <c r="AG90" s="119"/>
-      <c r="AH90" s="118"/>
+      <c r="AG90" s="124"/>
+      <c r="AH90" s="121"/>
       <c r="AI90" s="8" t="str">
         <f>IF(ISBLANK($AD$24),"T4",$AD$24)</f>
         <v>T4</v>
       </c>
       <c r="AJ90" s="74"/>
-      <c r="AK90" s="119"/>
+      <c r="AK90" s="124"/>
       <c r="AL90" s="72"/>
       <c r="AM90" s="72"/>
       <c r="AN90" s="72"/>
@@ -10312,7 +10310,7 @@
       <c r="AU90" s="72"/>
       <c r="AV90" s="72"/>
       <c r="AW90" s="72"/>
-      <c r="AX90" s="103"/>
+      <c r="AX90" s="100"/>
       <c r="AY90" s="72"/>
       <c r="AZ90" s="72"/>
       <c r="BA90" s="72"/>
@@ -10321,11 +10319,11 @@
       <c r="BD90" s="72"/>
       <c r="BE90" s="72"/>
       <c r="BF90" s="29"/>
-      <c r="BG90" s="105"/>
+      <c r="BG90" s="175"/>
     </row>
     <row r="91" spans="1:59" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="84"/>
-      <c r="B91" s="106"/>
+      <c r="B91" s="176"/>
       <c r="C91" s="30"/>
       <c r="D91" s="72"/>
       <c r="E91" s="72"/>
@@ -10335,9 +10333,9 @@
       <c r="I91" s="72"/>
       <c r="J91" s="72"/>
       <c r="K91" s="72"/>
-      <c r="L91" s="103"/>
-      <c r="M91" s="112"/>
-      <c r="P91" s="116" t="s">
+      <c r="L91" s="100"/>
+      <c r="M91" s="155"/>
+      <c r="P91" s="119" t="s">
         <v>175</v>
       </c>
       <c r="Q91" s="7" t="str">
@@ -10345,10 +10343,10 @@
         <v>G3</v>
       </c>
       <c r="R91" s="41"/>
-      <c r="S91" s="111"/>
+      <c r="S91" s="123"/>
       <c r="T91" s="72"/>
-      <c r="U91" s="111"/>
-      <c r="V91" s="131" t="s">
+      <c r="U91" s="123"/>
+      <c r="V91" s="116" t="s">
         <v>205</v>
       </c>
       <c r="W91" s="7" t="str">
@@ -10356,19 +10354,19 @@
         <v>AA1</v>
       </c>
       <c r="X91" s="3"/>
-      <c r="Y91" s="111"/>
+      <c r="Y91" s="123"/>
       <c r="Z91" s="72"/>
       <c r="AA91" s="109"/>
-      <c r="AB91" s="107"/>
-      <c r="AC91" s="107"/>
-      <c r="AD91" s="107"/>
-      <c r="AE91" s="108"/>
+      <c r="AB91" s="110"/>
+      <c r="AC91" s="110"/>
+      <c r="AD91" s="110"/>
+      <c r="AE91" s="111"/>
       <c r="AF91" s="80"/>
       <c r="AG91" s="109"/>
-      <c r="AH91" s="107"/>
-      <c r="AI91" s="107"/>
-      <c r="AJ91" s="107"/>
-      <c r="AK91" s="108"/>
+      <c r="AH91" s="110"/>
+      <c r="AI91" s="110"/>
+      <c r="AJ91" s="110"/>
+      <c r="AK91" s="111"/>
       <c r="AL91" s="72"/>
       <c r="AM91" s="72"/>
       <c r="AN91" s="72"/>
@@ -10381,7 +10379,7 @@
       <c r="AU91" s="72"/>
       <c r="AV91" s="72"/>
       <c r="AW91" s="72"/>
-      <c r="AX91" s="103"/>
+      <c r="AX91" s="100"/>
       <c r="AY91" s="72"/>
       <c r="AZ91" s="72"/>
       <c r="BA91" s="72"/>
@@ -10390,11 +10388,11 @@
       <c r="BD91" s="72"/>
       <c r="BE91" s="72"/>
       <c r="BF91" s="29"/>
-      <c r="BG91" s="105"/>
+      <c r="BG91" s="175"/>
     </row>
     <row r="92" spans="1:59" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="84"/>
-      <c r="B92" s="106"/>
+      <c r="B92" s="176"/>
       <c r="C92" s="30"/>
       <c r="D92" s="72"/>
       <c r="E92" s="72"/>
@@ -10404,24 +10402,24 @@
       <c r="I92" s="72"/>
       <c r="J92" s="72"/>
       <c r="K92" s="72"/>
-      <c r="L92" s="103"/>
-      <c r="M92" s="112"/>
-      <c r="P92" s="117"/>
+      <c r="L92" s="100"/>
+      <c r="M92" s="155"/>
+      <c r="P92" s="120"/>
       <c r="Q92" s="8" t="str">
         <f>IF(ISBLANK($R$47),"H3",$R$47)</f>
         <v>H3</v>
       </c>
       <c r="R92" s="42"/>
-      <c r="S92" s="111"/>
+      <c r="S92" s="123"/>
       <c r="T92" s="72"/>
-      <c r="U92" s="111"/>
-      <c r="V92" s="132"/>
+      <c r="U92" s="123"/>
+      <c r="V92" s="117"/>
       <c r="W92" s="8" t="str">
         <f>IF(ISBLANK($R$88),"Z2",$R$88)</f>
         <v>Z2</v>
       </c>
       <c r="X92" s="10"/>
-      <c r="Y92" s="111"/>
+      <c r="Y92" s="123"/>
       <c r="Z92" s="72"/>
       <c r="AA92" s="72"/>
       <c r="AB92" s="72"/>
@@ -10446,7 +10444,7 @@
       <c r="AU92" s="72"/>
       <c r="AV92" s="72"/>
       <c r="AW92" s="72"/>
-      <c r="AX92" s="103"/>
+      <c r="AX92" s="100"/>
       <c r="AY92" s="72"/>
       <c r="AZ92" s="72"/>
       <c r="BA92" s="72"/>
@@ -10455,11 +10453,11 @@
       <c r="BD92" s="72"/>
       <c r="BE92" s="72"/>
       <c r="BF92" s="29"/>
-      <c r="BG92" s="105"/>
+      <c r="BG92" s="175"/>
     </row>
     <row r="93" spans="1:59" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="84"/>
-      <c r="B93" s="106"/>
+      <c r="B93" s="176"/>
       <c r="C93" s="30"/>
       <c r="D93" s="72"/>
       <c r="E93" s="72"/>
@@ -10469,24 +10467,24 @@
       <c r="I93" s="72"/>
       <c r="J93" s="72"/>
       <c r="K93" s="72"/>
-      <c r="L93" s="103"/>
-      <c r="M93" s="112"/>
-      <c r="P93" s="117"/>
+      <c r="L93" s="100"/>
+      <c r="M93" s="155"/>
+      <c r="P93" s="120"/>
       <c r="Q93" s="8" t="str">
         <f>IF(ISBLANK($R$36),"E4",$R$36)</f>
         <v>E4</v>
       </c>
       <c r="R93" s="74"/>
-      <c r="S93" s="111"/>
+      <c r="S93" s="123"/>
       <c r="T93" s="72"/>
-      <c r="U93" s="111"/>
-      <c r="V93" s="132"/>
+      <c r="U93" s="123"/>
+      <c r="V93" s="117"/>
       <c r="W93" s="8" t="str">
         <f>IF(ISBLANK($X$31),"P3",$X$31)</f>
         <v>P3</v>
       </c>
       <c r="X93" s="4"/>
-      <c r="Y93" s="111"/>
+      <c r="Y93" s="123"/>
       <c r="Z93" s="72"/>
       <c r="AA93" s="72"/>
       <c r="AB93" s="72"/>
@@ -10511,7 +10509,7 @@
       <c r="AU93" s="72"/>
       <c r="AV93" s="72"/>
       <c r="AW93" s="72"/>
-      <c r="AX93" s="103"/>
+      <c r="AX93" s="100"/>
       <c r="AY93" s="72"/>
       <c r="AZ93" s="72"/>
       <c r="BA93" s="72"/>
@@ -10520,11 +10518,11 @@
       <c r="BD93" s="72"/>
       <c r="BE93" s="72"/>
       <c r="BF93" s="29"/>
-      <c r="BG93" s="105"/>
+      <c r="BG93" s="175"/>
     </row>
     <row r="94" spans="1:59" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="84"/>
-      <c r="B94" s="106"/>
+      <c r="B94" s="176"/>
       <c r="C94" s="30"/>
       <c r="D94" s="72"/>
       <c r="E94" s="72"/>
@@ -10534,23 +10532,23 @@
       <c r="I94" s="72"/>
       <c r="J94" s="72"/>
       <c r="K94" s="72"/>
-      <c r="L94" s="103"/>
-      <c r="M94" s="112"/>
-      <c r="P94" s="118"/>
+      <c r="L94" s="100"/>
+      <c r="M94" s="155"/>
+      <c r="P94" s="121"/>
       <c r="Q94" s="8" t="str">
         <f>IF(ISBLANK($R$40),"F4",$R$40)</f>
         <v>F4</v>
       </c>
       <c r="R94" s="74"/>
-      <c r="S94" s="111"/>
-      <c r="U94" s="111"/>
-      <c r="V94" s="133"/>
+      <c r="S94" s="123"/>
+      <c r="U94" s="123"/>
+      <c r="V94" s="118"/>
       <c r="W94" s="9" t="str">
         <f>IF(ISBLANK($X$28),"O4",$X$28)</f>
         <v>O4</v>
       </c>
       <c r="X94" s="5"/>
-      <c r="Y94" s="111"/>
+      <c r="Y94" s="123"/>
       <c r="Z94" s="72"/>
       <c r="AA94" s="72"/>
       <c r="AB94" s="72"/>
@@ -10575,7 +10573,7 @@
       <c r="AU94" s="72"/>
       <c r="AV94" s="72"/>
       <c r="AW94" s="72"/>
-      <c r="AX94" s="103"/>
+      <c r="AX94" s="100"/>
       <c r="AY94" s="72"/>
       <c r="AZ94" s="72"/>
       <c r="BA94" s="72"/>
@@ -10584,11 +10582,11 @@
       <c r="BD94" s="72"/>
       <c r="BE94" s="72"/>
       <c r="BF94" s="29"/>
-      <c r="BG94" s="105"/>
+      <c r="BG94" s="175"/>
     </row>
     <row r="95" spans="1:59" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="84"/>
-      <c r="B95" s="106"/>
+      <c r="B95" s="176"/>
       <c r="C95" s="30"/>
       <c r="D95" s="72"/>
       <c r="E95" s="72"/>
@@ -10598,9 +10596,9 @@
       <c r="I95" s="72"/>
       <c r="J95" s="72"/>
       <c r="K95" s="72"/>
-      <c r="L95" s="103"/>
-      <c r="M95" s="112"/>
-      <c r="P95" s="116" t="s">
+      <c r="L95" s="100"/>
+      <c r="M95" s="155"/>
+      <c r="P95" s="119" t="s">
         <v>200</v>
       </c>
       <c r="Q95" s="7" t="str">
@@ -10608,10 +10606,10 @@
         <v>I3</v>
       </c>
       <c r="R95" s="41"/>
-      <c r="S95" s="111"/>
+      <c r="S95" s="123"/>
       <c r="T95" s="72"/>
-      <c r="U95" s="111"/>
-      <c r="V95" s="131" t="s">
+      <c r="U95" s="123"/>
+      <c r="V95" s="116" t="s">
         <v>206</v>
       </c>
       <c r="W95" s="7" t="str">
@@ -10619,7 +10617,7 @@
         <v>AB1</v>
       </c>
       <c r="X95" s="3"/>
-      <c r="Y95" s="111"/>
+      <c r="Y95" s="123"/>
       <c r="Z95" s="72"/>
       <c r="AA95" s="72"/>
       <c r="AB95" s="72"/>
@@ -10644,7 +10642,7 @@
       <c r="AU95" s="72"/>
       <c r="AV95" s="72"/>
       <c r="AW95" s="72"/>
-      <c r="AX95" s="103"/>
+      <c r="AX95" s="100"/>
       <c r="AY95" s="72"/>
       <c r="AZ95" s="72"/>
       <c r="BA95" s="72"/>
@@ -10653,11 +10651,11 @@
       <c r="BD95" s="72"/>
       <c r="BE95" s="72"/>
       <c r="BF95" s="29"/>
-      <c r="BG95" s="105"/>
+      <c r="BG95" s="175"/>
     </row>
     <row r="96" spans="1:59" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="84"/>
-      <c r="B96" s="106"/>
+      <c r="B96" s="176"/>
       <c r="C96" s="30"/>
       <c r="D96" s="72"/>
       <c r="E96" s="72"/>
@@ -10667,24 +10665,24 @@
       <c r="I96" s="72"/>
       <c r="J96" s="72"/>
       <c r="K96" s="72"/>
-      <c r="L96" s="103"/>
-      <c r="M96" s="112"/>
-      <c r="P96" s="117"/>
+      <c r="L96" s="100"/>
+      <c r="M96" s="155"/>
+      <c r="P96" s="120"/>
       <c r="Q96" s="8" t="str">
         <f>IF(ISBLANK($R$55),"J3",$R$55)</f>
         <v>J3</v>
       </c>
       <c r="R96" s="42"/>
-      <c r="S96" s="111"/>
+      <c r="S96" s="123"/>
       <c r="T96" s="72"/>
-      <c r="U96" s="111"/>
-      <c r="V96" s="132"/>
+      <c r="U96" s="123"/>
+      <c r="V96" s="117"/>
       <c r="W96" s="8" t="str">
         <f>IF(ISBLANK($R$100),"AC2",$R$100)</f>
         <v>AC2</v>
       </c>
       <c r="X96" s="10"/>
-      <c r="Y96" s="111"/>
+      <c r="Y96" s="123"/>
       <c r="Z96" s="72"/>
       <c r="AA96" s="72"/>
       <c r="AB96" s="72"/>
@@ -10709,7 +10707,7 @@
       <c r="AU96" s="72"/>
       <c r="AV96" s="72"/>
       <c r="AW96" s="72"/>
-      <c r="AX96" s="103"/>
+      <c r="AX96" s="100"/>
       <c r="AY96" s="72"/>
       <c r="AZ96" s="72"/>
       <c r="BA96" s="72"/>
@@ -10718,11 +10716,11 @@
       <c r="BD96" s="72"/>
       <c r="BE96" s="72"/>
       <c r="BF96" s="29"/>
-      <c r="BG96" s="105"/>
+      <c r="BG96" s="175"/>
     </row>
     <row r="97" spans="1:59" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="84"/>
-      <c r="B97" s="106"/>
+      <c r="B97" s="176"/>
       <c r="C97" s="30"/>
       <c r="D97" s="72"/>
       <c r="E97" s="72"/>
@@ -10732,24 +10730,24 @@
       <c r="I97" s="72"/>
       <c r="J97" s="72"/>
       <c r="K97" s="72"/>
-      <c r="L97" s="103"/>
-      <c r="M97" s="112"/>
-      <c r="P97" s="117"/>
+      <c r="L97" s="100"/>
+      <c r="M97" s="155"/>
+      <c r="P97" s="120"/>
       <c r="Q97" s="8" t="str">
         <f>IF(ISBLANK($R$28),"C4",$R$28)</f>
         <v>C4</v>
       </c>
       <c r="R97" s="74"/>
-      <c r="S97" s="111"/>
+      <c r="S97" s="123"/>
       <c r="T97" s="72"/>
-      <c r="U97" s="111"/>
-      <c r="V97" s="132"/>
+      <c r="U97" s="123"/>
+      <c r="V97" s="117"/>
       <c r="W97" s="8" t="str">
         <f>IF(ISBLANK($X$35),"Q3",$X$35)</f>
         <v>Q3</v>
       </c>
       <c r="X97" s="4"/>
-      <c r="Y97" s="111"/>
+      <c r="Y97" s="123"/>
       <c r="Z97" s="72"/>
       <c r="AA97" s="72"/>
       <c r="AB97" s="72"/>
@@ -10774,7 +10772,7 @@
       <c r="AU97" s="72"/>
       <c r="AV97" s="72"/>
       <c r="AW97" s="72"/>
-      <c r="AX97" s="103"/>
+      <c r="AX97" s="100"/>
       <c r="AY97" s="72"/>
       <c r="AZ97" s="72"/>
       <c r="BA97" s="72"/>
@@ -10783,11 +10781,11 @@
       <c r="BD97" s="72"/>
       <c r="BE97" s="72"/>
       <c r="BF97" s="29"/>
-      <c r="BG97" s="105"/>
+      <c r="BG97" s="175"/>
     </row>
     <row r="98" spans="1:59" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="84"/>
-      <c r="B98" s="106"/>
+      <c r="B98" s="176"/>
       <c r="C98" s="30"/>
       <c r="D98" s="72"/>
       <c r="E98" s="72"/>
@@ -10797,24 +10795,24 @@
       <c r="I98" s="72"/>
       <c r="J98" s="72"/>
       <c r="K98" s="72"/>
-      <c r="L98" s="103"/>
-      <c r="M98" s="112"/>
-      <c r="P98" s="118"/>
+      <c r="L98" s="100"/>
+      <c r="M98" s="155"/>
+      <c r="P98" s="121"/>
       <c r="Q98" s="8" t="str">
         <f>IF(ISBLANK($R$32),"D4",$R$32)</f>
         <v>D4</v>
       </c>
       <c r="R98" s="74"/>
-      <c r="S98" s="111"/>
+      <c r="S98" s="123"/>
       <c r="T98" s="72"/>
-      <c r="U98" s="111"/>
-      <c r="V98" s="133"/>
+      <c r="U98" s="123"/>
+      <c r="V98" s="118"/>
       <c r="W98" s="9" t="str">
         <f>IF(ISBLANK($X$40),"R4",$X$40)</f>
         <v>R4</v>
       </c>
       <c r="X98" s="5"/>
-      <c r="Y98" s="111"/>
+      <c r="Y98" s="123"/>
       <c r="Z98" s="72"/>
       <c r="AA98" s="72"/>
       <c r="AB98" s="72"/>
@@ -10839,7 +10837,7 @@
       <c r="AU98" s="72"/>
       <c r="AV98" s="72"/>
       <c r="AW98" s="72"/>
-      <c r="AX98" s="103"/>
+      <c r="AX98" s="100"/>
       <c r="AY98" s="72"/>
       <c r="AZ98" s="72"/>
       <c r="BA98" s="72"/>
@@ -10848,11 +10846,11 @@
       <c r="BD98" s="72"/>
       <c r="BE98" s="72"/>
       <c r="BF98" s="29"/>
-      <c r="BG98" s="105"/>
+      <c r="BG98" s="175"/>
     </row>
     <row r="99" spans="1:59" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="84"/>
-      <c r="B99" s="106"/>
+      <c r="B99" s="176"/>
       <c r="C99" s="30"/>
       <c r="D99" s="72"/>
       <c r="E99" s="72"/>
@@ -10862,9 +10860,9 @@
       <c r="I99" s="72"/>
       <c r="J99" s="72"/>
       <c r="K99" s="72"/>
-      <c r="L99" s="103"/>
-      <c r="M99" s="112"/>
-      <c r="P99" s="116" t="s">
+      <c r="L99" s="100"/>
+      <c r="M99" s="155"/>
+      <c r="P99" s="119" t="s">
         <v>201</v>
       </c>
       <c r="Q99" s="7" t="str">
@@ -10872,10 +10870,10 @@
         <v>K3</v>
       </c>
       <c r="R99" s="41"/>
-      <c r="S99" s="111"/>
+      <c r="S99" s="123"/>
       <c r="T99" s="72"/>
-      <c r="U99" s="111"/>
-      <c r="V99" s="131" t="s">
+      <c r="U99" s="123"/>
+      <c r="V99" s="116" t="s">
         <v>207</v>
       </c>
       <c r="W99" s="7" t="str">
@@ -10883,7 +10881,7 @@
         <v>AC1</v>
       </c>
       <c r="X99" s="3"/>
-      <c r="Y99" s="111"/>
+      <c r="Y99" s="123"/>
       <c r="Z99" s="72"/>
       <c r="AA99" s="72"/>
       <c r="AB99" s="72"/>
@@ -10908,7 +10906,7 @@
       <c r="AU99" s="72"/>
       <c r="AV99" s="72"/>
       <c r="AW99" s="72"/>
-      <c r="AX99" s="103"/>
+      <c r="AX99" s="100"/>
       <c r="AY99" s="72"/>
       <c r="AZ99" s="72"/>
       <c r="BA99" s="72"/>
@@ -10917,11 +10915,11 @@
       <c r="BD99" s="72"/>
       <c r="BE99" s="72"/>
       <c r="BF99" s="29"/>
-      <c r="BG99" s="105"/>
+      <c r="BG99" s="175"/>
     </row>
     <row r="100" spans="1:59" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="84"/>
-      <c r="B100" s="106"/>
+      <c r="B100" s="176"/>
       <c r="C100" s="30"/>
       <c r="D100" s="72"/>
       <c r="E100" s="72"/>
@@ -10931,24 +10929,24 @@
       <c r="I100" s="72"/>
       <c r="J100" s="72"/>
       <c r="K100" s="72"/>
-      <c r="L100" s="103"/>
-      <c r="M100" s="112"/>
-      <c r="P100" s="117"/>
+      <c r="L100" s="100"/>
+      <c r="M100" s="155"/>
+      <c r="P100" s="120"/>
       <c r="Q100" s="8" t="str">
         <f>IF(ISBLANK($R$63),"L3",$R$63)</f>
         <v>L3</v>
       </c>
       <c r="R100" s="42"/>
-      <c r="S100" s="111"/>
+      <c r="S100" s="123"/>
       <c r="T100" s="72"/>
-      <c r="U100" s="111"/>
-      <c r="V100" s="132"/>
+      <c r="U100" s="123"/>
+      <c r="V100" s="117"/>
       <c r="W100" s="8" t="str">
         <f>IF(ISBLANK($R$96),"AB2",$R$96)</f>
         <v>AB2</v>
       </c>
       <c r="X100" s="10"/>
-      <c r="Y100" s="111"/>
+      <c r="Y100" s="123"/>
       <c r="Z100" s="72"/>
       <c r="AA100" s="72"/>
       <c r="AB100" s="72"/>
@@ -10973,7 +10971,7 @@
       <c r="AU100" s="72"/>
       <c r="AV100" s="72"/>
       <c r="AW100" s="72"/>
-      <c r="AX100" s="103"/>
+      <c r="AX100" s="100"/>
       <c r="AY100" s="72"/>
       <c r="AZ100" s="72"/>
       <c r="BA100" s="72"/>
@@ -10982,11 +10980,11 @@
       <c r="BD100" s="72"/>
       <c r="BE100" s="72"/>
       <c r="BF100" s="29"/>
-      <c r="BG100" s="105"/>
+      <c r="BG100" s="175"/>
     </row>
     <row r="101" spans="1:59" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="84"/>
-      <c r="B101" s="106"/>
+      <c r="B101" s="176"/>
       <c r="C101" s="30"/>
       <c r="D101" s="72"/>
       <c r="E101" s="72"/>
@@ -10996,24 +10994,24 @@
       <c r="I101" s="72"/>
       <c r="J101" s="72"/>
       <c r="K101" s="72"/>
-      <c r="L101" s="103"/>
-      <c r="M101" s="112"/>
-      <c r="P101" s="117"/>
+      <c r="L101" s="100"/>
+      <c r="M101" s="155"/>
+      <c r="P101" s="120"/>
       <c r="Q101" s="8" t="str">
         <f>IF(ISBLANK($R$20),"A4",$R$20)</f>
         <v>A4</v>
       </c>
       <c r="R101" s="74"/>
-      <c r="S101" s="111"/>
+      <c r="S101" s="123"/>
       <c r="T101" s="72"/>
-      <c r="U101" s="111"/>
-      <c r="V101" s="132"/>
+      <c r="U101" s="123"/>
+      <c r="V101" s="117"/>
       <c r="W101" s="8" t="str">
         <f>IF(ISBLANK($X$39),"R3",$X$39)</f>
         <v>R3</v>
       </c>
       <c r="X101" s="4"/>
-      <c r="Y101" s="111"/>
+      <c r="Y101" s="123"/>
       <c r="Z101" s="72"/>
       <c r="AA101" s="72"/>
       <c r="AB101" s="72"/>
@@ -11038,7 +11036,7 @@
       <c r="AU101" s="72"/>
       <c r="AV101" s="72"/>
       <c r="AW101" s="72"/>
-      <c r="AX101" s="103"/>
+      <c r="AX101" s="100"/>
       <c r="AY101" s="72"/>
       <c r="AZ101" s="72"/>
       <c r="BA101" s="72"/>
@@ -11047,11 +11045,11 @@
       <c r="BD101" s="72"/>
       <c r="BE101" s="72"/>
       <c r="BF101" s="29"/>
-      <c r="BG101" s="105"/>
+      <c r="BG101" s="175"/>
     </row>
     <row r="102" spans="1:59" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="84"/>
-      <c r="B102" s="106"/>
+      <c r="B102" s="176"/>
       <c r="C102" s="30"/>
       <c r="D102" s="72"/>
       <c r="E102" s="72"/>
@@ -11061,24 +11059,24 @@
       <c r="I102" s="72"/>
       <c r="J102" s="72"/>
       <c r="K102" s="72"/>
-      <c r="L102" s="103"/>
-      <c r="M102" s="158"/>
-      <c r="P102" s="118"/>
+      <c r="L102" s="100"/>
+      <c r="M102" s="156"/>
+      <c r="P102" s="121"/>
       <c r="Q102" s="8" t="str">
         <f>IF(ISBLANK($R$24),"B4",$R$24)</f>
         <v>B4</v>
       </c>
       <c r="R102" s="74"/>
-      <c r="S102" s="119"/>
+      <c r="S102" s="124"/>
       <c r="T102" s="72"/>
-      <c r="U102" s="119"/>
-      <c r="V102" s="133"/>
+      <c r="U102" s="124"/>
+      <c r="V102" s="118"/>
       <c r="W102" s="9" t="str">
         <f>IF(ISBLANK($X$36),"Q4",$X$36)</f>
         <v>Q4</v>
       </c>
       <c r="X102" s="5"/>
-      <c r="Y102" s="119"/>
+      <c r="Y102" s="124"/>
       <c r="Z102" s="72"/>
       <c r="AA102" s="72"/>
       <c r="AB102" s="72"/>
@@ -11103,7 +11101,7 @@
       <c r="AU102" s="72"/>
       <c r="AV102" s="72"/>
       <c r="AW102" s="72"/>
-      <c r="AX102" s="103"/>
+      <c r="AX102" s="100"/>
       <c r="AY102" s="72"/>
       <c r="AZ102" s="72"/>
       <c r="BA102" s="72"/>
@@ -11112,11 +11110,11 @@
       <c r="BD102" s="72"/>
       <c r="BE102" s="72"/>
       <c r="BF102" s="29"/>
-      <c r="BG102" s="105"/>
+      <c r="BG102" s="175"/>
     </row>
     <row r="103" spans="1:59" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="84"/>
-      <c r="B103" s="106"/>
+      <c r="B103" s="176"/>
       <c r="C103" s="30"/>
       <c r="D103" s="72"/>
       <c r="E103" s="72"/>
@@ -11126,20 +11124,20 @@
       <c r="I103" s="72"/>
       <c r="J103" s="72"/>
       <c r="K103" s="72"/>
-      <c r="L103" s="103"/>
-      <c r="M103" s="107"/>
-      <c r="N103" s="107"/>
-      <c r="O103" s="107"/>
-      <c r="P103" s="107"/>
-      <c r="Q103" s="107"/>
-      <c r="R103" s="107"/>
-      <c r="S103" s="108"/>
+      <c r="L103" s="100"/>
+      <c r="M103" s="110"/>
+      <c r="N103" s="110"/>
+      <c r="O103" s="110"/>
+      <c r="P103" s="110"/>
+      <c r="Q103" s="110"/>
+      <c r="R103" s="110"/>
+      <c r="S103" s="111"/>
       <c r="T103" s="72"/>
       <c r="U103" s="109"/>
-      <c r="V103" s="107"/>
-      <c r="W103" s="107"/>
-      <c r="X103" s="107"/>
-      <c r="Y103" s="108"/>
+      <c r="V103" s="110"/>
+      <c r="W103" s="110"/>
+      <c r="X103" s="110"/>
+      <c r="Y103" s="111"/>
       <c r="Z103" s="72"/>
       <c r="AA103" s="72"/>
       <c r="AB103" s="72"/>
@@ -11164,7 +11162,7 @@
       <c r="AU103" s="72"/>
       <c r="AV103" s="72"/>
       <c r="AW103" s="72"/>
-      <c r="AX103" s="103"/>
+      <c r="AX103" s="100"/>
       <c r="AY103" s="72"/>
       <c r="AZ103" s="72"/>
       <c r="BA103" s="72"/>
@@ -11173,11 +11171,11 @@
       <c r="BD103" s="72"/>
       <c r="BE103" s="72"/>
       <c r="BF103" s="29"/>
-      <c r="BG103" s="105"/>
+      <c r="BG103" s="175"/>
     </row>
     <row r="104" spans="1:59" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="84"/>
-      <c r="B104" s="106"/>
+      <c r="B104" s="176"/>
       <c r="C104" s="30"/>
       <c r="D104" s="72"/>
       <c r="E104" s="72"/>
@@ -11187,7 +11185,7 @@
       <c r="I104" s="72"/>
       <c r="J104" s="72"/>
       <c r="K104" s="72"/>
-      <c r="L104" s="103"/>
+      <c r="L104" s="100"/>
       <c r="M104" s="80"/>
       <c r="N104" s="72"/>
       <c r="O104" s="72"/>
@@ -11225,7 +11223,7 @@
       <c r="AU104" s="72"/>
       <c r="AV104" s="72"/>
       <c r="AW104" s="72"/>
-      <c r="AX104" s="103"/>
+      <c r="AX104" s="100"/>
       <c r="AY104" s="72"/>
       <c r="AZ104" s="72"/>
       <c r="BA104" s="72"/>
@@ -11234,11 +11232,11 @@
       <c r="BD104" s="72"/>
       <c r="BE104" s="72"/>
       <c r="BF104" s="29"/>
-      <c r="BG104" s="105"/>
+      <c r="BG104" s="175"/>
     </row>
     <row r="105" spans="1:59" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="84"/>
-      <c r="B105" s="106"/>
+      <c r="B105" s="176"/>
       <c r="C105" s="87"/>
       <c r="D105" s="88"/>
       <c r="E105" s="88"/>
@@ -11248,20 +11246,20 @@
       <c r="I105" s="88"/>
       <c r="J105" s="88"/>
       <c r="K105" s="88"/>
-      <c r="L105" s="104"/>
-      <c r="M105" s="134"/>
-      <c r="N105" s="134"/>
-      <c r="O105" s="134"/>
-      <c r="P105" s="134"/>
-      <c r="Q105" s="134"/>
-      <c r="R105" s="134"/>
-      <c r="S105" s="134"/>
+      <c r="L105" s="101"/>
+      <c r="M105" s="153"/>
+      <c r="N105" s="153"/>
+      <c r="O105" s="153"/>
+      <c r="P105" s="153"/>
+      <c r="Q105" s="153"/>
+      <c r="R105" s="153"/>
+      <c r="S105" s="153"/>
       <c r="T105" s="88"/>
-      <c r="U105" s="134"/>
-      <c r="V105" s="134"/>
-      <c r="W105" s="134"/>
-      <c r="X105" s="134"/>
-      <c r="Y105" s="134"/>
+      <c r="U105" s="153"/>
+      <c r="V105" s="153"/>
+      <c r="W105" s="153"/>
+      <c r="X105" s="153"/>
+      <c r="Y105" s="153"/>
       <c r="Z105" s="88"/>
       <c r="AA105" s="88"/>
       <c r="AB105" s="88"/>
@@ -11286,7 +11284,7 @@
       <c r="AU105" s="88"/>
       <c r="AV105" s="88"/>
       <c r="AW105" s="88"/>
-      <c r="AX105" s="104"/>
+      <c r="AX105" s="101"/>
       <c r="AY105" s="88"/>
       <c r="AZ105" s="88"/>
       <c r="BA105" s="88"/>
@@ -11295,68 +11293,68 @@
       <c r="BD105" s="88"/>
       <c r="BE105" s="88"/>
       <c r="BF105" s="89"/>
-      <c r="BG105" s="105"/>
+      <c r="BG105" s="175"/>
     </row>
     <row r="106" spans="1:59" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="99"/>
-      <c r="B106" s="100"/>
-      <c r="C106" s="100"/>
-      <c r="D106" s="100"/>
-      <c r="E106" s="100"/>
-      <c r="F106" s="100"/>
-      <c r="G106" s="100"/>
-      <c r="H106" s="100"/>
-      <c r="I106" s="100"/>
-      <c r="J106" s="100"/>
-      <c r="K106" s="100"/>
-      <c r="L106" s="100"/>
-      <c r="M106" s="100"/>
-      <c r="N106" s="100"/>
-      <c r="O106" s="100"/>
-      <c r="P106" s="100"/>
-      <c r="Q106" s="100"/>
-      <c r="R106" s="100"/>
-      <c r="S106" s="100"/>
-      <c r="T106" s="100"/>
-      <c r="U106" s="100"/>
-      <c r="V106" s="100"/>
-      <c r="W106" s="100"/>
-      <c r="X106" s="100"/>
-      <c r="Y106" s="100"/>
-      <c r="Z106" s="100"/>
-      <c r="AA106" s="100"/>
-      <c r="AB106" s="100"/>
-      <c r="AC106" s="100"/>
-      <c r="AD106" s="100"/>
-      <c r="AE106" s="100"/>
-      <c r="AF106" s="100"/>
-      <c r="AG106" s="100"/>
-      <c r="AH106" s="100"/>
-      <c r="AI106" s="100"/>
-      <c r="AJ106" s="100"/>
-      <c r="AK106" s="100"/>
-      <c r="AL106" s="100"/>
-      <c r="AM106" s="100"/>
-      <c r="AN106" s="100"/>
-      <c r="AO106" s="100"/>
-      <c r="AP106" s="100"/>
-      <c r="AQ106" s="100"/>
-      <c r="AR106" s="100"/>
-      <c r="AS106" s="100"/>
-      <c r="AT106" s="100"/>
-      <c r="AU106" s="100"/>
-      <c r="AV106" s="100"/>
-      <c r="AW106" s="100"/>
-      <c r="AX106" s="100"/>
-      <c r="AY106" s="100"/>
-      <c r="AZ106" s="100"/>
-      <c r="BA106" s="100"/>
-      <c r="BB106" s="100"/>
-      <c r="BC106" s="100"/>
-      <c r="BD106" s="100"/>
-      <c r="BE106" s="100"/>
-      <c r="BF106" s="100"/>
-      <c r="BG106" s="101"/>
+      <c r="A106" s="172"/>
+      <c r="B106" s="173"/>
+      <c r="C106" s="173"/>
+      <c r="D106" s="173"/>
+      <c r="E106" s="173"/>
+      <c r="F106" s="173"/>
+      <c r="G106" s="173"/>
+      <c r="H106" s="173"/>
+      <c r="I106" s="173"/>
+      <c r="J106" s="173"/>
+      <c r="K106" s="173"/>
+      <c r="L106" s="173"/>
+      <c r="M106" s="173"/>
+      <c r="N106" s="173"/>
+      <c r="O106" s="173"/>
+      <c r="P106" s="173"/>
+      <c r="Q106" s="173"/>
+      <c r="R106" s="173"/>
+      <c r="S106" s="173"/>
+      <c r="T106" s="173"/>
+      <c r="U106" s="173"/>
+      <c r="V106" s="173"/>
+      <c r="W106" s="173"/>
+      <c r="X106" s="173"/>
+      <c r="Y106" s="173"/>
+      <c r="Z106" s="173"/>
+      <c r="AA106" s="173"/>
+      <c r="AB106" s="173"/>
+      <c r="AC106" s="173"/>
+      <c r="AD106" s="173"/>
+      <c r="AE106" s="173"/>
+      <c r="AF106" s="173"/>
+      <c r="AG106" s="173"/>
+      <c r="AH106" s="173"/>
+      <c r="AI106" s="173"/>
+      <c r="AJ106" s="173"/>
+      <c r="AK106" s="173"/>
+      <c r="AL106" s="173"/>
+      <c r="AM106" s="173"/>
+      <c r="AN106" s="173"/>
+      <c r="AO106" s="173"/>
+      <c r="AP106" s="173"/>
+      <c r="AQ106" s="173"/>
+      <c r="AR106" s="173"/>
+      <c r="AS106" s="173"/>
+      <c r="AT106" s="173"/>
+      <c r="AU106" s="173"/>
+      <c r="AV106" s="173"/>
+      <c r="AW106" s="173"/>
+      <c r="AX106" s="173"/>
+      <c r="AY106" s="173"/>
+      <c r="AZ106" s="173"/>
+      <c r="BA106" s="173"/>
+      <c r="BB106" s="173"/>
+      <c r="BC106" s="173"/>
+      <c r="BD106" s="173"/>
+      <c r="BE106" s="173"/>
+      <c r="BF106" s="173"/>
+      <c r="BG106" s="174"/>
     </row>
     <row r="107" spans="1:59" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="61"/>
@@ -11448,6 +11446,119 @@
     </row>
   </sheetData>
   <mergeCells count="137">
+    <mergeCell ref="A106:BG106"/>
+    <mergeCell ref="L2:L105"/>
+    <mergeCell ref="BG2:BG105"/>
+    <mergeCell ref="B2:B105"/>
+    <mergeCell ref="M103:S103"/>
+    <mergeCell ref="U103:Y103"/>
+    <mergeCell ref="AK15:AK22"/>
+    <mergeCell ref="AG15:AG22"/>
+    <mergeCell ref="AG23:AK23"/>
+    <mergeCell ref="AH20:AH22"/>
+    <mergeCell ref="AH17:AH19"/>
+    <mergeCell ref="AM77:AM86"/>
+    <mergeCell ref="AQ77:AQ86"/>
+    <mergeCell ref="AM14:AQ14"/>
+    <mergeCell ref="AN17:AN20"/>
+    <mergeCell ref="AM21:AQ21"/>
+    <mergeCell ref="AG11:AK13"/>
+    <mergeCell ref="AI15:AJ15"/>
+    <mergeCell ref="AB17:AB20"/>
+    <mergeCell ref="V99:V102"/>
+    <mergeCell ref="U105:Y105"/>
+    <mergeCell ref="U77:U102"/>
+    <mergeCell ref="Y77:Y102"/>
+    <mergeCell ref="AS83:AW83"/>
+    <mergeCell ref="B1:BG1"/>
+    <mergeCell ref="AZ25:BE27"/>
+    <mergeCell ref="AZ11:BE13"/>
+    <mergeCell ref="AY5:BF7"/>
+    <mergeCell ref="BA31:BA34"/>
+    <mergeCell ref="BA17:BA20"/>
+    <mergeCell ref="AZ14:BE14"/>
+    <mergeCell ref="AZ21:BE21"/>
+    <mergeCell ref="AZ28:BE28"/>
+    <mergeCell ref="AZ15:AZ20"/>
+    <mergeCell ref="AZ29:AZ34"/>
+    <mergeCell ref="BE15:BE20"/>
+    <mergeCell ref="BE29:BE34"/>
+    <mergeCell ref="AB25:AB28"/>
+    <mergeCell ref="AA15:AA28"/>
+    <mergeCell ref="AE15:AE28"/>
+    <mergeCell ref="AA29:AE29"/>
+    <mergeCell ref="AM15:AM20"/>
+    <mergeCell ref="AO15:AP15"/>
+    <mergeCell ref="AQ15:AQ20"/>
+    <mergeCell ref="AA11:AE13"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="M11:S13"/>
+    <mergeCell ref="C2:K6"/>
+    <mergeCell ref="P87:P90"/>
+    <mergeCell ref="AG77:AG90"/>
+    <mergeCell ref="AI77:AJ77"/>
+    <mergeCell ref="AK77:AK90"/>
+    <mergeCell ref="AH79:AH82"/>
+    <mergeCell ref="AH83:AH86"/>
+    <mergeCell ref="AH87:AH90"/>
+    <mergeCell ref="AG91:AK91"/>
+    <mergeCell ref="AN79:AN82"/>
+    <mergeCell ref="AN83:AN86"/>
+    <mergeCell ref="P83:P86"/>
+    <mergeCell ref="H13:J14"/>
+    <mergeCell ref="D13:E14"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="AG14:AK14"/>
+    <mergeCell ref="AA14:AE14"/>
+    <mergeCell ref="P99:P102"/>
+    <mergeCell ref="M105:S105"/>
+    <mergeCell ref="S77:S102"/>
+    <mergeCell ref="M77:M102"/>
+    <mergeCell ref="M65:S65"/>
+    <mergeCell ref="V33:V36"/>
+    <mergeCell ref="V37:V40"/>
+    <mergeCell ref="U15:U40"/>
+    <mergeCell ref="Y15:Y40"/>
+    <mergeCell ref="U41:Y41"/>
+    <mergeCell ref="P25:P28"/>
+    <mergeCell ref="P29:P32"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="P21:P24"/>
+    <mergeCell ref="P17:P20"/>
+    <mergeCell ref="M15:M64"/>
+    <mergeCell ref="S15:S64"/>
+    <mergeCell ref="P61:P64"/>
+    <mergeCell ref="V83:V86"/>
+    <mergeCell ref="AA73:AE75"/>
+    <mergeCell ref="AC77:AD77"/>
+    <mergeCell ref="M76:S76"/>
+    <mergeCell ref="V25:V28"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="V29:V32"/>
+    <mergeCell ref="AB79:AB82"/>
+    <mergeCell ref="AB83:AB86"/>
+    <mergeCell ref="P57:P60"/>
+    <mergeCell ref="P53:P56"/>
+    <mergeCell ref="P49:P52"/>
+    <mergeCell ref="U76:Y76"/>
+    <mergeCell ref="U73:Y75"/>
+    <mergeCell ref="W77:X77"/>
+    <mergeCell ref="V79:V82"/>
+    <mergeCell ref="AB21:AB24"/>
+    <mergeCell ref="M68:AW70"/>
+    <mergeCell ref="AG73:AK75"/>
+    <mergeCell ref="AG76:AK76"/>
+    <mergeCell ref="AM11:AQ13"/>
+    <mergeCell ref="AG25:AK25"/>
+    <mergeCell ref="P79:P82"/>
+    <mergeCell ref="U11:Y13"/>
+    <mergeCell ref="AS73:AW75"/>
+    <mergeCell ref="AS76:AW76"/>
+    <mergeCell ref="AU77:AV77"/>
+    <mergeCell ref="AM73:AQ75"/>
+    <mergeCell ref="M73:S75"/>
+    <mergeCell ref="AA76:AE76"/>
     <mergeCell ref="AX2:AX105"/>
     <mergeCell ref="M5:AW7"/>
     <mergeCell ref="AY83:BC83"/>
@@ -11472,119 +11583,6 @@
     <mergeCell ref="P45:P48"/>
     <mergeCell ref="M14:S14"/>
     <mergeCell ref="U14:Y14"/>
-    <mergeCell ref="W77:X77"/>
-    <mergeCell ref="V79:V82"/>
-    <mergeCell ref="AB21:AB24"/>
-    <mergeCell ref="M68:AW70"/>
-    <mergeCell ref="AG73:AK75"/>
-    <mergeCell ref="AG76:AK76"/>
-    <mergeCell ref="AM11:AQ13"/>
-    <mergeCell ref="AG25:AK25"/>
-    <mergeCell ref="P79:P82"/>
-    <mergeCell ref="U11:Y13"/>
-    <mergeCell ref="AS73:AW75"/>
-    <mergeCell ref="AS76:AW76"/>
-    <mergeCell ref="AU77:AV77"/>
-    <mergeCell ref="AM73:AQ75"/>
-    <mergeCell ref="M73:S75"/>
-    <mergeCell ref="AA76:AE76"/>
-    <mergeCell ref="V83:V86"/>
-    <mergeCell ref="AA73:AE75"/>
-    <mergeCell ref="AC77:AD77"/>
-    <mergeCell ref="M76:S76"/>
-    <mergeCell ref="V25:V28"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="V29:V32"/>
-    <mergeCell ref="AB79:AB82"/>
-    <mergeCell ref="AB83:AB86"/>
-    <mergeCell ref="P57:P60"/>
-    <mergeCell ref="P53:P56"/>
-    <mergeCell ref="P49:P52"/>
-    <mergeCell ref="U76:Y76"/>
-    <mergeCell ref="U73:Y75"/>
-    <mergeCell ref="H13:J14"/>
-    <mergeCell ref="D13:E14"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="AG14:AK14"/>
-    <mergeCell ref="AA14:AE14"/>
-    <mergeCell ref="P99:P102"/>
-    <mergeCell ref="M105:S105"/>
-    <mergeCell ref="S77:S102"/>
-    <mergeCell ref="M77:M102"/>
-    <mergeCell ref="M65:S65"/>
-    <mergeCell ref="V33:V36"/>
-    <mergeCell ref="V37:V40"/>
-    <mergeCell ref="U15:U40"/>
-    <mergeCell ref="Y15:Y40"/>
-    <mergeCell ref="U41:Y41"/>
-    <mergeCell ref="P25:P28"/>
-    <mergeCell ref="P29:P32"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="P21:P24"/>
-    <mergeCell ref="P17:P20"/>
-    <mergeCell ref="M15:M64"/>
-    <mergeCell ref="S15:S64"/>
-    <mergeCell ref="P61:P64"/>
-    <mergeCell ref="P87:P90"/>
-    <mergeCell ref="AG77:AG90"/>
-    <mergeCell ref="AI77:AJ77"/>
-    <mergeCell ref="AK77:AK90"/>
-    <mergeCell ref="AH79:AH82"/>
-    <mergeCell ref="AH83:AH86"/>
-    <mergeCell ref="AH87:AH90"/>
-    <mergeCell ref="AG91:AK91"/>
-    <mergeCell ref="AN79:AN82"/>
-    <mergeCell ref="AN83:AN86"/>
-    <mergeCell ref="P83:P86"/>
-    <mergeCell ref="B1:BG1"/>
-    <mergeCell ref="AZ25:BE27"/>
-    <mergeCell ref="AZ11:BE13"/>
-    <mergeCell ref="AY5:BF7"/>
-    <mergeCell ref="BA31:BA34"/>
-    <mergeCell ref="BA17:BA20"/>
-    <mergeCell ref="AZ14:BE14"/>
-    <mergeCell ref="AZ21:BE21"/>
-    <mergeCell ref="AZ28:BE28"/>
-    <mergeCell ref="AZ15:AZ20"/>
-    <mergeCell ref="AZ29:AZ34"/>
-    <mergeCell ref="BE15:BE20"/>
-    <mergeCell ref="BE29:BE34"/>
-    <mergeCell ref="AB25:AB28"/>
-    <mergeCell ref="AA15:AA28"/>
-    <mergeCell ref="AE15:AE28"/>
-    <mergeCell ref="AA29:AE29"/>
-    <mergeCell ref="AM15:AM20"/>
-    <mergeCell ref="AO15:AP15"/>
-    <mergeCell ref="AQ15:AQ20"/>
-    <mergeCell ref="AA11:AE13"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="M11:S13"/>
-    <mergeCell ref="C2:K6"/>
-    <mergeCell ref="A106:BG106"/>
-    <mergeCell ref="L2:L105"/>
-    <mergeCell ref="BG2:BG105"/>
-    <mergeCell ref="B2:B105"/>
-    <mergeCell ref="M103:S103"/>
-    <mergeCell ref="U103:Y103"/>
-    <mergeCell ref="AK15:AK22"/>
-    <mergeCell ref="AG15:AG22"/>
-    <mergeCell ref="AG23:AK23"/>
-    <mergeCell ref="AH20:AH22"/>
-    <mergeCell ref="AH17:AH19"/>
-    <mergeCell ref="AM77:AM86"/>
-    <mergeCell ref="AQ77:AQ86"/>
-    <mergeCell ref="AM14:AQ14"/>
-    <mergeCell ref="AN17:AN20"/>
-    <mergeCell ref="AM21:AQ21"/>
-    <mergeCell ref="AG11:AK13"/>
-    <mergeCell ref="AI15:AJ15"/>
-    <mergeCell ref="AB17:AB20"/>
-    <mergeCell ref="V99:V102"/>
-    <mergeCell ref="U105:Y105"/>
-    <mergeCell ref="U77:U102"/>
-    <mergeCell ref="Y77:Y102"/>
-    <mergeCell ref="AS83:AW83"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="Q79">
